--- a/Inputs/MSH_Health_Expat/rateSheet.xlsx
+++ b/Inputs/MSH_Health_Expat/rateSheet.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$937</definedName>
@@ -107,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,12 +142,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -209,7 +204,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,12 +232,12 @@
   <dimension ref="A1:J937"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="81.7"/>
   </cols>
@@ -299,7 +294,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1712.231662</v>
+        <v>1883.45</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
@@ -331,7 +326,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1771.531131</v>
+        <v>1948.68</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>14</v>
@@ -363,7 +358,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2196.871303</v>
+        <v>2416.56</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>14</v>
@@ -395,7 +390,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2783.635981</v>
+        <v>3062</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>14</v>
@@ -427,7 +422,7 @@
         <v>40</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3239.042335</v>
+        <v>3562.95</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>14</v>
@@ -459,7 +454,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3806.46168</v>
+        <v>4187.11</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>14</v>
@@ -491,7 +486,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>4614.312951</v>
+        <v>5075.74</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>14</v>
@@ -523,7 +518,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5840.798635</v>
+        <v>6424.88</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>14</v>
@@ -555,7 +550,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>7588.597306</v>
+        <v>8347.46</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>14</v>
@@ -587,7 +582,7 @@
         <v>65</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>9945.961626</v>
+        <v>10940.56</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>14</v>
@@ -619,7 +614,7 @@
         <v>70</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>14245.45018</v>
+        <v>15670</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>14</v>
@@ -651,7 +646,7 @@
         <v>75</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>23287.95349</v>
+        <v>25616.75</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>14</v>
@@ -683,7 +678,7 @@
         <v>80</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>39144.58044</v>
+        <v>43059.04</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>14</v>
@@ -715,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>1712.231662</v>
+        <v>1883.45</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>14</v>
@@ -747,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>2220.478306</v>
+        <v>2442.53</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>14</v>
@@ -779,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>2982.259036</v>
+        <v>3280.48</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>14</v>
@@ -811,7 +806,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>3503.289591</v>
+        <v>3853.62</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>14</v>
@@ -843,7 +838,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>3895.443562</v>
+        <v>4284.99</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>14</v>
@@ -875,7 +870,7 @@
         <v>45</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>4092.825355</v>
+        <v>4502.11</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>14</v>
@@ -907,7 +902,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>4237.303134</v>
+        <v>4661.03</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>14</v>
@@ -939,7 +934,7 @@
         <v>55</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>5379.128339</v>
+        <v>5917.04</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>14</v>
@@ -971,7 +966,7 @@
         <v>60</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>6997.089672</v>
+        <v>7696.8</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>14</v>
@@ -1003,7 +998,7 @@
         <v>65</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>9185.844989</v>
+        <v>10104.43</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>14</v>
@@ -1035,7 +1030,7 @@
         <v>70</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>12497.44649</v>
+        <v>13747.19</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>14</v>
@@ -1067,7 +1062,7 @@
         <v>75</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>18638.10795</v>
+        <v>20501.92</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>14</v>
@@ -1099,7 +1094,7 @@
         <v>80</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>30797.25344</v>
+        <v>33876.98</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>14</v>
@@ -1131,7 +1126,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>2687.976207</v>
+        <v>2956.77</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>14</v>
@@ -1163,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>2791.220559</v>
+        <v>3070.34</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>14</v>
@@ -1195,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>3471.711918</v>
+        <v>3818.88</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>14</v>
@@ -1227,7 +1222,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>4367.439339</v>
+        <v>4804.18</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>14</v>
@@ -1259,7 +1254,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>5001.547373</v>
+        <v>5501.7</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>14</v>
@@ -1291,7 +1286,7 @@
         <v>45</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>5708.986946</v>
+        <v>6279.89</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>14</v>
@@ -1323,7 +1318,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>6729.999988</v>
+        <v>7403</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>14</v>
@@ -1355,7 +1350,7 @@
         <v>55</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>8489.234802</v>
+        <v>9338.16</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>14</v>
@@ -1387,7 +1382,7 @@
         <v>60</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>11025.48737</v>
+        <v>12128.04</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>14</v>
@@ -1419,7 +1414,7 @@
         <v>65</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>14466.85513</v>
+        <v>15913.54</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>14</v>
@@ -1451,7 +1446,7 @@
         <v>70</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>20526.88942</v>
+        <v>22579.58</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>14</v>
@@ -1483,7 +1478,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>32486.56756</v>
+        <v>35735.22</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>14</v>
@@ -1515,7 +1510,7 @@
         <v>80</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>52872.94024</v>
+        <v>58160.23</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>14</v>
@@ -1547,7 +1542,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>2687.976207</v>
+        <v>2956.77</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>14</v>
@@ -1579,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>3222.62744</v>
+        <v>3544.89</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>14</v>
@@ -1611,7 +1606,7 @@
         <v>30</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>4230.111309</v>
+        <v>4653.12</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>14</v>
@@ -1643,7 +1638,7 @@
         <v>35</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>4883.861427</v>
+        <v>5372.25</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>14</v>
@@ -1675,7 +1670,7 @@
         <v>40</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>5428.83963</v>
+        <v>5971.72</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>14</v>
@@ -1707,7 +1702,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>5791.285831</v>
+        <v>6370.41</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>14</v>
@@ -1739,7 +1734,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>6148.258453</v>
+        <v>6763.08</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>14</v>
@@ -1771,7 +1766,7 @@
         <v>55</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>7770.818009</v>
+        <v>8547.9</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>14</v>
@@ -1803,7 +1798,7 @@
         <v>60</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>10135.64264</v>
+        <v>11149.21</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>14</v>
@@ -1835,7 +1830,7 @@
         <v>65</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>13332.21347</v>
+        <v>14665.43</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>14</v>
@@ -1867,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>18359.57789</v>
+        <v>20195.54</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>14</v>
@@ -1899,7 +1894,7 @@
         <v>75</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>27260.8092</v>
+        <v>29986.89</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>14</v>
@@ -1931,7 +1926,7 @@
         <v>80</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>43615.62885</v>
+        <v>47977.19</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>14</v>
@@ -1963,7 +1958,7 @@
         <v>17</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>5663.653776</v>
+        <v>6230.02</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>14</v>
@@ -1995,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>5881.193003</v>
+        <v>6469.31</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>14</v>
@@ -2027,7 +2022,7 @@
         <v>30</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>7315.01055</v>
+        <v>8046.51</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>14</v>
@@ -2059,7 +2054,7 @@
         <v>35</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>9202.33752</v>
+        <v>10122.57</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>14</v>
@@ -2091,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>10538.42388</v>
+        <v>11592.27</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>14</v>
@@ -2123,7 +2118,7 @@
         <v>45</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>12029.0222</v>
+        <v>13231.92</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>14</v>
@@ -2155,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>14180.33007</v>
+        <v>15598.36</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>14</v>
@@ -2187,7 +2182,7 @@
         <v>55</v>
       </c>
       <c r="G61" s="4" t="n">
-        <v>17887.09536</v>
+        <v>19675.8</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>14</v>
@@ -2219,7 +2214,7 @@
         <v>60</v>
       </c>
       <c r="G62" s="4" t="n">
-        <v>23231.06247</v>
+        <v>25554.17</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>14</v>
@@ -2251,7 +2246,7 @@
         <v>65</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>30482.13688</v>
+        <v>33530.35</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>14</v>
@@ -2283,7 +2278,7 @@
         <v>70</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>43250.82732</v>
+        <v>47575.91</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>14</v>
@@ -2315,7 +2310,7 @@
         <v>75</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>68450.26029</v>
+        <v>75295.29</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>14</v>
@@ -2347,7 +2342,7 @@
         <v>80</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>111405.0142</v>
+        <v>122545.52</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>14</v>
@@ -2379,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>5663.653776</v>
+        <v>6230.02</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>14</v>
@@ -2411,7 +2406,7 @@
         <v>25</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>6790.181409</v>
+        <v>7469.2</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>14</v>
@@ -2443,7 +2438,7 @@
         <v>30</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>8912.98287</v>
+        <v>9804.28</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>14</v>
@@ -2475,7 +2470,7 @@
         <v>35</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>10290.45575</v>
+        <v>11319.5</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>14</v>
@@ -2507,7 +2502,7 @@
         <v>40</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>11438.74264</v>
+        <v>12582.62</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>14</v>
@@ -2539,7 +2534,7 @@
         <v>45</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>12202.42864</v>
+        <v>13422.67</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>14</v>
@@ -2571,7 +2566,7 @@
         <v>50</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>12954.58163</v>
+        <v>14250.04</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>14</v>
@@ -2603,7 +2598,7 @@
         <v>55</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>16373.36768</v>
+        <v>18010.7</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>14</v>
@@ -2635,7 +2630,7 @@
         <v>60</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>21356.13051</v>
+        <v>23491.74</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>14</v>
@@ -2667,7 +2662,7 @@
         <v>65</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>28091.4098</v>
+        <v>30900.55</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>14</v>
@@ -2699,7 +2694,7 @@
         <v>70</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>38684.23105</v>
+        <v>42552.65</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>14</v>
@@ -2731,7 +2726,7 @@
         <v>75</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>57439.41653</v>
+        <v>63183.36</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>14</v>
@@ -2763,7 +2758,7 @@
         <v>80</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>91899.5564</v>
+        <v>101089.51</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>14</v>
@@ -2795,7 +2790,7 @@
         <v>17</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>2679.684594</v>
+        <v>2947.65</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>14</v>
@@ -2827,7 +2822,7 @@
         <v>25</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>2764.465328</v>
+        <v>3040.91</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>14</v>
@@ -2859,7 +2854,7 @@
         <v>30</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>3267.512206</v>
+        <v>3594.26</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>14</v>
@@ -2891,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>3725.40219</v>
+        <v>4097.94</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>14</v>
@@ -2923,7 +2918,7 @@
         <v>40</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>4245.479997</v>
+        <v>4670.03</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>14</v>
@@ -2955,7 +2950,7 @@
         <v>45</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>4819.352973</v>
+        <v>5301.29</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>14</v>
@@ -2987,7 +2982,7 @@
         <v>50</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>5679.580019</v>
+        <v>6247.54</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>14</v>
@@ -3019,7 +3014,7 @@
         <v>55</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>7189.21399</v>
+        <v>7908.14</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>14</v>
@@ -3051,7 +3046,7 @@
         <v>60</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>9340.51203</v>
+        <v>10274.56</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>14</v>
@@ -3083,7 +3078,7 @@
         <v>65</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>12242.10094</v>
+        <v>13466.31</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>14</v>
@@ -3115,7 +3110,7 @@
         <v>70</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>17534.17574</v>
+        <v>19287.59</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>14</v>
@@ -3147,7 +3142,7 @@
         <v>75</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>28664.24465</v>
+        <v>31530.67</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>14</v>
@@ -3179,7 +3174,7 @@
         <v>80</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>48181.55579</v>
+        <v>52999.71</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>14</v>
@@ -3211,7 +3206,7 @@
         <v>17</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>2679.684594</v>
+        <v>2947.65</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>14</v>
@@ -3243,7 +3238,7 @@
         <v>25</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>3077.311997</v>
+        <v>3385.04</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>14</v>
@@ -3275,7 +3270,7 @@
         <v>30</v>
       </c>
       <c r="G95" s="4" t="n">
-        <v>3895.495915</v>
+        <v>4285.05</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>14</v>
@@ -3307,7 +3302,7 @@
         <v>35</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>4381.059764</v>
+        <v>4819.17</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>14</v>
@@ -3339,7 +3334,7 @@
         <v>40</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>4866.740322</v>
+        <v>5353.41</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>14</v>
@@ -3371,7 +3366,7 @@
         <v>45</v>
       </c>
       <c r="G98" s="4" t="n">
-        <v>5228.877591</v>
+        <v>5751.77</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>14</v>
@@ -3403,7 +3398,7 @@
         <v>50</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>5631.074292</v>
+        <v>6194.18</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>14</v>
@@ -3435,7 +3430,7 @@
         <v>55</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>7070.650054</v>
+        <v>7777.72</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>14</v>
@@ -3467,7 +3462,7 @@
         <v>60</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>9212.547785</v>
+        <v>10133.8</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>14</v>
@@ -3499,7 +3494,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>12125.66971</v>
+        <v>13338.24</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>14</v>
@@ -3531,7 +3526,7 @@
         <v>70</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>16721.44803</v>
+        <v>18393.59</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>14</v>
@@ -3563,7 +3558,7 @@
         <v>75</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>24810.24862</v>
+        <v>27291.27</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>14</v>
@@ -3595,7 +3590,7 @@
         <v>80</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>39441.87618</v>
+        <v>43386.06</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>14</v>
@@ -3627,7 +3622,7 @@
         <v>17</v>
       </c>
       <c r="G106" s="4" t="n">
-        <v>4206.748768</v>
+        <v>4627.42</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>14</v>
@@ -3659,7 +3654,7 @@
         <v>25</v>
       </c>
       <c r="G107" s="4" t="n">
-        <v>4355.612414</v>
+        <v>4791.17</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>14</v>
@@ -3691,7 +3686,7 @@
         <v>30</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>5164.145032</v>
+        <v>5680.56</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>14</v>
@@ -3723,7 +3718,7 @@
         <v>35</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>5845.153175</v>
+        <v>6429.67</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>14</v>
@@ -3755,7 +3750,7 @@
         <v>40</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>6555.907664</v>
+        <v>7211.5</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>14</v>
@@ -3787,7 +3782,7 @@
         <v>45</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>7229.072702</v>
+        <v>7951.98</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>14</v>
@@ -3819,7 +3814,7 @@
         <v>50</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>8283.697673</v>
+        <v>9112.07</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>14</v>
@@ -3851,7 +3846,7 @@
         <v>55</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>10449.07202</v>
+        <v>11493.98</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>14</v>
@@ -3883,7 +3878,7 @@
         <v>60</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>13570.84758</v>
+        <v>14927.93</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>14</v>
@@ -3915,7 +3910,7 @@
         <v>65</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>17806.69456</v>
+        <v>19587.36</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>14</v>
@@ -3947,7 +3942,7 @@
         <v>70</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>25265.75727</v>
+        <v>27792.33</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>14</v>
@@ -3979,7 +3974,7 @@
         <v>75</v>
       </c>
       <c r="G117" s="4" t="n">
-        <v>39986.46428</v>
+        <v>43985.11</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>14</v>
@@ -4011,7 +4006,7 @@
         <v>80</v>
       </c>
       <c r="G118" s="4" t="n">
-        <v>65079.26491</v>
+        <v>71587.19</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>14</v>
@@ -4043,7 +4038,7 @@
         <v>17</v>
       </c>
       <c r="G119" s="4" t="n">
-        <v>4206.748768</v>
+        <v>4627.42</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>14</v>
@@ -4075,7 +4070,7 @@
         <v>25</v>
       </c>
       <c r="G120" s="4" t="n">
-        <v>4485.047108</v>
+        <v>4933.55</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>14</v>
@@ -4107,7 +4102,7 @@
         <v>30</v>
       </c>
       <c r="G121" s="4" t="n">
-        <v>5526.126026</v>
+        <v>6078.74</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>14</v>
@@ -4139,7 +4134,7 @@
         <v>35</v>
       </c>
       <c r="G122" s="4" t="n">
-        <v>6107.594653</v>
+        <v>6718.35</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>14</v>
@@ -4171,7 +4166,7 @@
         <v>40</v>
       </c>
       <c r="G123" s="4" t="n">
-        <v>6782.490522</v>
+        <v>7460.74</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>14</v>
@@ -4203,7 +4198,7 @@
         <v>45</v>
       </c>
       <c r="G124" s="4" t="n">
-        <v>7402.586466</v>
+        <v>8142.85</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>14</v>
@@ -4235,7 +4230,7 @@
         <v>50</v>
       </c>
       <c r="G125" s="4" t="n">
-        <v>8170.93837</v>
+        <v>8988.03</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>14</v>
@@ -4267,7 +4262,7 @@
         <v>55</v>
       </c>
       <c r="G126" s="4" t="n">
-        <v>10214.44017</v>
+        <v>11235.88</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>14</v>
@@ -4299,7 +4294,7 @@
         <v>60</v>
       </c>
       <c r="G127" s="4" t="n">
-        <v>13344.848</v>
+        <v>14679.33</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>14</v>
@@ -4331,7 +4326,7 @@
         <v>65</v>
       </c>
       <c r="G128" s="4" t="n">
-        <v>17599.13054</v>
+        <v>19359.04</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>14</v>
@@ -4363,7 +4358,7 @@
         <v>70</v>
       </c>
       <c r="G129" s="4" t="n">
-        <v>24565.40391</v>
+        <v>27021.94</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>14</v>
@@ -4395,7 +4390,7 @@
         <v>75</v>
       </c>
       <c r="G130" s="4" t="n">
-        <v>36290.87811</v>
+        <v>39919.97</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>14</v>
@@ -4427,7 +4422,7 @@
         <v>80</v>
       </c>
       <c r="G131" s="4" t="n">
-        <v>55864.48741</v>
+        <v>61450.94</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>14</v>
@@ -4459,7 +4454,7 @@
         <v>17</v>
       </c>
       <c r="G132" s="4" t="n">
-        <v>8863.757231</v>
+        <v>9750.13</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>14</v>
@@ -4491,7 +4486,7 @@
         <v>25</v>
       </c>
       <c r="G133" s="4" t="n">
-        <v>9177.417801</v>
+        <v>10095.16</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>14</v>
@@ -4523,7 +4518,7 @@
         <v>30</v>
       </c>
       <c r="G134" s="4" t="n">
-        <v>10881.02247</v>
+        <v>11969.12</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>14</v>
@@ -4555,7 +4550,7 @@
         <v>35</v>
       </c>
       <c r="G135" s="4" t="n">
-        <v>12315.9289</v>
+        <v>13547.52</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>14</v>
@@ -4587,7 +4582,7 @@
         <v>40</v>
       </c>
       <c r="G136" s="4" t="n">
-        <v>13813.51185</v>
+        <v>15194.86</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>14</v>
@@ -4619,7 +4614,7 @@
         <v>45</v>
       </c>
       <c r="G137" s="4" t="n">
-        <v>15231.8926</v>
+        <v>16755.08</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>14</v>
@@ -4651,7 +4646,7 @@
         <v>50</v>
       </c>
       <c r="G138" s="4" t="n">
-        <v>17454.02191</v>
+        <v>19199.42</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>14</v>
@@ -4683,7 +4678,7 @@
         <v>55</v>
       </c>
       <c r="G139" s="4" t="n">
-        <v>22016.53648</v>
+        <v>24218.19</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>14</v>
@@ -4715,7 +4710,7 @@
         <v>60</v>
       </c>
       <c r="G140" s="4" t="n">
-        <v>28594.21968</v>
+        <v>31453.64</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>14</v>
@@ -4747,7 +4742,7 @@
         <v>65</v>
       </c>
       <c r="G141" s="4" t="n">
-        <v>37519.28779</v>
+        <v>41271.22</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>14</v>
@@ -4779,7 +4774,7 @@
         <v>70</v>
       </c>
       <c r="G142" s="4" t="n">
-        <v>53235.77686</v>
+        <v>58559.35</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>14</v>
@@ -4811,7 +4806,7 @@
         <v>75</v>
       </c>
       <c r="G143" s="4" t="n">
-        <v>84252.78795</v>
+        <v>92678.07</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>14</v>
@@ -4843,7 +4838,7 @@
         <v>80</v>
       </c>
       <c r="G144" s="4" t="n">
-        <v>137124.1395</v>
+        <v>150836.55</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>14</v>
@@ -4875,7 +4870,7 @@
         <v>17</v>
       </c>
       <c r="G145" s="4" t="n">
-        <v>8863.757231</v>
+        <v>9750.13</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>14</v>
@@ -4907,7 +4902,7 @@
         <v>25</v>
       </c>
       <c r="G146" s="4" t="n">
-        <v>9450.140935</v>
+        <v>10395.16</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>14</v>
@@ -4939,7 +4934,7 @@
         <v>30</v>
       </c>
       <c r="G147" s="4" t="n">
-        <v>11643.72826</v>
+        <v>12808.1</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>14</v>
@@ -4971,7 +4966,7 @@
         <v>35</v>
       </c>
       <c r="G148" s="4" t="n">
-        <v>12868.90168</v>
+        <v>14155.79</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>14</v>
@@ -5003,7 +4998,7 @@
         <v>40</v>
       </c>
       <c r="G149" s="4" t="n">
-        <v>14290.92934</v>
+        <v>15720.02</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>14</v>
@@ -5035,7 +5030,7 @@
         <v>45</v>
       </c>
       <c r="G150" s="4" t="n">
-        <v>15597.49178</v>
+        <v>17157.24</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>14</v>
@@ -5067,7 +5062,7 @@
         <v>50</v>
       </c>
       <c r="G151" s="4" t="n">
-        <v>17216.43437</v>
+        <v>18938.08</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>14</v>
@@ -5099,7 +5094,7 @@
         <v>55</v>
       </c>
       <c r="G152" s="4" t="n">
-        <v>21522.15948</v>
+        <v>23674.38</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>14</v>
@@ -5131,7 +5126,7 @@
         <v>60</v>
       </c>
       <c r="G153" s="4" t="n">
-        <v>28118.03116</v>
+        <v>30929.83</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>14</v>
@@ -5163,7 +5158,7 @@
         <v>65</v>
       </c>
       <c r="G154" s="4" t="n">
-        <v>37081.94361</v>
+        <v>40790.14</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>14</v>
@@ -5195,7 +5190,7 @@
         <v>70</v>
       </c>
       <c r="G155" s="4" t="n">
-        <v>51760.10943</v>
+        <v>56936.12</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>14</v>
@@ -5227,7 +5222,7 @@
         <v>75</v>
       </c>
       <c r="G156" s="4" t="n">
-        <v>76466.06703</v>
+        <v>84112.67</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>14</v>
@@ -5259,7 +5254,7 @@
         <v>80</v>
       </c>
       <c r="G157" s="4" t="n">
-        <v>117708.302</v>
+        <v>129479.13</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>14</v>
@@ -5291,7 +5286,7 @@
         <v>17</v>
       </c>
       <c r="G158" s="4" t="n">
-        <v>3137.832156</v>
+        <v>3451.62</v>
       </c>
       <c r="H158" s="5" t="s">
         <v>14</v>
@@ -5323,7 +5318,7 @@
         <v>25</v>
       </c>
       <c r="G159" s="4" t="n">
-        <v>3237.107912</v>
+        <v>3560.82</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>14</v>
@@ -5355,7 +5350,7 @@
         <v>30</v>
       </c>
       <c r="G160" s="4" t="n">
-        <v>3826.161068</v>
+        <v>4208.78</v>
       </c>
       <c r="H160" s="5" t="s">
         <v>14</v>
@@ -5387,7 +5382,7 @@
         <v>35</v>
       </c>
       <c r="G161" s="4" t="n">
-        <v>4362.336826</v>
+        <v>4798.57</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>14</v>
@@ -5419,7 +5414,7 @@
         <v>40</v>
       </c>
       <c r="G162" s="4" t="n">
-        <v>4971.332702</v>
+        <v>5468.47</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>14</v>
@@ -5451,7 +5446,7 @@
         <v>45</v>
       </c>
       <c r="G163" s="4" t="n">
-        <v>5643.321144</v>
+        <v>6207.65</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>14</v>
@@ -5483,7 +5478,7 @@
         <v>50</v>
       </c>
       <c r="G164" s="4" t="n">
-        <v>6650.621814</v>
+        <v>7315.68</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>14</v>
@@ -5515,7 +5510,7 @@
         <v>55</v>
       </c>
       <c r="G165" s="4" t="n">
-        <v>8418.358967</v>
+        <v>9260.19</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>14</v>
@@ -5547,7 +5542,7 @@
         <v>60</v>
       </c>
       <c r="G166" s="4" t="n">
-        <v>10937.46595</v>
+        <v>12031.21</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>14</v>
@@ -5579,7 +5574,7 @@
         <v>65</v>
       </c>
       <c r="G167" s="4" t="n">
-        <v>14335.14156</v>
+        <v>15768.66</v>
       </c>
       <c r="H167" s="5" t="s">
         <v>14</v>
@@ -5611,7 +5606,7 @@
         <v>70</v>
       </c>
       <c r="G168" s="4" t="n">
-        <v>20532.00612</v>
+        <v>22585.21</v>
       </c>
       <c r="H168" s="5" t="s">
         <v>14</v>
@@ -5643,7 +5638,7 @@
         <v>75</v>
       </c>
       <c r="G169" s="4" t="n">
-        <v>33564.99074</v>
+        <v>36921.49</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>14</v>
@@ -5675,7 +5670,7 @@
         <v>80</v>
       </c>
       <c r="G170" s="4" t="n">
-        <v>56419.19031</v>
+        <v>62061.11</v>
       </c>
       <c r="H170" s="5" t="s">
         <v>14</v>
@@ -5707,7 +5702,7 @@
         <v>17</v>
       </c>
       <c r="G171" s="4" t="n">
-        <v>3137.832156</v>
+        <v>3451.62</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>14</v>
@@ -5739,7 +5734,7 @@
         <v>25</v>
       </c>
       <c r="G172" s="4" t="n">
-        <v>3603.442196</v>
+        <v>3963.79</v>
       </c>
       <c r="H172" s="5" t="s">
         <v>14</v>
@@ -5771,7 +5766,7 @@
         <v>30</v>
       </c>
       <c r="G173" s="4" t="n">
-        <v>4554.206982</v>
+        <v>5009.63</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>14</v>
@@ -5803,7 +5798,7 @@
         <v>35</v>
       </c>
       <c r="G174" s="4" t="n">
-        <v>5130.092636</v>
+        <v>5643.1</v>
       </c>
       <c r="H174" s="5" t="s">
         <v>14</v>
@@ -5835,7 +5830,7 @@
         <v>40</v>
       </c>
       <c r="G175" s="4" t="n">
-        <v>5698.810341</v>
+        <v>6268.69</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>14</v>
@@ -5867,7 +5862,7 @@
         <v>45</v>
       </c>
       <c r="G176" s="4" t="n">
-        <v>6122.862474</v>
+        <v>6735.15</v>
       </c>
       <c r="H176" s="5" t="s">
         <v>14</v>
@@ -5899,7 +5894,7 @@
         <v>50</v>
       </c>
       <c r="G177" s="4" t="n">
-        <v>6593.823028</v>
+        <v>7253.21</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>14</v>
@@ -5931,7 +5926,7 @@
         <v>55</v>
       </c>
       <c r="G178" s="4" t="n">
-        <v>8279.524072</v>
+        <v>9107.48</v>
       </c>
       <c r="H178" s="5" t="s">
         <v>14</v>
@@ -5963,7 +5958,7 @@
         <v>60</v>
       </c>
       <c r="G179" s="4" t="n">
-        <v>10787.62357</v>
+        <v>11866.39</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>14</v>
@@ -5995,7 +5990,7 @@
         <v>65</v>
       </c>
       <c r="G180" s="4" t="n">
-        <v>14198.804</v>
+        <v>15618.68</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>14</v>
@@ -6027,7 +6022,7 @@
         <v>70</v>
       </c>
       <c r="G181" s="4" t="n">
-        <v>19580.32577</v>
+        <v>21538.36</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>14</v>
@@ -6059,7 +6054,7 @@
         <v>75</v>
       </c>
       <c r="G182" s="4" t="n">
-        <v>29052.07429</v>
+        <v>31957.28</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>14</v>
@@ -6091,7 +6086,7 @@
         <v>80</v>
       </c>
       <c r="G183" s="4" t="n">
-        <v>46185.28152</v>
+        <v>50803.81</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>14</v>
@@ -6123,7 +6118,7 @@
         <v>17</v>
       </c>
       <c r="G184" s="4" t="n">
-        <v>4748.1489</v>
+        <v>5222.96</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>14</v>
@@ -6155,7 +6150,7 @@
         <v>25</v>
       </c>
       <c r="G185" s="4" t="n">
-        <v>4914.991081</v>
+        <v>5406.49</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>14</v>
@@ -6187,7 +6182,7 @@
         <v>30</v>
       </c>
       <c r="G186" s="4" t="n">
-        <v>5826.172342</v>
+        <v>6408.79</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>14</v>
@@ -6219,7 +6214,7 @@
         <v>35</v>
       </c>
       <c r="G187" s="4" t="n">
-        <v>6597.654598</v>
+        <v>7257.42</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>14</v>
@@ -6251,7 +6246,7 @@
         <v>40</v>
       </c>
       <c r="G188" s="4" t="n">
-        <v>7407.790592</v>
+        <v>8148.57</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>14</v>
@@ -6283,7 +6278,7 @@
         <v>45</v>
       </c>
       <c r="G189" s="4" t="n">
-        <v>8184.631067</v>
+        <v>9003.09</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>14</v>
@@ -6315,7 +6310,7 @@
         <v>50</v>
       </c>
       <c r="G190" s="4" t="n">
-        <v>9397.11849</v>
+        <v>10336.83</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>14</v>
@@ -6347,7 +6342,7 @@
         <v>55</v>
       </c>
       <c r="G191" s="4" t="n">
-        <v>11856.47753</v>
+        <v>13042.13</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>14</v>
@@ -6379,7 +6374,7 @@
         <v>60</v>
       </c>
       <c r="G192" s="4" t="n">
-        <v>15399.13522</v>
+        <v>16939.05</v>
       </c>
       <c r="H192" s="5" t="s">
         <v>14</v>
@@ -6411,7 +6406,7 @@
         <v>65</v>
       </c>
       <c r="G193" s="4" t="n">
-        <v>20204.01579</v>
+        <v>22224.42</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>14</v>
@@ -6443,7 +6438,7 @@
         <v>70</v>
       </c>
       <c r="G194" s="4" t="n">
-        <v>28686.5552</v>
+        <v>31555.21</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>14</v>
@@ -6475,7 +6470,7 @@
         <v>75</v>
       </c>
       <c r="G195" s="4" t="n">
-        <v>45507.706</v>
+        <v>50058.48</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>14</v>
@@ -6507,7 +6502,7 @@
         <v>80</v>
       </c>
       <c r="G196" s="4" t="n">
-        <v>74244.93439</v>
+        <v>81669.43</v>
       </c>
       <c r="H196" s="5" t="s">
         <v>14</v>
@@ -6539,7 +6534,7 @@
         <v>17</v>
       </c>
       <c r="G197" s="4" t="n">
-        <v>4748.1489</v>
+        <v>5222.96</v>
       </c>
       <c r="H197" s="5" t="s">
         <v>14</v>
@@ -6571,7 +6566,7 @@
         <v>25</v>
       </c>
       <c r="G198" s="4" t="n">
-        <v>5069.269941</v>
+        <v>5576.2</v>
       </c>
       <c r="H198" s="5" t="s">
         <v>14</v>
@@ -6603,7 +6598,7 @@
         <v>30</v>
       </c>
       <c r="G199" s="4" t="n">
-        <v>6271.382773</v>
+        <v>6898.52</v>
       </c>
       <c r="H199" s="5" t="s">
         <v>14</v>
@@ -6635,7 +6630,7 @@
         <v>35</v>
       </c>
       <c r="G200" s="4" t="n">
-        <v>6951.251113</v>
+        <v>7646.38</v>
       </c>
       <c r="H200" s="5" t="s">
         <v>14</v>
@@ -6667,7 +6662,7 @@
         <v>40</v>
       </c>
       <c r="G201" s="4" t="n">
-        <v>7719.556204</v>
+        <v>8491.51</v>
       </c>
       <c r="H201" s="5" t="s">
         <v>14</v>
@@ -6699,7 +6694,7 @@
         <v>45</v>
       </c>
       <c r="G202" s="4" t="n">
-        <v>8415.597173</v>
+        <v>9257.16</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>14</v>
@@ -6731,7 +6726,7 @@
         <v>50</v>
       </c>
       <c r="G203" s="4" t="n">
-        <v>9272.586742</v>
+        <v>10199.85</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>14</v>
@@ -6763,7 +6758,7 @@
         <v>55</v>
       </c>
       <c r="G204" s="4" t="n">
-        <v>11595.27817</v>
+        <v>12754.81</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>14</v>
@@ -6795,7 +6790,7 @@
         <v>60</v>
       </c>
       <c r="G205" s="4" t="n">
-        <v>15145.92898</v>
+        <v>16660.52</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>14</v>
@@ -6827,7 +6822,7 @@
         <v>65</v>
       </c>
       <c r="G206" s="4" t="n">
-        <v>19971.59302</v>
+        <v>21968.75</v>
       </c>
       <c r="H206" s="5" t="s">
         <v>14</v>
@@ -6859,7 +6854,7 @@
         <v>70</v>
       </c>
       <c r="G207" s="4" t="n">
-        <v>27853.00476</v>
+        <v>30638.31</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>14</v>
@@ -6891,7 +6886,7 @@
         <v>75</v>
       </c>
       <c r="G208" s="4" t="n">
-        <v>41160.31821</v>
+        <v>45276.35</v>
       </c>
       <c r="H208" s="5" t="s">
         <v>14</v>
@@ -6923,7 +6918,7 @@
         <v>80</v>
       </c>
       <c r="G209" s="4" t="n">
-        <v>63507.12294</v>
+        <v>69857.84</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>14</v>
@@ -6955,7 +6950,7 @@
         <v>17</v>
       </c>
       <c r="G210" s="4" t="n">
-        <v>10004.50502</v>
+        <v>11004.96</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>14</v>
@@ -6987,7 +6982,7 @@
         <v>25</v>
       </c>
       <c r="G211" s="4" t="n">
-        <v>10356.04695</v>
+        <v>11391.65</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>14</v>
@@ -7019,7 +7014,7 @@
         <v>30</v>
       </c>
       <c r="G212" s="4" t="n">
-        <v>12275.93566</v>
+        <v>13503.53</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>14</v>
@@ -7051,7 +7046,7 @@
         <v>35</v>
       </c>
       <c r="G213" s="4" t="n">
-        <v>13901.47401</v>
+        <v>15291.62</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>14</v>
@@ -7083,7 +7078,7 @@
         <v>40</v>
       </c>
       <c r="G214" s="4" t="n">
-        <v>15608.45704</v>
+        <v>17169.3</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>14</v>
@@ -7115,7 +7110,7 @@
         <v>45</v>
       </c>
       <c r="G215" s="4" t="n">
-        <v>17245.28533</v>
+        <v>18969.81</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>14</v>
@@ -7147,7 +7142,7 @@
         <v>50</v>
       </c>
       <c r="G216" s="4" t="n">
-        <v>19800.03598</v>
+        <v>21780.04</v>
       </c>
       <c r="H216" s="5" t="s">
         <v>14</v>
@@ -7179,7 +7174,7 @@
         <v>55</v>
       </c>
       <c r="G217" s="4" t="n">
-        <v>24981.98591</v>
+        <v>27480.18</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>14</v>
@@ -7211,7 +7206,7 @@
         <v>60</v>
       </c>
       <c r="G218" s="4" t="n">
-        <v>32446.48151</v>
+        <v>35691.13</v>
       </c>
       <c r="H218" s="5" t="s">
         <v>14</v>
@@ -7243,7 +7238,7 @@
         <v>65</v>
       </c>
       <c r="G219" s="4" t="n">
-        <v>42570.52201</v>
+        <v>46827.57</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>14</v>
@@ -7275,7 +7270,7 @@
         <v>70</v>
       </c>
       <c r="G220" s="4" t="n">
-        <v>60443.50997</v>
+        <v>66487.86</v>
       </c>
       <c r="H220" s="5" t="s">
         <v>14</v>
@@ -7307,7 +7302,7 @@
         <v>75</v>
       </c>
       <c r="G221" s="4" t="n">
-        <v>95886.22482</v>
+        <v>105474.85</v>
       </c>
       <c r="H221" s="5" t="s">
         <v>14</v>
@@ -7339,7 +7334,7 @@
         <v>80</v>
       </c>
       <c r="G222" s="4" t="n">
-        <v>156436.5049</v>
+        <v>172080.16</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>14</v>
@@ -7371,7 +7366,7 @@
         <v>17</v>
       </c>
       <c r="G223" s="4" t="n">
-        <v>10004.50502</v>
+        <v>11004.96</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>14</v>
@@ -7403,7 +7398,7 @@
         <v>25</v>
       </c>
       <c r="G224" s="4" t="n">
-        <v>10681.11755</v>
+        <v>11749.23</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>14</v>
@@ -7435,7 +7430,7 @@
         <v>30</v>
       </c>
       <c r="G225" s="4" t="n">
-        <v>13214.0086</v>
+        <v>14535.41</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>14</v>
@@ -7467,7 +7462,7 @@
         <v>35</v>
       </c>
       <c r="G226" s="4" t="n">
-        <v>14646.51343</v>
+        <v>16111.16</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>14</v>
@@ -7499,7 +7494,7 @@
         <v>40</v>
       </c>
       <c r="G227" s="4" t="n">
-        <v>16265.35738</v>
+        <v>17891.89</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>14</v>
@@ -7531,7 +7526,7 @@
         <v>45</v>
       </c>
       <c r="G228" s="4" t="n">
-        <v>17731.93847</v>
+        <v>19505.13</v>
       </c>
       <c r="H228" s="5" t="s">
         <v>14</v>
@@ -7563,7 +7558,7 @@
         <v>50</v>
       </c>
       <c r="G229" s="4" t="n">
-        <v>19537.64352</v>
+        <v>21491.41</v>
       </c>
       <c r="H229" s="5" t="s">
         <v>14</v>
@@ -7595,7 +7590,7 @@
         <v>55</v>
       </c>
       <c r="G230" s="4" t="n">
-        <v>24431.63032</v>
+        <v>26874.79</v>
       </c>
       <c r="H230" s="5" t="s">
         <v>14</v>
@@ -7627,7 +7622,7 @@
         <v>60</v>
       </c>
       <c r="G231" s="4" t="n">
-        <v>31912.96769</v>
+        <v>35104.26</v>
       </c>
       <c r="H231" s="5" t="s">
         <v>14</v>
@@ -7659,7 +7654,7 @@
         <v>65</v>
       </c>
       <c r="G232" s="4" t="n">
-        <v>42080.79965</v>
+        <v>46288.88</v>
       </c>
       <c r="H232" s="5" t="s">
         <v>14</v>
@@ -7691,7 +7686,7 @@
         <v>70</v>
       </c>
       <c r="G233" s="4" t="n">
-        <v>58687.19194</v>
+        <v>64555.91</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>14</v>
@@ -7723,7 +7718,7 @@
         <v>75</v>
       </c>
       <c r="G234" s="4" t="n">
-        <v>86726.13657</v>
+        <v>95398.75</v>
       </c>
       <c r="H234" s="5" t="s">
         <v>14</v>
@@ -7755,7 +7750,7 @@
         <v>80</v>
       </c>
       <c r="G235" s="4" t="n">
-        <v>133811.585</v>
+        <v>147192.74</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>14</v>
@@ -7787,7 +7782,7 @@
         <v>17</v>
       </c>
       <c r="G236" s="4" t="n">
-        <v>3245.573287</v>
+        <v>3570.13</v>
       </c>
       <c r="H236" s="5" t="s">
         <v>14</v>
@@ -7819,7 +7814,7 @@
         <v>25</v>
       </c>
       <c r="G237" s="4" t="n">
-        <v>3348.568677</v>
+        <v>3683.43</v>
       </c>
       <c r="H237" s="5" t="s">
         <v>14</v>
@@ -7851,7 +7846,7 @@
         <v>30</v>
       </c>
       <c r="G238" s="4" t="n">
-        <v>3972.577185</v>
+        <v>4369.83</v>
       </c>
       <c r="H238" s="5" t="s">
         <v>14</v>
@@ -7883,7 +7878,7 @@
         <v>35</v>
       </c>
       <c r="G239" s="4" t="n">
-        <v>4541.357635</v>
+        <v>4995.49</v>
       </c>
       <c r="H239" s="5" t="s">
         <v>14</v>
@@ -7915,7 +7910,7 @@
         <v>40</v>
       </c>
       <c r="G240" s="4" t="n">
-        <v>5180.630584</v>
+        <v>5698.69</v>
       </c>
       <c r="H240" s="5" t="s">
         <v>14</v>
@@ -7947,7 +7942,7 @@
         <v>45</v>
       </c>
       <c r="G241" s="4" t="n">
-        <v>5930.648528</v>
+        <v>6523.71</v>
       </c>
       <c r="H241" s="5" t="s">
         <v>14</v>
@@ -7979,7 +7974,7 @@
         <v>50</v>
       </c>
       <c r="G242" s="4" t="n">
-        <v>7101.620162</v>
+        <v>7811.78</v>
       </c>
       <c r="H242" s="5" t="s">
         <v>14</v>
@@ -8011,7 +8006,7 @@
         <v>55</v>
       </c>
       <c r="G243" s="4" t="n">
-        <v>9076.678229</v>
+        <v>9984.35</v>
       </c>
       <c r="H243" s="5" t="s">
         <v>14</v>
@@ -8043,7 +8038,7 @@
         <v>60</v>
       </c>
       <c r="G244" s="4" t="n">
-        <v>11829.01575</v>
+        <v>13011.92</v>
       </c>
       <c r="H244" s="5" t="s">
         <v>14</v>
@@ -8075,7 +8070,7 @@
         <v>65</v>
       </c>
       <c r="G245" s="4" t="n">
-        <v>15535.509</v>
+        <v>17089.06</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>14</v>
@@ -8107,7 +8102,7 @@
         <v>70</v>
       </c>
       <c r="G246" s="4" t="n">
-        <v>22361.36652</v>
+        <v>24597.5</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>14</v>
@@ -8139,7 +8134,7 @@
         <v>75</v>
       </c>
       <c r="G247" s="4" t="n">
-        <v>37328.15074</v>
+        <v>41060.97</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>14</v>
@@ -8171,7 +8166,7 @@
         <v>80</v>
       </c>
       <c r="G248" s="4" t="n">
-        <v>64179.16288</v>
+        <v>70597.08</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>14</v>
@@ -8203,7 +8198,7 @@
         <v>17</v>
       </c>
       <c r="G249" s="4" t="n">
-        <v>3245.573287</v>
+        <v>3570.13</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>14</v>
@@ -8235,7 +8230,7 @@
         <v>25</v>
       </c>
       <c r="G250" s="4" t="n">
-        <v>3712.176342</v>
+        <v>4083.39</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>14</v>
@@ -8267,7 +8262,7 @@
         <v>30</v>
       </c>
       <c r="G251" s="4" t="n">
-        <v>4704.129407</v>
+        <v>5174.54</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>14</v>
@@ -8299,7 +8294,7 @@
         <v>35</v>
       </c>
       <c r="G252" s="4" t="n">
-        <v>5311.346778</v>
+        <v>5842.48</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>14</v>
@@ -8331,7 +8326,7 @@
         <v>40</v>
       </c>
       <c r="G253" s="4" t="n">
-        <v>5915.714884</v>
+        <v>6507.29</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>14</v>
@@ -8363,7 +8358,7 @@
         <v>45</v>
       </c>
       <c r="G254" s="4" t="n">
-        <v>6425.515611</v>
+        <v>7068.07</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>14</v>
@@ -8395,7 +8390,7 @@
         <v>50</v>
       </c>
       <c r="G255" s="4" t="n">
-        <v>7064.971217</v>
+        <v>7771.47</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>14</v>
@@ -8427,7 +8422,7 @@
         <v>55</v>
       </c>
       <c r="G256" s="4" t="n">
-        <v>8948.250533</v>
+        <v>9843.08</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>14</v>
@@ -8459,7 +8454,7 @@
         <v>60</v>
       </c>
       <c r="G257" s="4" t="n">
-        <v>11679.25885</v>
+        <v>12847.18</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>14</v>
@@ -8491,7 +8486,7 @@
         <v>65</v>
       </c>
       <c r="G258" s="4" t="n">
-        <v>15382.58493</v>
+        <v>16920.84</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>14</v>
@@ -8523,7 +8518,7 @@
         <v>70</v>
       </c>
       <c r="G259" s="4" t="n">
-        <v>21105.03711</v>
+        <v>23215.54</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>14</v>
@@ -8555,7 +8550,7 @@
         <v>75</v>
       </c>
       <c r="G260" s="4" t="n">
-        <v>31443.65327</v>
+        <v>34588.02</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>14</v>
@@ -8587,7 +8582,7 @@
         <v>80</v>
       </c>
       <c r="G261" s="4" t="n">
-        <v>51049.12195</v>
+        <v>56154.03</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>14</v>
@@ -8619,7 +8614,7 @@
         <v>17</v>
       </c>
       <c r="G262" s="4" t="n">
-        <v>4911.182136</v>
+        <v>5402.3</v>
       </c>
       <c r="H262" s="5" t="s">
         <v>14</v>
@@ -8651,7 +8646,7 @@
         <v>25</v>
       </c>
       <c r="G263" s="4" t="n">
-        <v>5084.233631</v>
+        <v>5592.66</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>14</v>
@@ -8683,7 +8678,7 @@
         <v>30</v>
       </c>
       <c r="G264" s="4" t="n">
-        <v>6049.109688</v>
+        <v>6654.02</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>14</v>
@@ -8715,7 +8710,7 @@
         <v>35</v>
       </c>
       <c r="G265" s="4" t="n">
-        <v>6868.409335</v>
+        <v>7555.25</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>14</v>
@@ -8747,7 +8742,7 @@
         <v>40</v>
       </c>
       <c r="G266" s="4" t="n">
-        <v>7719.619285</v>
+        <v>8491.58</v>
       </c>
       <c r="H266" s="5" t="s">
         <v>14</v>
@@ -8779,7 +8774,7 @@
         <v>45</v>
       </c>
       <c r="G267" s="4" t="n">
-        <v>8601.039606</v>
+        <v>9461.14</v>
       </c>
       <c r="H267" s="5" t="s">
         <v>14</v>
@@ -8811,7 +8806,7 @@
         <v>50</v>
       </c>
       <c r="G268" s="4" t="n">
-        <v>10034.17924</v>
+        <v>11037.6</v>
       </c>
       <c r="H268" s="5" t="s">
         <v>14</v>
@@ -8843,7 +8838,7 @@
         <v>55</v>
       </c>
       <c r="G269" s="4" t="n">
-        <v>12783.66554</v>
+        <v>14062.03</v>
       </c>
       <c r="H269" s="5" t="s">
         <v>14</v>
@@ -8875,7 +8870,7 @@
         <v>60</v>
       </c>
       <c r="G270" s="4" t="n">
-        <v>16654.35826</v>
+        <v>18319.79</v>
       </c>
       <c r="H270" s="5" t="s">
         <v>14</v>
@@ -8907,7 +8902,7 @@
         <v>65</v>
       </c>
       <c r="G271" s="4" t="n">
-        <v>21895.8108</v>
+        <v>24085.39</v>
       </c>
       <c r="H271" s="5" t="s">
         <v>14</v>
@@ -8939,7 +8934,7 @@
         <v>70</v>
       </c>
       <c r="G272" s="4" t="n">
-        <v>31241.36054</v>
+        <v>34365.5</v>
       </c>
       <c r="H272" s="5" t="s">
         <v>14</v>
@@ -8971,7 +8966,7 @@
         <v>75</v>
       </c>
       <c r="G273" s="4" t="n">
-        <v>50607.07193</v>
+        <v>55667.78</v>
       </c>
       <c r="H273" s="5" t="s">
         <v>14</v>
@@ -9003,7 +8998,7 @@
         <v>80</v>
       </c>
       <c r="G274" s="4" t="n">
-        <v>84452.9722</v>
+        <v>92898.27</v>
       </c>
       <c r="H274" s="5" t="s">
         <v>14</v>
@@ -9035,7 +9030,7 @@
         <v>17</v>
       </c>
       <c r="G275" s="4" t="n">
-        <v>4911.182136</v>
+        <v>5402.3</v>
       </c>
       <c r="H275" s="5" t="s">
         <v>14</v>
@@ -9067,7 +9062,7 @@
         <v>25</v>
       </c>
       <c r="G276" s="4" t="n">
-        <v>5242.077392</v>
+        <v>5766.29</v>
       </c>
       <c r="H276" s="5" t="s">
         <v>14</v>
@@ -9099,7 +9094,7 @@
         <v>30</v>
       </c>
       <c r="G277" s="4" t="n">
-        <v>6477.804773</v>
+        <v>7125.59</v>
       </c>
       <c r="H277" s="5" t="s">
         <v>14</v>
@@ -9131,7 +9126,7 @@
         <v>35</v>
       </c>
       <c r="G278" s="4" t="n">
-        <v>7196.847384</v>
+        <v>7916.53</v>
       </c>
       <c r="H278" s="5" t="s">
         <v>14</v>
@@ -9163,7 +9158,7 @@
         <v>40</v>
       </c>
       <c r="G279" s="4" t="n">
-        <v>8013.389482</v>
+        <v>8814.73</v>
       </c>
       <c r="H279" s="5" t="s">
         <v>14</v>
@@ -9195,7 +9190,7 @@
         <v>45</v>
       </c>
       <c r="G280" s="4" t="n">
-        <v>8832.331475</v>
+        <v>9715.56</v>
       </c>
       <c r="H280" s="5" t="s">
         <v>14</v>
@@ -9227,7 +9222,7 @@
         <v>50</v>
       </c>
       <c r="G281" s="4" t="n">
-        <v>9934.908554</v>
+        <v>10928.4</v>
       </c>
       <c r="H281" s="5" t="s">
         <v>14</v>
@@ -9259,7 +9254,7 @@
         <v>55</v>
       </c>
       <c r="G282" s="4" t="n">
-        <v>12531.82237</v>
+        <v>13785</v>
       </c>
       <c r="H282" s="5" t="s">
         <v>14</v>
@@ -9291,7 +9286,7 @@
         <v>60</v>
       </c>
       <c r="G283" s="4" t="n">
-        <v>16397.79144</v>
+        <v>18037.57</v>
       </c>
       <c r="H283" s="5" t="s">
         <v>14</v>
@@ -9323,7 +9318,7 @@
         <v>65</v>
       </c>
       <c r="G284" s="4" t="n">
-        <v>21636.63121</v>
+        <v>23800.29</v>
       </c>
       <c r="H284" s="5" t="s">
         <v>14</v>
@@ -9355,7 +9350,7 @@
         <v>70</v>
       </c>
       <c r="G285" s="4" t="n">
-        <v>30021.67675</v>
+        <v>33023.84</v>
       </c>
       <c r="H285" s="5" t="s">
         <v>14</v>
@@ -9387,7 +9382,7 @@
         <v>75</v>
       </c>
       <c r="G286" s="4" t="n">
-        <v>44547.1016</v>
+        <v>49001.81</v>
       </c>
       <c r="H286" s="5" t="s">
         <v>14</v>
@@ -9419,7 +9414,7 @@
         <v>80</v>
       </c>
       <c r="G287" s="4" t="n">
-        <v>70191.2501</v>
+        <v>77210.38</v>
       </c>
       <c r="H287" s="5" t="s">
         <v>14</v>
@@ -9451,7 +9446,7 @@
         <v>17</v>
       </c>
       <c r="G288" s="4" t="n">
-        <v>10348.02137</v>
+        <v>11382.82</v>
       </c>
       <c r="H288" s="5" t="s">
         <v>14</v>
@@ -9483,7 +9478,7 @@
         <v>25</v>
       </c>
       <c r="G289" s="4" t="n">
-        <v>10712.64653</v>
+        <v>11783.91</v>
       </c>
       <c r="H289" s="5" t="s">
         <v>14</v>
@@ -9515,7 +9510,7 @@
         <v>30</v>
       </c>
       <c r="G290" s="4" t="n">
-        <v>12745.67194</v>
+        <v>14020.24</v>
       </c>
       <c r="H290" s="5" t="s">
         <v>14</v>
@@ -9547,7 +9542,7 @@
         <v>35</v>
       </c>
       <c r="G291" s="4" t="n">
-        <v>14471.96309</v>
+        <v>15919.16</v>
       </c>
       <c r="H291" s="5" t="s">
         <v>14</v>
@@ -9579,7 +9574,7 @@
         <v>40</v>
       </c>
       <c r="G292" s="4" t="n">
-        <v>16265.4903</v>
+        <v>17892.04</v>
       </c>
       <c r="H292" s="5" t="s">
         <v>14</v>
@@ -9611,7 +9606,7 @@
         <v>45</v>
       </c>
       <c r="G293" s="4" t="n">
-        <v>18122.67174</v>
+        <v>19934.94</v>
       </c>
       <c r="H293" s="5" t="s">
         <v>14</v>
@@ -9643,7 +9638,7 @@
         <v>50</v>
       </c>
       <c r="G294" s="4" t="n">
-        <v>21142.34382</v>
+        <v>23256.58</v>
       </c>
       <c r="H294" s="5" t="s">
         <v>14</v>
@@ -9675,7 +9670,7 @@
         <v>55</v>
       </c>
       <c r="G295" s="4" t="n">
-        <v>26935.60137</v>
+        <v>29629.16</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>14</v>
@@ -9707,7 +9702,7 @@
         <v>60</v>
       </c>
       <c r="G296" s="4" t="n">
-        <v>35091.27752</v>
+        <v>38600.41</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>14</v>
@@ -9739,7 +9734,7 @@
         <v>65</v>
       </c>
       <c r="G297" s="4" t="n">
-        <v>46135.18943</v>
+        <v>50748.71</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>14</v>
@@ -9771,7 +9766,7 @@
         <v>70</v>
       </c>
       <c r="G298" s="4" t="n">
-        <v>65826.56838</v>
+        <v>72409.23</v>
       </c>
       <c r="H298" s="5" t="s">
         <v>14</v>
@@ -9803,7 +9798,7 @@
         <v>75</v>
       </c>
       <c r="G299" s="4" t="n">
-        <v>106630.7556</v>
+        <v>117293.83</v>
       </c>
       <c r="H299" s="5" t="s">
         <v>14</v>
@@ -9835,7 +9830,7 @@
         <v>80</v>
       </c>
       <c r="G300" s="4" t="n">
-        <v>177945.1744</v>
+        <v>195739.69</v>
       </c>
       <c r="H300" s="5" t="s">
         <v>14</v>
@@ -9867,7 +9862,7 @@
         <v>17</v>
       </c>
       <c r="G301" s="4" t="n">
-        <v>10348.02137</v>
+        <v>11382.82</v>
       </c>
       <c r="H301" s="5" t="s">
         <v>14</v>
@@ -9899,7 +9894,7 @@
         <v>25</v>
       </c>
       <c r="G302" s="4" t="n">
-        <v>11045.2285</v>
+        <v>12149.75</v>
       </c>
       <c r="H302" s="5" t="s">
         <v>14</v>
@@ -9931,7 +9926,7 @@
         <v>30</v>
       </c>
       <c r="G303" s="4" t="n">
-        <v>13648.94651</v>
+        <v>15013.84</v>
       </c>
       <c r="H303" s="5" t="s">
         <v>14</v>
@@ -9963,7 +9958,7 @@
         <v>35</v>
       </c>
       <c r="G304" s="4" t="n">
-        <v>15163.9928</v>
+        <v>16680.39</v>
       </c>
       <c r="H304" s="5" t="s">
         <v>14</v>
@@ -9995,7 +9990,7 @@
         <v>40</v>
       </c>
       <c r="G305" s="4" t="n">
-        <v>16884.47371</v>
+        <v>18572.92</v>
       </c>
       <c r="H305" s="5" t="s">
         <v>14</v>
@@ -10027,7 +10022,7 @@
         <v>45</v>
       </c>
       <c r="G306" s="4" t="n">
-        <v>18610.01127</v>
+        <v>20471.01</v>
       </c>
       <c r="H306" s="5" t="s">
         <v>14</v>
@@ -10059,7 +10054,7 @@
         <v>50</v>
       </c>
       <c r="G307" s="4" t="n">
-        <v>20933.17723</v>
+        <v>23026.49</v>
       </c>
       <c r="H307" s="5" t="s">
         <v>14</v>
@@ -10091,7 +10086,7 @@
         <v>55</v>
       </c>
       <c r="G308" s="4" t="n">
-        <v>26404.95958</v>
+        <v>29045.46</v>
       </c>
       <c r="H308" s="5" t="s">
         <v>14</v>
@@ -10123,7 +10118,7 @@
         <v>60</v>
       </c>
       <c r="G309" s="4" t="n">
-        <v>34550.68284</v>
+        <v>38005.75</v>
       </c>
       <c r="H309" s="5" t="s">
         <v>14</v>
@@ -10155,7 +10150,7 @@
         <v>65</v>
       </c>
       <c r="G310" s="4" t="n">
-        <v>45589.08957</v>
+        <v>50148</v>
       </c>
       <c r="H310" s="5" t="s">
         <v>14</v>
@@ -10187,7 +10182,7 @@
         <v>70</v>
       </c>
       <c r="G311" s="4" t="n">
-        <v>63256.65474</v>
+        <v>69582.32</v>
       </c>
       <c r="H311" s="5" t="s">
         <v>14</v>
@@ -10219,7 +10214,7 @@
         <v>75</v>
       </c>
       <c r="G312" s="4" t="n">
-        <v>93862.19993</v>
+        <v>103248.42</v>
       </c>
       <c r="H312" s="5" t="s">
         <v>14</v>
@@ -10251,7 +10246,7 @@
         <v>80</v>
       </c>
       <c r="G313" s="4" t="n">
-        <v>147895.2595</v>
+        <v>162684.79</v>
       </c>
       <c r="H313" s="5" t="s">
         <v>14</v>
@@ -10283,7 +10278,7 @@
         <v>17</v>
       </c>
       <c r="G314" s="4" t="n">
-        <v>1297.145198</v>
+        <v>1426.86</v>
       </c>
       <c r="H314" s="5" t="s">
         <v>14</v>
@@ -10315,7 +10310,7 @@
         <v>25</v>
       </c>
       <c r="G315" s="4" t="n">
-        <v>1342.069038</v>
+        <v>1476.28</v>
       </c>
       <c r="H315" s="5" t="s">
         <v>14</v>
@@ -10347,7 +10342,7 @@
         <v>30</v>
       </c>
       <c r="G316" s="4" t="n">
-        <v>1664.296441</v>
+        <v>1830.73</v>
       </c>
       <c r="H316" s="5" t="s">
         <v>14</v>
@@ -10379,7 +10374,7 @@
         <v>35</v>
       </c>
       <c r="G317" s="4" t="n">
-        <v>2108.815137</v>
+        <v>2319.7</v>
       </c>
       <c r="H317" s="5" t="s">
         <v>14</v>
@@ -10411,7 +10406,7 @@
         <v>40</v>
       </c>
       <c r="G318" s="4" t="n">
-        <v>2453.819951</v>
+        <v>2699.2</v>
       </c>
       <c r="H318" s="5" t="s">
         <v>14</v>
@@ -10443,7 +10438,7 @@
         <v>45</v>
       </c>
       <c r="G319" s="4" t="n">
-        <v>2883.683091</v>
+        <v>3172.05</v>
       </c>
       <c r="H319" s="5" t="s">
         <v>14</v>
@@ -10475,7 +10470,7 @@
         <v>50</v>
       </c>
       <c r="G320" s="4" t="n">
-        <v>3495.69163</v>
+        <v>3845.26</v>
       </c>
       <c r="H320" s="5" t="s">
         <v>14</v>
@@ -10507,7 +10502,7 @@
         <v>55</v>
       </c>
       <c r="G321" s="4" t="n">
-        <v>4424.847451</v>
+        <v>4867.33</v>
       </c>
       <c r="H321" s="5" t="s">
         <v>14</v>
@@ -10539,7 +10534,7 @@
         <v>60</v>
       </c>
       <c r="G322" s="4" t="n">
-        <v>5748.937353</v>
+        <v>6323.83</v>
       </c>
       <c r="H322" s="5" t="s">
         <v>14</v>
@@ -10571,7 +10566,7 @@
         <v>65</v>
       </c>
       <c r="G323" s="4" t="n">
-        <v>7534.819413</v>
+        <v>8288.3</v>
       </c>
       <c r="H323" s="5" t="s">
         <v>14</v>
@@ -10603,7 +10598,7 @@
         <v>70</v>
       </c>
       <c r="G324" s="4" t="n">
-        <v>10792.00772</v>
+        <v>11871.21</v>
       </c>
       <c r="H324" s="5" t="s">
         <v>14</v>
@@ -10635,7 +10630,7 @@
         <v>75</v>
       </c>
       <c r="G325" s="4" t="n">
-        <v>17642.38901</v>
+        <v>19406.63</v>
       </c>
       <c r="H325" s="5" t="s">
         <v>14</v>
@@ -10667,7 +10662,7 @@
         <v>80</v>
       </c>
       <c r="G326" s="4" t="n">
-        <v>29654.98518</v>
+        <v>32620.48</v>
       </c>
       <c r="H326" s="5" t="s">
         <v>14</v>
@@ -10699,7 +10694,7 @@
         <v>17</v>
       </c>
       <c r="G327" s="4" t="n">
-        <v>1297.145198</v>
+        <v>1426.86</v>
       </c>
       <c r="H327" s="5" t="s">
         <v>14</v>
@@ -10731,7 +10726,7 @@
         <v>25</v>
       </c>
       <c r="G328" s="4" t="n">
-        <v>1682.180535</v>
+        <v>1850.4</v>
       </c>
       <c r="H328" s="5" t="s">
         <v>14</v>
@@ -10763,7 +10758,7 @@
         <v>30</v>
       </c>
       <c r="G329" s="4" t="n">
-        <v>2259.287149</v>
+        <v>2485.22</v>
       </c>
       <c r="H329" s="5" t="s">
         <v>14</v>
@@ -10795,7 +10790,7 @@
         <v>35</v>
       </c>
       <c r="G330" s="4" t="n">
-        <v>2654.007266</v>
+        <v>2919.41</v>
       </c>
       <c r="H330" s="5" t="s">
         <v>14</v>
@@ -10827,7 +10822,7 @@
         <v>40</v>
       </c>
       <c r="G331" s="4" t="n">
-        <v>2951.093608</v>
+        <v>3246.2</v>
       </c>
       <c r="H331" s="5" t="s">
         <v>14</v>
@@ -10859,7 +10854,7 @@
         <v>45</v>
       </c>
       <c r="G332" s="4" t="n">
-        <v>3100.625269</v>
+        <v>3410.69</v>
       </c>
       <c r="H332" s="5" t="s">
         <v>14</v>
@@ -10891,7 +10886,7 @@
         <v>50</v>
       </c>
       <c r="G333" s="4" t="n">
-        <v>3210.078132</v>
+        <v>3531.09</v>
       </c>
       <c r="H333" s="5" t="s">
         <v>14</v>
@@ -10923,7 +10918,7 @@
         <v>55</v>
       </c>
       <c r="G334" s="4" t="n">
-        <v>4075.097226</v>
+        <v>4482.61</v>
       </c>
       <c r="H334" s="5" t="s">
         <v>14</v>
@@ -10955,7 +10950,7 @@
         <v>60</v>
       </c>
       <c r="G335" s="4" t="n">
-        <v>5300.825509</v>
+        <v>5830.91</v>
       </c>
       <c r="H335" s="5" t="s">
         <v>14</v>
@@ -10987,7 +10982,7 @@
         <v>65</v>
       </c>
       <c r="G336" s="4" t="n">
-        <v>6958.973476</v>
+        <v>7654.87</v>
       </c>
       <c r="H336" s="5" t="s">
         <v>14</v>
@@ -11019,7 +11014,7 @@
         <v>70</v>
       </c>
       <c r="G337" s="4" t="n">
-        <v>9467.762494</v>
+        <v>10414.54</v>
       </c>
       <c r="H337" s="5" t="s">
         <v>14</v>
@@ -11051,7 +11046,7 @@
         <v>75</v>
       </c>
       <c r="G338" s="4" t="n">
-        <v>14119.77875</v>
+        <v>15531.76</v>
       </c>
       <c r="H338" s="5" t="s">
         <v>14</v>
@@ -11083,7 +11078,7 @@
         <v>80</v>
       </c>
       <c r="G339" s="4" t="n">
-        <v>23331.2526</v>
+        <v>25664.38</v>
       </c>
       <c r="H339" s="5" t="s">
         <v>14</v>
@@ -11115,7 +11110,7 @@
         <v>17</v>
       </c>
       <c r="G340" s="4" t="n">
-        <v>2036.345612</v>
+        <v>2239.98</v>
       </c>
       <c r="H340" s="5" t="s">
         <v>14</v>
@@ -11147,7 +11142,7 @@
         <v>25</v>
       </c>
       <c r="G341" s="4" t="n">
-        <v>2114.56103</v>
+        <v>2326.02</v>
       </c>
       <c r="H341" s="5" t="s">
         <v>14</v>
@@ -11179,7 +11174,7 @@
         <v>30</v>
       </c>
       <c r="G342" s="4" t="n">
-        <v>2630.084786</v>
+        <v>2893.09</v>
       </c>
       <c r="H342" s="5" t="s">
         <v>14</v>
@@ -11211,7 +11206,7 @@
         <v>35</v>
       </c>
       <c r="G343" s="4" t="n">
-        <v>3308.666166</v>
+        <v>3639.53</v>
       </c>
       <c r="H343" s="5" t="s">
         <v>14</v>
@@ -11243,7 +11238,7 @@
         <v>40</v>
       </c>
       <c r="G344" s="4" t="n">
-        <v>3789.05104</v>
+        <v>4167.96</v>
       </c>
       <c r="H344" s="5" t="s">
         <v>14</v>
@@ -11275,7 +11270,7 @@
         <v>45</v>
       </c>
       <c r="G345" s="4" t="n">
-        <v>4324.99011</v>
+        <v>4757.49</v>
       </c>
       <c r="H345" s="5" t="s">
         <v>14</v>
@@ -11307,7 +11302,7 @@
         <v>50</v>
       </c>
       <c r="G346" s="4" t="n">
-        <v>5098.484839</v>
+        <v>5608.33</v>
       </c>
       <c r="H346" s="5" t="s">
         <v>14</v>
@@ -11339,7 +11334,7 @@
         <v>55</v>
       </c>
       <c r="G347" s="4" t="n">
-        <v>6431.238487</v>
+        <v>7074.36</v>
       </c>
       <c r="H347" s="5" t="s">
         <v>14</v>
@@ -11371,7 +11366,7 @@
         <v>60</v>
       </c>
       <c r="G348" s="4" t="n">
-        <v>8352.641947</v>
+        <v>9187.91</v>
       </c>
       <c r="H348" s="5" t="s">
         <v>14</v>
@@ -11403,7 +11398,7 @@
         <v>65</v>
       </c>
       <c r="G349" s="4" t="n">
-        <v>10959.73873</v>
+        <v>12055.71</v>
       </c>
       <c r="H349" s="5" t="s">
         <v>14</v>
@@ -11435,7 +11430,7 @@
         <v>70</v>
       </c>
       <c r="G350" s="4" t="n">
-        <v>15550.6738</v>
+        <v>17105.74</v>
       </c>
       <c r="H350" s="5" t="s">
         <v>14</v>
@@ -11467,7 +11462,7 @@
         <v>75</v>
       </c>
       <c r="G351" s="4" t="n">
-        <v>24611.03603</v>
+        <v>27072.14</v>
       </c>
       <c r="H351" s="5" t="s">
         <v>14</v>
@@ -11499,7 +11494,7 @@
         <v>80</v>
       </c>
       <c r="G352" s="4" t="n">
-        <v>40055.25776</v>
+        <v>44060.78</v>
       </c>
       <c r="H352" s="5" t="s">
         <v>14</v>
@@ -11531,7 +11526,7 @@
         <v>17</v>
       </c>
       <c r="G353" s="4" t="n">
-        <v>2036.345612</v>
+        <v>2239.98</v>
       </c>
       <c r="H353" s="5" t="s">
         <v>14</v>
@@ -11563,7 +11558,7 @@
         <v>25</v>
       </c>
       <c r="G354" s="4" t="n">
-        <v>2441.384424</v>
+        <v>2685.52</v>
       </c>
       <c r="H354" s="5" t="s">
         <v>14</v>
@@ -11595,7 +11590,7 @@
         <v>30</v>
       </c>
       <c r="G355" s="4" t="n">
-        <v>3204.62978</v>
+        <v>3525.09</v>
       </c>
       <c r="H355" s="5" t="s">
         <v>14</v>
@@ -11627,7 +11622,7 @@
         <v>35</v>
       </c>
       <c r="G356" s="4" t="n">
-        <v>3699.895021</v>
+        <v>4069.88</v>
       </c>
       <c r="H356" s="5" t="s">
         <v>14</v>
@@ -11659,7 +11654,7 @@
         <v>40</v>
       </c>
       <c r="G357" s="4" t="n">
-        <v>4112.757295</v>
+        <v>4524.03</v>
       </c>
       <c r="H357" s="5" t="s">
         <v>14</v>
@@ -11691,7 +11686,7 @@
         <v>45</v>
       </c>
       <c r="G358" s="4" t="n">
-        <v>4387.337751</v>
+        <v>4826.07</v>
       </c>
       <c r="H358" s="5" t="s">
         <v>14</v>
@@ -11723,7 +11718,7 @@
         <v>50</v>
       </c>
       <c r="G359" s="4" t="n">
-        <v>4657.771555</v>
+        <v>5123.55</v>
       </c>
       <c r="H359" s="5" t="s">
         <v>14</v>
@@ -11755,7 +11750,7 @@
         <v>55</v>
       </c>
       <c r="G360" s="4" t="n">
-        <v>5886.98334</v>
+        <v>6475.68</v>
       </c>
       <c r="H360" s="5" t="s">
         <v>14</v>
@@ -11787,7 +11782,7 @@
         <v>60</v>
       </c>
       <c r="G361" s="4" t="n">
-        <v>7678.517149</v>
+        <v>8446.37</v>
       </c>
       <c r="H361" s="5" t="s">
         <v>14</v>
@@ -11819,7 +11814,7 @@
         <v>65</v>
       </c>
       <c r="G362" s="4" t="n">
-        <v>10100.16172</v>
+        <v>11110.18</v>
       </c>
       <c r="H362" s="5" t="s">
         <v>14</v>
@@ -11851,7 +11846,7 @@
         <v>70</v>
       </c>
       <c r="G363" s="4" t="n">
-        <v>13908.77113</v>
+        <v>15299.65</v>
       </c>
       <c r="H363" s="5" t="s">
         <v>14</v>
@@ -11883,7 +11878,7 @@
         <v>75</v>
       </c>
       <c r="G364" s="4" t="n">
-        <v>20652.12818</v>
+        <v>22717.34</v>
       </c>
       <c r="H364" s="5" t="s">
         <v>14</v>
@@ -11915,7 +11910,7 @@
         <v>80</v>
       </c>
       <c r="G365" s="4" t="n">
-        <v>33042.14307</v>
+        <v>36346.36</v>
       </c>
       <c r="H365" s="5" t="s">
         <v>14</v>
@@ -11947,7 +11942,7 @@
         <v>17</v>
       </c>
       <c r="G366" s="4" t="n">
-        <v>4290.6468</v>
+        <v>4719.71</v>
       </c>
       <c r="H366" s="5" t="s">
         <v>14</v>
@@ -11979,7 +11974,7 @@
         <v>25</v>
       </c>
       <c r="G367" s="4" t="n">
-        <v>4455.449244</v>
+        <v>4900.99</v>
       </c>
       <c r="H367" s="5" t="s">
         <v>14</v>
@@ -12011,7 +12006,7 @@
         <v>30</v>
       </c>
       <c r="G368" s="4" t="n">
-        <v>5541.674659</v>
+        <v>6095.84</v>
       </c>
       <c r="H368" s="5" t="s">
         <v>14</v>
@@ -12043,7 +12038,7 @@
         <v>35</v>
       </c>
       <c r="G369" s="4" t="n">
-        <v>6971.467818</v>
+        <v>7668.61</v>
       </c>
       <c r="H369" s="5" t="s">
         <v>14</v>
@@ -12075,7 +12070,7 @@
         <v>40</v>
       </c>
       <c r="G370" s="4" t="n">
-        <v>7983.654458</v>
+        <v>8782.02</v>
       </c>
       <c r="H370" s="5" t="s">
         <v>14</v>
@@ -12107,7 +12102,7 @@
         <v>45</v>
       </c>
       <c r="G371" s="4" t="n">
-        <v>9112.895607</v>
+        <v>10024.19</v>
       </c>
       <c r="H371" s="5" t="s">
         <v>14</v>
@@ -12139,7 +12134,7 @@
         <v>50</v>
       </c>
       <c r="G372" s="4" t="n">
-        <v>10742.6743</v>
+        <v>11816.94</v>
       </c>
       <c r="H372" s="5" t="s">
         <v>14</v>
@@ -12171,7 +12166,7 @@
         <v>55</v>
       </c>
       <c r="G373" s="4" t="n">
-        <v>13550.82982</v>
+        <v>14905.91</v>
       </c>
       <c r="H373" s="5" t="s">
         <v>14</v>
@@ -12203,7 +12198,7 @@
         <v>60</v>
       </c>
       <c r="G374" s="4" t="n">
-        <v>17599.28975</v>
+        <v>19359.22</v>
       </c>
       <c r="H374" s="5" t="s">
         <v>14</v>
@@ -12235,7 +12230,7 @@
         <v>65</v>
       </c>
       <c r="G375" s="4" t="n">
-        <v>23092.52794</v>
+        <v>25401.78</v>
       </c>
       <c r="H375" s="5" t="s">
         <v>14</v>
@@ -12267,7 +12262,7 @@
         <v>70</v>
       </c>
       <c r="G376" s="4" t="n">
-        <v>32765.77827</v>
+        <v>36042.36</v>
       </c>
       <c r="H376" s="5" t="s">
         <v>14</v>
@@ -12299,7 +12294,7 @@
         <v>75</v>
       </c>
       <c r="G377" s="4" t="n">
-        <v>51856.25779</v>
+        <v>57041.88</v>
       </c>
       <c r="H377" s="5" t="s">
         <v>14</v>
@@ -12331,7 +12326,7 @@
         <v>80</v>
       </c>
       <c r="G378" s="4" t="n">
-        <v>84397.73807</v>
+        <v>92837.51</v>
       </c>
       <c r="H378" s="5" t="s">
         <v>14</v>
@@ -12363,7 +12358,7 @@
         <v>17</v>
       </c>
       <c r="G379" s="4" t="n">
-        <v>4290.6468</v>
+        <v>4719.71</v>
       </c>
       <c r="H379" s="5" t="s">
         <v>14</v>
@@ -12395,7 +12390,7 @@
         <v>25</v>
       </c>
       <c r="G380" s="4" t="n">
-        <v>5144.076825</v>
+        <v>5658.48</v>
       </c>
       <c r="H380" s="5" t="s">
         <v>14</v>
@@ -12427,7 +12422,7 @@
         <v>30</v>
       </c>
       <c r="G381" s="4" t="n">
-        <v>6752.25975</v>
+        <v>7427.49</v>
       </c>
       <c r="H381" s="5" t="s">
         <v>14</v>
@@ -12459,7 +12454,7 @@
         <v>35</v>
       </c>
       <c r="G382" s="4" t="n">
-        <v>7795.79981</v>
+        <v>8575.38</v>
       </c>
       <c r="H382" s="5" t="s">
         <v>14</v>
@@ -12491,7 +12486,7 @@
         <v>40</v>
       </c>
       <c r="G383" s="4" t="n">
-        <v>8665.714124</v>
+        <v>9532.29</v>
       </c>
       <c r="H383" s="5" t="s">
         <v>14</v>
@@ -12523,7 +12518,7 @@
         <v>45</v>
       </c>
       <c r="G384" s="4" t="n">
-        <v>9244.264125</v>
+        <v>10168.69</v>
       </c>
       <c r="H384" s="5" t="s">
         <v>14</v>
@@ -12555,7 +12550,7 @@
         <v>50</v>
       </c>
       <c r="G385" s="4" t="n">
-        <v>9814.076994</v>
+        <v>10795.48</v>
       </c>
       <c r="H385" s="5" t="s">
         <v>14</v>
@@ -12587,7 +12582,7 @@
         <v>55</v>
       </c>
       <c r="G386" s="4" t="n">
-        <v>12404.06643</v>
+        <v>13644.47</v>
       </c>
       <c r="H386" s="5" t="s">
         <v>14</v>
@@ -12619,7 +12614,7 @@
         <v>60</v>
       </c>
       <c r="G387" s="4" t="n">
-        <v>16178.88675</v>
+        <v>17796.78</v>
       </c>
       <c r="H387" s="5" t="s">
         <v>14</v>
@@ -12651,7 +12646,7 @@
         <v>65</v>
       </c>
       <c r="G388" s="4" t="n">
-        <v>21281.37106</v>
+        <v>23409.51</v>
       </c>
       <c r="H388" s="5" t="s">
         <v>14</v>
@@ -12683,7 +12678,7 @@
         <v>70</v>
       </c>
       <c r="G389" s="4" t="n">
-        <v>29306.23565</v>
+        <v>32236.86</v>
       </c>
       <c r="H389" s="5" t="s">
         <v>14</v>
@@ -12715,7 +12710,7 @@
         <v>75</v>
       </c>
       <c r="G390" s="4" t="n">
-        <v>43514.70949</v>
+        <v>47866.18</v>
       </c>
       <c r="H390" s="5" t="s">
         <v>14</v>
@@ -12747,7 +12742,7 @@
         <v>80</v>
       </c>
       <c r="G391" s="4" t="n">
-        <v>69620.87606</v>
+        <v>76582.96</v>
       </c>
       <c r="H391" s="5" t="s">
         <v>14</v>
@@ -12779,7 +12774,7 @@
         <v>17</v>
       </c>
       <c r="G392" s="4" t="n">
-        <v>2030.064087</v>
+        <v>2233.07</v>
       </c>
       <c r="H392" s="5" t="s">
         <v>14</v>
@@ -12811,7 +12806,7 @@
         <v>25</v>
       </c>
       <c r="G393" s="4" t="n">
-        <v>2094.291915</v>
+        <v>2303.72</v>
       </c>
       <c r="H393" s="5" t="s">
         <v>14</v>
@@ -12843,7 +12838,7 @@
         <v>30</v>
       </c>
       <c r="G394" s="4" t="n">
-        <v>2475.388035</v>
+        <v>2722.93</v>
       </c>
       <c r="H394" s="5" t="s">
         <v>14</v>
@@ -12875,7 +12870,7 @@
         <v>35</v>
       </c>
       <c r="G395" s="4" t="n">
-        <v>2822.274387</v>
+        <v>3104.5</v>
       </c>
       <c r="H395" s="5" t="s">
         <v>14</v>
@@ -12907,7 +12902,7 @@
         <v>40</v>
       </c>
       <c r="G396" s="4" t="n">
-        <v>3216.272725</v>
+        <v>3537.9</v>
       </c>
       <c r="H396" s="5" t="s">
         <v>14</v>
@@ -12939,7 +12934,7 @@
         <v>45</v>
       </c>
       <c r="G397" s="4" t="n">
-        <v>3651.02498</v>
+        <v>4016.13</v>
       </c>
       <c r="H397" s="5" t="s">
         <v>14</v>
@@ -12971,7 +12966,7 @@
         <v>50</v>
       </c>
       <c r="G398" s="4" t="n">
-        <v>4302.712136</v>
+        <v>4732.98</v>
       </c>
       <c r="H398" s="5" t="s">
         <v>14</v>
@@ -13003,7 +12998,7 @@
         <v>55</v>
       </c>
       <c r="G399" s="4" t="n">
-        <v>5446.374235</v>
+        <v>5991.01</v>
       </c>
       <c r="H399" s="5" t="s">
         <v>14</v>
@@ -13035,7 +13030,7 @@
         <v>60</v>
       </c>
       <c r="G400" s="4" t="n">
-        <v>7076.145478</v>
+        <v>7783.76</v>
       </c>
       <c r="H400" s="5" t="s">
         <v>14</v>
@@ -13067,7 +13062,7 @@
         <v>65</v>
       </c>
       <c r="G401" s="4" t="n">
-        <v>9274.318894</v>
+        <v>10201.75</v>
       </c>
       <c r="H401" s="5" t="s">
         <v>14</v>
@@ -13099,7 +13094,7 @@
         <v>70</v>
       </c>
       <c r="G402" s="4" t="n">
-        <v>13283.46647</v>
+        <v>14611.81</v>
       </c>
       <c r="H402" s="5" t="s">
         <v>14</v>
@@ -13131,7 +13126,7 @@
         <v>75</v>
       </c>
       <c r="G403" s="4" t="n">
-        <v>21715.33686</v>
+        <v>23886.87</v>
       </c>
       <c r="H403" s="5" t="s">
         <v>14</v>
@@ -13163,7 +13158,7 @@
         <v>80</v>
       </c>
       <c r="G404" s="4" t="n">
-        <v>36501.17863</v>
+        <v>40151.3</v>
       </c>
       <c r="H404" s="5" t="s">
         <v>14</v>
@@ -13195,7 +13190,7 @@
         <v>17</v>
       </c>
       <c r="G405" s="4" t="n">
-        <v>2030.064087</v>
+        <v>2233.07</v>
       </c>
       <c r="H405" s="5" t="s">
         <v>14</v>
@@ -13227,7 +13222,7 @@
         <v>25</v>
       </c>
       <c r="G406" s="4" t="n">
-        <v>2331.296967</v>
+        <v>2564.43</v>
       </c>
       <c r="H406" s="5" t="s">
         <v>14</v>
@@ -13259,7 +13254,7 @@
         <v>30</v>
       </c>
       <c r="G407" s="4" t="n">
-        <v>2951.133269</v>
+        <v>3246.25</v>
       </c>
       <c r="H407" s="5" t="s">
         <v>14</v>
@@ -13291,7 +13286,7 @@
         <v>35</v>
       </c>
       <c r="G408" s="4" t="n">
-        <v>3318.984669</v>
+        <v>3650.88</v>
       </c>
       <c r="H408" s="5" t="s">
         <v>14</v>
@@ -13323,7 +13318,7 @@
         <v>40</v>
       </c>
       <c r="G409" s="4" t="n">
-        <v>3686.924486</v>
+        <v>4055.62</v>
       </c>
       <c r="H409" s="5" t="s">
         <v>14</v>
@@ -13355,7 +13350,7 @@
         <v>45</v>
       </c>
       <c r="G410" s="4" t="n">
-        <v>3961.270902</v>
+        <v>4357.4</v>
       </c>
       <c r="H410" s="5" t="s">
         <v>14</v>
@@ -13387,7 +13382,7 @@
         <v>50</v>
       </c>
       <c r="G411" s="4" t="n">
-        <v>4265.965373</v>
+        <v>4692.56</v>
       </c>
       <c r="H411" s="5" t="s">
         <v>14</v>
@@ -13419,7 +13414,7 @@
         <v>55</v>
       </c>
       <c r="G412" s="4" t="n">
-        <v>5356.553071</v>
+        <v>5892.21</v>
       </c>
       <c r="H412" s="5" t="s">
         <v>14</v>
@@ -13451,7 +13446,7 @@
         <v>60</v>
       </c>
       <c r="G413" s="4" t="n">
-        <v>6979.202868</v>
+        <v>7677.12</v>
       </c>
       <c r="H413" s="5" t="s">
         <v>14</v>
@@ -13483,7 +13478,7 @@
         <v>65</v>
       </c>
       <c r="G414" s="4" t="n">
-        <v>9186.113416</v>
+        <v>10104.72</v>
       </c>
       <c r="H414" s="5" t="s">
         <v>14</v>
@@ -13515,7 +13510,7 @@
         <v>70</v>
       </c>
       <c r="G415" s="4" t="n">
-        <v>12667.76366</v>
+        <v>13934.54</v>
       </c>
       <c r="H415" s="5" t="s">
         <v>14</v>
@@ -13547,7 +13542,7 @@
         <v>75</v>
       </c>
       <c r="G416" s="4" t="n">
-        <v>18795.64289</v>
+        <v>20675.21</v>
       </c>
       <c r="H416" s="5" t="s">
         <v>14</v>
@@ -13579,7 +13574,7 @@
         <v>80</v>
       </c>
       <c r="G417" s="4" t="n">
-        <v>29880.20923</v>
+        <v>32868.23</v>
       </c>
       <c r="H417" s="5" t="s">
         <v>14</v>
@@ -13611,7 +13606,7 @@
         <v>17</v>
       </c>
       <c r="G418" s="4" t="n">
-        <v>3186.930885</v>
+        <v>3505.62</v>
       </c>
       <c r="H418" s="5" t="s">
         <v>14</v>
@@ -13643,7 +13638,7 @@
         <v>25</v>
       </c>
       <c r="G419" s="4" t="n">
-        <v>3299.706374</v>
+        <v>3629.68</v>
       </c>
       <c r="H419" s="5" t="s">
         <v>14</v>
@@ -13675,7 +13670,7 @@
         <v>30</v>
       </c>
       <c r="G420" s="4" t="n">
-        <v>3912.231085</v>
+        <v>4303.45</v>
       </c>
       <c r="H420" s="5" t="s">
         <v>14</v>
@@ -13707,7 +13702,7 @@
         <v>35</v>
       </c>
       <c r="G421" s="4" t="n">
-        <v>4428.146345</v>
+        <v>4870.96</v>
       </c>
       <c r="H421" s="5" t="s">
         <v>14</v>
@@ -13739,7 +13734,7 @@
         <v>40</v>
       </c>
       <c r="G422" s="4" t="n">
-        <v>4966.596715</v>
+        <v>5463.26</v>
       </c>
       <c r="H422" s="5" t="s">
         <v>14</v>
@@ -13771,7 +13766,7 @@
         <v>45</v>
       </c>
       <c r="G423" s="4" t="n">
-        <v>5476.570229</v>
+        <v>6024.23</v>
       </c>
       <c r="H423" s="5" t="s">
         <v>14</v>
@@ -13803,7 +13798,7 @@
         <v>50</v>
       </c>
       <c r="G424" s="4" t="n">
-        <v>6275.52854</v>
+        <v>6903.08</v>
       </c>
       <c r="H424" s="5" t="s">
         <v>14</v>
@@ -13835,7 +13830,7 @@
         <v>55</v>
       </c>
       <c r="G425" s="4" t="n">
-        <v>7915.963653</v>
+        <v>8707.56</v>
       </c>
       <c r="H425" s="5" t="s">
         <v>14</v>
@@ -13867,7 +13862,7 @@
         <v>60</v>
       </c>
       <c r="G426" s="4" t="n">
-        <v>10280.94514</v>
+        <v>11309.04</v>
       </c>
       <c r="H426" s="5" t="s">
         <v>14</v>
@@ -13899,7 +13894,7 @@
         <v>65</v>
       </c>
       <c r="G427" s="4" t="n">
-        <v>13489.92012</v>
+        <v>14838.91</v>
       </c>
       <c r="H427" s="5" t="s">
         <v>14</v>
@@ -13931,7 +13926,7 @@
         <v>70</v>
       </c>
       <c r="G428" s="4" t="n">
-        <v>19140.72521</v>
+        <v>21054.8</v>
       </c>
       <c r="H428" s="5" t="s">
         <v>14</v>
@@ -13963,7 +13958,7 @@
         <v>75</v>
       </c>
       <c r="G429" s="4" t="n">
-        <v>30292.77597</v>
+        <v>33322.05</v>
       </c>
       <c r="H429" s="5" t="s">
         <v>14</v>
@@ -13995,7 +13990,7 @@
         <v>80</v>
       </c>
       <c r="G430" s="4" t="n">
-        <v>49302.47342</v>
+        <v>54232.72</v>
       </c>
       <c r="H430" s="5" t="s">
         <v>14</v>
@@ -14027,7 +14022,7 @@
         <v>17</v>
       </c>
       <c r="G431" s="4" t="n">
-        <v>3186.930885</v>
+        <v>3505.62</v>
       </c>
       <c r="H431" s="5" t="s">
         <v>14</v>
@@ -14059,7 +14054,7 @@
         <v>25</v>
       </c>
       <c r="G432" s="4" t="n">
-        <v>3397.762961</v>
+        <v>3737.54</v>
       </c>
       <c r="H432" s="5" t="s">
         <v>14</v>
@@ -14091,7 +14086,7 @@
         <v>30</v>
       </c>
       <c r="G433" s="4" t="n">
-        <v>4186.459111</v>
+        <v>4605.11</v>
       </c>
       <c r="H433" s="5" t="s">
         <v>14</v>
@@ -14123,7 +14118,7 @@
         <v>35</v>
       </c>
       <c r="G434" s="4" t="n">
-        <v>4626.965646</v>
+        <v>5089.66</v>
       </c>
       <c r="H434" s="5" t="s">
         <v>14</v>
@@ -14155,7 +14150,7 @@
         <v>40</v>
       </c>
       <c r="G435" s="4" t="n">
-        <v>5138.250396</v>
+        <v>5652.08</v>
       </c>
       <c r="H435" s="5" t="s">
         <v>14</v>
@@ -14187,7 +14182,7 @@
         <v>45</v>
       </c>
       <c r="G436" s="4" t="n">
-        <v>5608.02005</v>
+        <v>6168.82</v>
       </c>
       <c r="H436" s="5" t="s">
         <v>14</v>
@@ -14219,7 +14214,7 @@
         <v>50</v>
       </c>
       <c r="G437" s="4" t="n">
-        <v>6190.104826</v>
+        <v>6809.12</v>
       </c>
       <c r="H437" s="5" t="s">
         <v>14</v>
@@ -14251,7 +14246,7 @@
         <v>55</v>
       </c>
       <c r="G438" s="4" t="n">
-        <v>7738.212247</v>
+        <v>8512.03</v>
       </c>
       <c r="H438" s="5" t="s">
         <v>14</v>
@@ -14283,7 +14278,7 @@
         <v>60</v>
       </c>
       <c r="G439" s="4" t="n">
-        <v>10109.73333</v>
+        <v>11120.71</v>
       </c>
       <c r="H439" s="5" t="s">
         <v>14</v>
@@ -14315,7 +14310,7 @@
         <v>65</v>
       </c>
       <c r="G440" s="4" t="n">
-        <v>13332.67465</v>
+        <v>14665.94</v>
       </c>
       <c r="H440" s="5" t="s">
         <v>14</v>
@@ -14347,7 +14342,7 @@
         <v>70</v>
       </c>
       <c r="G441" s="4" t="n">
-        <v>18610.15448</v>
+        <v>20471.17</v>
       </c>
       <c r="H441" s="5" t="s">
         <v>14</v>
@@ -14379,7 +14374,7 @@
         <v>75</v>
       </c>
       <c r="G442" s="4" t="n">
-        <v>27493.08948</v>
+        <v>30242.4</v>
       </c>
       <c r="H442" s="5" t="s">
         <v>14</v>
@@ -14411,7 +14406,7 @@
         <v>80</v>
       </c>
       <c r="G443" s="4" t="n">
-        <v>42321.58137</v>
+        <v>46553.74</v>
       </c>
       <c r="H443" s="5" t="s">
         <v>14</v>
@@ -14443,7 +14438,7 @@
         <v>17</v>
       </c>
       <c r="G444" s="4" t="n">
-        <v>6714.967599</v>
+        <v>7386.46</v>
       </c>
       <c r="H444" s="5" t="s">
         <v>14</v>
@@ -14475,7 +14470,7 @@
         <v>25</v>
       </c>
       <c r="G445" s="4" t="n">
-        <v>6952.589243</v>
+        <v>7647.85</v>
       </c>
       <c r="H445" s="5" t="s">
         <v>14</v>
@@ -14507,7 +14502,7 @@
         <v>30</v>
       </c>
       <c r="G446" s="4" t="n">
-        <v>8243.198841</v>
+        <v>9067.52</v>
       </c>
       <c r="H446" s="5" t="s">
         <v>14</v>
@@ -14539,7 +14534,7 @@
         <v>35</v>
       </c>
       <c r="G447" s="4" t="n">
-        <v>9330.249167</v>
+        <v>10263.27</v>
       </c>
       <c r="H447" s="5" t="s">
         <v>14</v>
@@ -14571,7 +14566,7 @@
         <v>40</v>
       </c>
       <c r="G448" s="4" t="n">
-        <v>10464.78171</v>
+        <v>11511.26</v>
       </c>
       <c r="H448" s="5" t="s">
         <v>14</v>
@@ -14603,7 +14598,7 @@
         <v>45</v>
       </c>
       <c r="G449" s="4" t="n">
-        <v>11539.31258</v>
+        <v>12693.24</v>
       </c>
       <c r="H449" s="5" t="s">
         <v>14</v>
@@ -14635,7 +14630,7 @@
         <v>50</v>
       </c>
       <c r="G450" s="4" t="n">
-        <v>13222.74387</v>
+        <v>14545.02</v>
       </c>
       <c r="H450" s="5" t="s">
         <v>14</v>
@@ -14667,7 +14662,7 @@
         <v>55</v>
       </c>
       <c r="G451" s="4" t="n">
-        <v>16679.1943</v>
+        <v>18347.11</v>
       </c>
       <c r="H451" s="5" t="s">
         <v>14</v>
@@ -14699,7 +14694,7 @@
         <v>60</v>
       </c>
       <c r="G452" s="4" t="n">
-        <v>21662.28764</v>
+        <v>23828.52</v>
       </c>
       <c r="H452" s="5" t="s">
         <v>14</v>
@@ -14731,7 +14726,7 @@
         <v>65</v>
       </c>
       <c r="G453" s="4" t="n">
-        <v>28423.70287</v>
+        <v>31266.07</v>
       </c>
       <c r="H453" s="5" t="s">
         <v>14</v>
@@ -14763,7 +14758,7 @@
         <v>70</v>
       </c>
       <c r="G454" s="4" t="n">
-        <v>40330.13398</v>
+        <v>44363.15</v>
       </c>
       <c r="H454" s="5" t="s">
         <v>14</v>
@@ -14795,7 +14790,7 @@
         <v>75</v>
       </c>
       <c r="G455" s="4" t="n">
-        <v>63827.86966</v>
+        <v>70210.66</v>
       </c>
       <c r="H455" s="5" t="s">
         <v>14</v>
@@ -14827,7 +14822,7 @@
         <v>80</v>
       </c>
       <c r="G456" s="4" t="n">
-        <v>103881.9239</v>
+        <v>114270.12</v>
       </c>
       <c r="H456" s="5" t="s">
         <v>14</v>
@@ -14859,7 +14854,7 @@
         <v>17</v>
       </c>
       <c r="G457" s="4" t="n">
-        <v>6714.967599</v>
+        <v>7386.46</v>
       </c>
       <c r="H457" s="5" t="s">
         <v>14</v>
@@ -14891,7 +14886,7 @@
         <v>25</v>
       </c>
       <c r="G458" s="4" t="n">
-        <v>7159.197678</v>
+        <v>7875.12</v>
       </c>
       <c r="H458" s="5" t="s">
         <v>14</v>
@@ -14923,7 +14918,7 @@
         <v>30</v>
       </c>
       <c r="G459" s="4" t="n">
-        <v>8821.00626</v>
+        <v>9703.11</v>
       </c>
       <c r="H459" s="5" t="s">
         <v>14</v>
@@ -14955,7 +14950,7 @@
         <v>35</v>
       </c>
       <c r="G460" s="4" t="n">
-        <v>9749.167936</v>
+        <v>10724.08</v>
       </c>
       <c r="H460" s="5" t="s">
         <v>14</v>
@@ -14987,7 +14982,7 @@
         <v>40</v>
       </c>
       <c r="G461" s="4" t="n">
-        <v>10826.46162</v>
+        <v>11909.11</v>
       </c>
       <c r="H461" s="5" t="s">
         <v>14</v>
@@ -15019,7 +15014,7 @@
         <v>45</v>
       </c>
       <c r="G462" s="4" t="n">
-        <v>11816.28165</v>
+        <v>12997.91</v>
       </c>
       <c r="H462" s="5" t="s">
         <v>14</v>
@@ -15051,7 +15046,7 @@
         <v>50</v>
       </c>
       <c r="G463" s="4" t="n">
-        <v>13042.75331</v>
+        <v>14347.03</v>
       </c>
       <c r="H463" s="5" t="s">
         <v>14</v>
@@ -15083,7 +15078,7 @@
         <v>55</v>
       </c>
       <c r="G464" s="4" t="n">
-        <v>16304.66628</v>
+        <v>17935.13</v>
       </c>
       <c r="H464" s="5" t="s">
         <v>14</v>
@@ -15115,7 +15110,7 @@
         <v>60</v>
       </c>
       <c r="G465" s="4" t="n">
-        <v>21301.53876</v>
+        <v>23431.69</v>
       </c>
       <c r="H465" s="5" t="s">
         <v>14</v>
@@ -15147,7 +15142,7 @@
         <v>65</v>
       </c>
       <c r="G466" s="4" t="n">
-        <v>28092.38152</v>
+        <v>30901.62</v>
       </c>
       <c r="H466" s="5" t="s">
         <v>14</v>
@@ -15179,7 +15174,7 @@
         <v>70</v>
       </c>
       <c r="G467" s="4" t="n">
-        <v>39212.20411</v>
+        <v>43133.42</v>
       </c>
       <c r="H467" s="5" t="s">
         <v>14</v>
@@ -15211,7 +15206,7 @@
         <v>75</v>
       </c>
       <c r="G468" s="4" t="n">
-        <v>57928.83866</v>
+        <v>63721.72</v>
       </c>
       <c r="H468" s="5" t="s">
         <v>14</v>
@@ -15243,7 +15238,7 @@
         <v>80</v>
       </c>
       <c r="G469" s="4" t="n">
-        <v>89172.95603</v>
+        <v>98090.25</v>
       </c>
       <c r="H469" s="5" t="s">
         <v>14</v>
@@ -15275,7 +15270,7 @@
         <v>17</v>
       </c>
       <c r="G470" s="4" t="n">
-        <v>2377.145573</v>
+        <v>2614.86</v>
       </c>
       <c r="H470" s="5" t="s">
         <v>14</v>
@@ -15307,7 +15302,7 @@
         <v>25</v>
       </c>
       <c r="G471" s="4" t="n">
-        <v>2452.354479</v>
+        <v>2697.59</v>
       </c>
       <c r="H471" s="5" t="s">
         <v>14</v>
@@ -15339,7 +15334,7 @@
         <v>30</v>
       </c>
       <c r="G472" s="4" t="n">
-        <v>2898.60687</v>
+        <v>3188.47</v>
       </c>
       <c r="H472" s="5" t="s">
         <v>14</v>
@@ -15371,7 +15366,7 @@
         <v>35</v>
       </c>
       <c r="G473" s="4" t="n">
-        <v>3304.800626</v>
+        <v>3635.28</v>
       </c>
       <c r="H473" s="5" t="s">
         <v>14</v>
@@ -15403,7 +15398,7 @@
         <v>40</v>
       </c>
       <c r="G474" s="4" t="n">
-        <v>3766.161138</v>
+        <v>4142.78</v>
       </c>
       <c r="H474" s="5" t="s">
         <v>14</v>
@@ -15435,7 +15430,7 @@
         <v>45</v>
       </c>
       <c r="G475" s="4" t="n">
-        <v>4275.243291</v>
+        <v>4702.77</v>
       </c>
       <c r="H475" s="5" t="s">
         <v>14</v>
@@ -15467,7 +15462,7 @@
         <v>50</v>
       </c>
       <c r="G476" s="4" t="n">
-        <v>5038.349859</v>
+        <v>5542.18</v>
       </c>
       <c r="H476" s="5" t="s">
         <v>14</v>
@@ -15499,7 +15494,7 @@
         <v>55</v>
       </c>
       <c r="G477" s="4" t="n">
-        <v>6377.544672</v>
+        <v>7015.3</v>
       </c>
       <c r="H477" s="5" t="s">
         <v>14</v>
@@ -15531,7 +15526,7 @@
         <v>60</v>
       </c>
       <c r="G478" s="4" t="n">
-        <v>8285.959052</v>
+        <v>9114.55</v>
       </c>
       <c r="H478" s="5" t="s">
         <v>14</v>
@@ -15563,7 +15558,7 @@
         <v>65</v>
       </c>
       <c r="G479" s="4" t="n">
-        <v>10859.95572</v>
+        <v>11945.95</v>
       </c>
       <c r="H479" s="5" t="s">
         <v>14</v>
@@ -15595,7 +15590,7 @@
         <v>70</v>
       </c>
       <c r="G480" s="4" t="n">
-        <v>15554.55009</v>
+        <v>17110.01</v>
       </c>
       <c r="H480" s="5" t="s">
         <v>14</v>
@@ -15627,7 +15622,7 @@
         <v>75</v>
       </c>
       <c r="G481" s="4" t="n">
-        <v>25428.02329</v>
+        <v>27970.83</v>
       </c>
       <c r="H481" s="5" t="s">
         <v>14</v>
@@ -15659,7 +15654,7 @@
         <v>80</v>
       </c>
       <c r="G482" s="4" t="n">
-        <v>42741.81084</v>
+        <v>47015.99</v>
       </c>
       <c r="H482" s="5" t="s">
         <v>14</v>
@@ -15691,7 +15686,7 @@
         <v>17</v>
       </c>
       <c r="G483" s="4" t="n">
-        <v>2377.145573</v>
+        <v>2614.86</v>
       </c>
       <c r="H483" s="5" t="s">
         <v>14</v>
@@ -15723,7 +15718,7 @@
         <v>25</v>
       </c>
       <c r="G484" s="4" t="n">
-        <v>2729.880451</v>
+        <v>3002.87</v>
       </c>
       <c r="H484" s="5" t="s">
         <v>14</v>
@@ -15755,7 +15750,7 @@
         <v>30</v>
       </c>
       <c r="G485" s="4" t="n">
-        <v>3450.156804</v>
+        <v>3795.17</v>
       </c>
       <c r="H485" s="5" t="s">
         <v>14</v>
@@ -15787,7 +15782,7 @@
         <v>35</v>
       </c>
       <c r="G486" s="4" t="n">
-        <v>3886.433815</v>
+        <v>4275.08</v>
       </c>
       <c r="H486" s="5" t="s">
         <v>14</v>
@@ -15819,7 +15814,7 @@
         <v>40</v>
       </c>
       <c r="G487" s="4" t="n">
-        <v>4317.280562</v>
+        <v>4749.01</v>
       </c>
       <c r="H487" s="5" t="s">
         <v>14</v>
@@ -15851,7 +15846,7 @@
         <v>45</v>
       </c>
       <c r="G488" s="4" t="n">
-        <v>4638.532177</v>
+        <v>5102.39</v>
       </c>
       <c r="H488" s="5" t="s">
         <v>14</v>
@@ -15883,7 +15878,7 @@
         <v>50</v>
       </c>
       <c r="G489" s="4" t="n">
-        <v>4995.320476</v>
+        <v>5494.85</v>
       </c>
       <c r="H489" s="5" t="s">
         <v>14</v>
@@ -15915,7 +15910,7 @@
         <v>55</v>
       </c>
       <c r="G490" s="4" t="n">
-        <v>6272.366722</v>
+        <v>6899.6</v>
       </c>
       <c r="H490" s="5" t="s">
         <v>14</v>
@@ -15947,7 +15942,7 @@
         <v>60</v>
       </c>
       <c r="G491" s="4" t="n">
-        <v>8172.442096</v>
+        <v>8989.69</v>
       </c>
       <c r="H491" s="5" t="s">
         <v>14</v>
@@ -15979,7 +15974,7 @@
         <v>65</v>
       </c>
       <c r="G492" s="4" t="n">
-        <v>10756.66969</v>
+        <v>11832.34</v>
       </c>
       <c r="H492" s="5" t="s">
         <v>14</v>
@@ -16011,7 +16006,7 @@
         <v>70</v>
       </c>
       <c r="G493" s="4" t="n">
-        <v>14833.58013</v>
+        <v>16316.94</v>
       </c>
       <c r="H493" s="5" t="s">
         <v>14</v>
@@ -16043,7 +16038,7 @@
         <v>75</v>
       </c>
       <c r="G494" s="4" t="n">
-        <v>22009.14719</v>
+        <v>24210.06</v>
       </c>
       <c r="H494" s="5" t="s">
         <v>14</v>
@@ -16075,7 +16070,7 @@
         <v>80</v>
       </c>
       <c r="G495" s="4" t="n">
-        <v>34988.84964</v>
+        <v>38487.73</v>
       </c>
       <c r="H495" s="5" t="s">
         <v>14</v>
@@ -16107,7 +16102,7 @@
         <v>17</v>
       </c>
       <c r="G496" s="4" t="n">
-        <v>3597.0825</v>
+        <v>3956.79</v>
       </c>
       <c r="H496" s="5" t="s">
         <v>14</v>
@@ -16139,7 +16134,7 @@
         <v>25</v>
       </c>
       <c r="G497" s="4" t="n">
-        <v>3723.478092</v>
+        <v>4095.83</v>
       </c>
       <c r="H497" s="5" t="s">
         <v>14</v>
@@ -16171,7 +16166,7 @@
         <v>30</v>
       </c>
       <c r="G498" s="4" t="n">
-        <v>4413.766926</v>
+        <v>4855.14</v>
       </c>
       <c r="H498" s="5" t="s">
         <v>14</v>
@@ -16203,7 +16198,7 @@
         <v>35</v>
       </c>
       <c r="G499" s="4" t="n">
-        <v>4998.22318</v>
+        <v>5498.05</v>
       </c>
       <c r="H499" s="5" t="s">
         <v>14</v>
@@ -16235,7 +16230,7 @@
         <v>40</v>
       </c>
       <c r="G500" s="4" t="n">
-        <v>5611.96257</v>
+        <v>6173.16</v>
       </c>
       <c r="H500" s="5" t="s">
         <v>14</v>
@@ -16267,7 +16262,7 @@
         <v>45</v>
       </c>
       <c r="G501" s="4" t="n">
-        <v>6200.478081</v>
+        <v>6820.53</v>
       </c>
       <c r="H501" s="5" t="s">
         <v>14</v>
@@ -16299,7 +16294,7 @@
         <v>50</v>
       </c>
       <c r="G502" s="4" t="n">
-        <v>7119.029159</v>
+        <v>7830.93</v>
       </c>
       <c r="H502" s="5" t="s">
         <v>14</v>
@@ -16331,7 +16326,7 @@
         <v>55</v>
       </c>
       <c r="G503" s="4" t="n">
-        <v>8982.179947</v>
+        <v>9880.4</v>
       </c>
       <c r="H503" s="5" t="s">
         <v>14</v>
@@ -16363,7 +16358,7 @@
         <v>60</v>
       </c>
       <c r="G504" s="4" t="n">
-        <v>11666.01153</v>
+        <v>12832.61</v>
       </c>
       <c r="H504" s="5" t="s">
         <v>14</v>
@@ -16395,7 +16390,7 @@
         <v>65</v>
       </c>
       <c r="G505" s="4" t="n">
-        <v>15306.07257</v>
+        <v>16836.68</v>
       </c>
       <c r="H505" s="5" t="s">
         <v>14</v>
@@ -16427,7 +16422,7 @@
         <v>70</v>
       </c>
       <c r="G506" s="4" t="n">
-        <v>21732.23879</v>
+        <v>23905.46</v>
       </c>
       <c r="H506" s="5" t="s">
         <v>14</v>
@@ -16459,7 +16454,7 @@
         <v>75</v>
       </c>
       <c r="G507" s="4" t="n">
-        <v>34475.53485</v>
+        <v>37923.09</v>
       </c>
       <c r="H507" s="5" t="s">
         <v>14</v>
@@ -16491,7 +16486,7 @@
         <v>80</v>
       </c>
       <c r="G508" s="4" t="n">
-        <v>56246.16241</v>
+        <v>61870.78</v>
       </c>
       <c r="H508" s="5" t="s">
         <v>14</v>
@@ -16523,7 +16518,7 @@
         <v>17</v>
       </c>
       <c r="G509" s="4" t="n">
-        <v>3597.0825</v>
+        <v>3956.79</v>
       </c>
       <c r="H509" s="5" t="s">
         <v>14</v>
@@ -16555,7 +16550,7 @@
         <v>25</v>
       </c>
       <c r="G510" s="4" t="n">
-        <v>3840.356016</v>
+        <v>4224.39</v>
       </c>
       <c r="H510" s="5" t="s">
         <v>14</v>
@@ -16587,7 +16582,7 @@
         <v>30</v>
       </c>
       <c r="G511" s="4" t="n">
-        <v>4751.047555</v>
+        <v>5226.15</v>
       </c>
       <c r="H511" s="5" t="s">
         <v>14</v>
@@ -16619,7 +16614,7 @@
         <v>35</v>
       </c>
       <c r="G512" s="4" t="n">
-        <v>5266.099328</v>
+        <v>5792.71</v>
       </c>
       <c r="H512" s="5" t="s">
         <v>14</v>
@@ -16651,7 +16646,7 @@
         <v>40</v>
       </c>
       <c r="G513" s="4" t="n">
-        <v>5848.14864</v>
+        <v>6432.96</v>
       </c>
       <c r="H513" s="5" t="s">
         <v>14</v>
@@ -16683,7 +16678,7 @@
         <v>45</v>
       </c>
       <c r="G514" s="4" t="n">
-        <v>6375.452404</v>
+        <v>7013</v>
       </c>
       <c r="H514" s="5" t="s">
         <v>14</v>
@@ -16715,7 +16710,7 @@
         <v>50</v>
       </c>
       <c r="G515" s="4" t="n">
-        <v>7024.686926</v>
+        <v>7727.16</v>
       </c>
       <c r="H515" s="5" t="s">
         <v>14</v>
@@ -16747,7 +16742,7 @@
         <v>55</v>
       </c>
       <c r="G516" s="4" t="n">
-        <v>8784.301646</v>
+        <v>9662.73</v>
       </c>
       <c r="H516" s="5" t="s">
         <v>14</v>
@@ -16779,7 +16774,7 @@
         <v>60</v>
       </c>
       <c r="G517" s="4" t="n">
-        <v>11474.18862</v>
+        <v>12621.61</v>
       </c>
       <c r="H517" s="5" t="s">
         <v>14</v>
@@ -16811,7 +16806,7 @@
         <v>65</v>
       </c>
       <c r="G518" s="4" t="n">
-        <v>15129.99471</v>
+        <v>16642.99</v>
       </c>
       <c r="H518" s="5" t="s">
         <v>14</v>
@@ -16843,7 +16838,7 @@
         <v>70</v>
       </c>
       <c r="G519" s="4" t="n">
-        <v>21100.76118</v>
+        <v>23210.84</v>
       </c>
       <c r="H519" s="5" t="s">
         <v>14</v>
@@ -16875,7 +16870,7 @@
         <v>75</v>
       </c>
       <c r="G520" s="4" t="n">
-        <v>31182.05925</v>
+        <v>34300.27</v>
       </c>
       <c r="H520" s="5" t="s">
         <v>14</v>
@@ -16907,7 +16902,7 @@
         <v>80</v>
       </c>
       <c r="G521" s="4" t="n">
-        <v>48111.45677</v>
+        <v>52922.6</v>
       </c>
       <c r="H521" s="5" t="s">
         <v>14</v>
@@ -16939,7 +16934,7 @@
         <v>17</v>
       </c>
       <c r="G522" s="4" t="n">
-        <v>7579.170466</v>
+        <v>8337.09</v>
       </c>
       <c r="H522" s="5" t="s">
         <v>14</v>
@@ -16971,7 +16966,7 @@
         <v>25</v>
       </c>
       <c r="G523" s="4" t="n">
-        <v>7845.490112</v>
+        <v>8630.04</v>
       </c>
       <c r="H523" s="5" t="s">
         <v>14</v>
@@ -17003,7 +16998,7 @@
         <v>30</v>
       </c>
       <c r="G524" s="4" t="n">
-        <v>9299.95126</v>
+        <v>10229.95</v>
       </c>
       <c r="H524" s="5" t="s">
         <v>14</v>
@@ -17035,7 +17030,7 @@
         <v>35</v>
       </c>
       <c r="G525" s="4" t="n">
-        <v>10531.4197</v>
+        <v>11584.56</v>
       </c>
       <c r="H525" s="5" t="s">
         <v>14</v>
@@ -17067,7 +17062,7 @@
         <v>40</v>
       </c>
       <c r="G526" s="4" t="n">
-        <v>11824.58867</v>
+        <v>13007.05</v>
       </c>
       <c r="H526" s="5" t="s">
         <v>14</v>
@@ -17099,7 +17094,7 @@
         <v>45</v>
       </c>
       <c r="G527" s="4" t="n">
-        <v>13064.6101</v>
+        <v>14371.07</v>
       </c>
       <c r="H527" s="5" t="s">
         <v>14</v>
@@ -17131,7 +17126,7 @@
         <v>50</v>
       </c>
       <c r="G528" s="4" t="n">
-        <v>15000.02726</v>
+        <v>16500.03</v>
       </c>
       <c r="H528" s="5" t="s">
         <v>14</v>
@@ -17163,7 +17158,7 @@
         <v>55</v>
       </c>
       <c r="G529" s="4" t="n">
-        <v>18925.7469</v>
+        <v>20818.32</v>
       </c>
       <c r="H529" s="5" t="s">
         <v>14</v>
@@ -17195,7 +17190,7 @@
         <v>60</v>
       </c>
       <c r="G530" s="4" t="n">
-        <v>24580.66781</v>
+        <v>27038.73</v>
       </c>
       <c r="H530" s="5" t="s">
         <v>14</v>
@@ -17227,7 +17222,7 @@
         <v>65</v>
       </c>
       <c r="G531" s="4" t="n">
-        <v>32250.39546</v>
+        <v>35475.44</v>
       </c>
       <c r="H531" s="5" t="s">
         <v>14</v>
@@ -17259,7 +17254,7 @@
         <v>70</v>
       </c>
       <c r="G532" s="4" t="n">
-        <v>45790.53786</v>
+        <v>50369.59</v>
       </c>
       <c r="H532" s="5" t="s">
         <v>14</v>
@@ -17291,7 +17286,7 @@
         <v>75</v>
       </c>
       <c r="G533" s="4" t="n">
-        <v>72641.07941</v>
+        <v>79905.19</v>
       </c>
       <c r="H533" s="5" t="s">
         <v>14</v>
@@ -17323,7 +17318,7 @@
         <v>80</v>
       </c>
       <c r="G534" s="4" t="n">
-        <v>118512.5037</v>
+        <v>130363.75</v>
       </c>
       <c r="H534" s="5" t="s">
         <v>14</v>
@@ -17355,7 +17350,7 @@
         <v>17</v>
       </c>
       <c r="G535" s="4" t="n">
-        <v>7579.170466</v>
+        <v>8337.09</v>
       </c>
       <c r="H535" s="5" t="s">
         <v>14</v>
@@ -17387,7 +17382,7 @@
         <v>25</v>
       </c>
       <c r="G536" s="4" t="n">
-        <v>8091.755721</v>
+        <v>8900.93</v>
       </c>
       <c r="H536" s="5" t="s">
         <v>14</v>
@@ -17419,7 +17414,7 @@
         <v>30</v>
       </c>
       <c r="G537" s="4" t="n">
-        <v>10010.61258</v>
+        <v>11011.67</v>
       </c>
       <c r="H537" s="5" t="s">
         <v>14</v>
@@ -17451,7 +17446,7 @@
         <v>35</v>
       </c>
       <c r="G538" s="4" t="n">
-        <v>11095.84351</v>
+        <v>12205.43</v>
       </c>
       <c r="H538" s="5" t="s">
         <v>14</v>
@@ -17483,7 +17478,7 @@
         <v>40</v>
       </c>
       <c r="G539" s="4" t="n">
-        <v>12322.24044</v>
+        <v>13554.46</v>
       </c>
       <c r="H539" s="5" t="s">
         <v>14</v>
@@ -17515,7 +17510,7 @@
         <v>45</v>
       </c>
       <c r="G540" s="4" t="n">
-        <v>13433.28672</v>
+        <v>14776.62</v>
       </c>
       <c r="H540" s="5" t="s">
         <v>14</v>
@@ -17547,7 +17542,7 @@
         <v>50</v>
       </c>
       <c r="G541" s="4" t="n">
-        <v>14801.24509</v>
+        <v>16281.37</v>
       </c>
       <c r="H541" s="5" t="s">
         <v>14</v>
@@ -17579,7 +17574,7 @@
         <v>55</v>
       </c>
       <c r="G542" s="4" t="n">
-        <v>18508.81085</v>
+        <v>20359.69</v>
       </c>
       <c r="H542" s="5" t="s">
         <v>14</v>
@@ -17611,7 +17606,7 @@
         <v>60</v>
       </c>
       <c r="G543" s="4" t="n">
-        <v>24176.49068</v>
+        <v>26594.14</v>
       </c>
       <c r="H543" s="5" t="s">
         <v>14</v>
@@ -17643,7 +17638,7 @@
         <v>65</v>
       </c>
       <c r="G544" s="4" t="n">
-        <v>31879.39367</v>
+        <v>35067.33</v>
       </c>
       <c r="H544" s="5" t="s">
         <v>14</v>
@@ -17675,7 +17670,7 @@
         <v>70</v>
       </c>
       <c r="G545" s="4" t="n">
-        <v>44459.99389</v>
+        <v>48905.99</v>
       </c>
       <c r="H545" s="5" t="s">
         <v>14</v>
@@ -17707,7 +17702,7 @@
         <v>75</v>
       </c>
       <c r="G546" s="4" t="n">
-        <v>65701.61862</v>
+        <v>72271.78</v>
       </c>
       <c r="H546" s="5" t="s">
         <v>14</v>
@@ -17739,7 +17734,7 @@
         <v>80</v>
       </c>
       <c r="G547" s="4" t="n">
-        <v>101372.4129</v>
+        <v>111509.65</v>
       </c>
       <c r="H547" s="5" t="s">
         <v>14</v>
@@ -17771,7 +17766,7 @@
         <v>17</v>
       </c>
       <c r="G548" s="4" t="n">
-        <v>2458.767641</v>
+        <v>2704.64</v>
       </c>
       <c r="H548" s="5" t="s">
         <v>14</v>
@@ -17803,7 +17798,7 @@
         <v>25</v>
       </c>
       <c r="G549" s="4" t="n">
-        <v>2536.794452</v>
+        <v>2790.47</v>
       </c>
       <c r="H549" s="5" t="s">
         <v>14</v>
@@ -17835,7 +17830,7 @@
         <v>30</v>
       </c>
       <c r="G550" s="4" t="n">
-        <v>3009.52817</v>
+        <v>3310.48</v>
       </c>
       <c r="H550" s="5" t="s">
         <v>14</v>
@@ -17867,7 +17862,7 @@
         <v>35</v>
       </c>
       <c r="G551" s="4" t="n">
-        <v>3440.422451</v>
+        <v>3784.46</v>
       </c>
       <c r="H551" s="5" t="s">
         <v>14</v>
@@ -17899,7 +17894,7 @@
         <v>40</v>
       </c>
       <c r="G552" s="4" t="n">
-        <v>3924.720139</v>
+        <v>4317.19</v>
       </c>
       <c r="H552" s="5" t="s">
         <v>14</v>
@@ -17931,7 +17926,7 @@
         <v>45</v>
       </c>
       <c r="G553" s="4" t="n">
-        <v>4492.915551</v>
+        <v>4942.21</v>
       </c>
       <c r="H553" s="5" t="s">
         <v>14</v>
@@ -17963,7 +17958,7 @@
         <v>50</v>
       </c>
       <c r="G554" s="4" t="n">
-        <v>5380.015274</v>
+        <v>5918.02</v>
       </c>
       <c r="H554" s="5" t="s">
         <v>14</v>
@@ -17995,7 +17990,7 @@
         <v>55</v>
       </c>
       <c r="G555" s="4" t="n">
-        <v>6876.271386</v>
+        <v>7563.9</v>
       </c>
       <c r="H555" s="5" t="s">
         <v>14</v>
@@ -18027,7 +18022,7 @@
         <v>60</v>
       </c>
       <c r="G556" s="4" t="n">
-        <v>8961.375567</v>
+        <v>9857.51</v>
       </c>
       <c r="H556" s="5" t="s">
         <v>14</v>
@@ -18059,7 +18054,7 @@
         <v>65</v>
       </c>
       <c r="G557" s="4" t="n">
-        <v>11769.325</v>
+        <v>12946.26</v>
       </c>
       <c r="H557" s="5" t="s">
         <v>14</v>
@@ -18091,7 +18086,7 @@
         <v>70</v>
       </c>
       <c r="G558" s="4" t="n">
-        <v>16940.42918</v>
+        <v>18634.47</v>
       </c>
       <c r="H558" s="5" t="s">
         <v>14</v>
@@ -18123,7 +18118,7 @@
         <v>75</v>
       </c>
       <c r="G559" s="4" t="n">
-        <v>28278.90208</v>
+        <v>31106.79</v>
       </c>
       <c r="H559" s="5" t="s">
         <v>14</v>
@@ -18155,7 +18150,7 @@
         <v>80</v>
       </c>
       <c r="G560" s="4" t="n">
-        <v>48620.57794</v>
+        <v>53482.64</v>
       </c>
       <c r="H560" s="5" t="s">
         <v>14</v>
@@ -18187,7 +18182,7 @@
         <v>17</v>
       </c>
       <c r="G561" s="4" t="n">
-        <v>2458.767641</v>
+        <v>2704.64</v>
       </c>
       <c r="H561" s="5" t="s">
         <v>14</v>
@@ -18219,7 +18214,7 @@
         <v>25</v>
       </c>
       <c r="G562" s="4" t="n">
-        <v>2812.254805</v>
+        <v>3093.48</v>
       </c>
       <c r="H562" s="5" t="s">
         <v>14</v>
@@ -18251,7 +18246,7 @@
         <v>30</v>
       </c>
       <c r="G563" s="4" t="n">
-        <v>3563.7344</v>
+        <v>3920.11</v>
       </c>
       <c r="H563" s="5" t="s">
         <v>14</v>
@@ -18283,7 +18278,7 @@
         <v>35</v>
       </c>
       <c r="G564" s="4" t="n">
-        <v>4023.747559</v>
+        <v>4426.12</v>
       </c>
       <c r="H564" s="5" t="s">
         <v>14</v>
@@ -18315,7 +18310,7 @@
         <v>40</v>
       </c>
       <c r="G565" s="4" t="n">
-        <v>4481.602185</v>
+        <v>4929.76</v>
       </c>
       <c r="H565" s="5" t="s">
         <v>14</v>
@@ -18347,7 +18342,7 @@
         <v>45</v>
       </c>
       <c r="G566" s="4" t="n">
-        <v>4867.814857</v>
+        <v>5354.6</v>
       </c>
       <c r="H566" s="5" t="s">
         <v>14</v>
@@ -18379,7 +18374,7 @@
         <v>50</v>
       </c>
       <c r="G567" s="4" t="n">
-        <v>5352.250922</v>
+        <v>5887.48</v>
       </c>
       <c r="H567" s="5" t="s">
         <v>14</v>
@@ -18411,7 +18406,7 @@
         <v>55</v>
       </c>
       <c r="G568" s="4" t="n">
-        <v>6778.977676</v>
+        <v>7456.88</v>
       </c>
       <c r="H568" s="5" t="s">
         <v>14</v>
@@ -18443,7 +18438,7 @@
         <v>60</v>
       </c>
       <c r="G569" s="4" t="n">
-        <v>8847.923369</v>
+        <v>9732.72</v>
       </c>
       <c r="H569" s="5" t="s">
         <v>14</v>
@@ -18475,7 +18470,7 @@
         <v>65</v>
       </c>
       <c r="G570" s="4" t="n">
-        <v>11653.47343</v>
+        <v>12818.82</v>
       </c>
       <c r="H570" s="5" t="s">
         <v>14</v>
@@ -18507,7 +18502,7 @@
         <v>70</v>
       </c>
       <c r="G571" s="4" t="n">
-        <v>15988.66448</v>
+        <v>17587.53</v>
       </c>
       <c r="H571" s="5" t="s">
         <v>14</v>
@@ -18539,7 +18534,7 @@
         <v>75</v>
       </c>
       <c r="G572" s="4" t="n">
-        <v>23820.94944</v>
+        <v>26203.04</v>
       </c>
       <c r="H572" s="5" t="s">
         <v>14</v>
@@ -18571,7 +18566,7 @@
         <v>80</v>
       </c>
       <c r="G573" s="4" t="n">
-        <v>38673.57724</v>
+        <v>42540.93</v>
       </c>
       <c r="H573" s="5" t="s">
         <v>14</v>
@@ -18603,7 +18598,7 @@
         <v>17</v>
       </c>
       <c r="G574" s="4" t="n">
-        <v>3720.592527</v>
+        <v>4092.65</v>
       </c>
       <c r="H574" s="5" t="s">
         <v>14</v>
@@ -18635,7 +18630,7 @@
         <v>25</v>
       </c>
       <c r="G575" s="4" t="n">
-        <v>3851.692145</v>
+        <v>4236.86</v>
       </c>
       <c r="H575" s="5" t="s">
         <v>14</v>
@@ -18667,7 +18662,7 @@
         <v>30</v>
       </c>
       <c r="G576" s="4" t="n">
-        <v>4582.658854</v>
+        <v>5040.92</v>
       </c>
       <c r="H576" s="5" t="s">
         <v>14</v>
@@ -18699,7 +18694,7 @@
         <v>35</v>
       </c>
       <c r="G577" s="4" t="n">
-        <v>5203.340405</v>
+        <v>5723.67</v>
       </c>
       <c r="H577" s="5" t="s">
         <v>14</v>
@@ -18731,7 +18726,7 @@
         <v>40</v>
       </c>
       <c r="G578" s="4" t="n">
-        <v>5848.196428</v>
+        <v>6433.02</v>
       </c>
       <c r="H578" s="5" t="s">
         <v>14</v>
@@ -18763,7 +18758,7 @@
         <v>45</v>
       </c>
       <c r="G579" s="4" t="n">
-        <v>6515.939095</v>
+        <v>7167.53</v>
       </c>
       <c r="H579" s="5" t="s">
         <v>14</v>
@@ -18795,7 +18790,7 @@
         <v>50</v>
       </c>
       <c r="G580" s="4" t="n">
-        <v>7601.65094</v>
+        <v>8361.82</v>
       </c>
       <c r="H580" s="5" t="s">
         <v>14</v>
@@ -18827,7 +18822,7 @@
         <v>55</v>
       </c>
       <c r="G581" s="4" t="n">
-        <v>9684.595107</v>
+        <v>10653.05</v>
       </c>
       <c r="H581" s="5" t="s">
         <v>14</v>
@@ -18859,7 +18854,7 @@
         <v>60</v>
       </c>
       <c r="G582" s="4" t="n">
-        <v>12616.93808</v>
+        <v>13878.63</v>
       </c>
       <c r="H582" s="5" t="s">
         <v>14</v>
@@ -18891,7 +18886,7 @@
         <v>65</v>
       </c>
       <c r="G583" s="4" t="n">
-        <v>16587.73545</v>
+        <v>18246.51</v>
       </c>
       <c r="H583" s="5" t="s">
         <v>14</v>
@@ -18923,7 +18918,7 @@
         <v>70</v>
       </c>
       <c r="G584" s="4" t="n">
-        <v>23667.69738</v>
+        <v>26034.47</v>
       </c>
       <c r="H584" s="5" t="s">
         <v>14</v>
@@ -18955,7 +18950,7 @@
         <v>75</v>
       </c>
       <c r="G585" s="4" t="n">
-        <v>38338.69086</v>
+        <v>42172.56</v>
       </c>
       <c r="H585" s="5" t="s">
         <v>14</v>
@@ -18987,7 +18982,7 @@
         <v>80</v>
       </c>
       <c r="G586" s="4" t="n">
-        <v>63979.52439</v>
+        <v>70377.48</v>
       </c>
       <c r="H586" s="5" t="s">
         <v>14</v>
@@ -19019,7 +19014,7 @@
         <v>17</v>
       </c>
       <c r="G587" s="4" t="n">
-        <v>3720.592527</v>
+        <v>4092.65</v>
       </c>
       <c r="H587" s="5" t="s">
         <v>14</v>
@@ -19051,7 +19046,7 @@
         <v>25</v>
       </c>
       <c r="G588" s="4" t="n">
-        <v>3971.270751</v>
+        <v>4368.4</v>
       </c>
       <c r="H588" s="5" t="s">
         <v>14</v>
@@ -19083,7 +19078,7 @@
         <v>30</v>
       </c>
       <c r="G589" s="4" t="n">
-        <v>4907.427859</v>
+        <v>5398.17</v>
       </c>
       <c r="H589" s="5" t="s">
         <v>14</v>
@@ -19115,7 +19110,7 @@
         <v>35</v>
       </c>
       <c r="G590" s="4" t="n">
-        <v>5452.157109</v>
+        <v>5997.37</v>
       </c>
       <c r="H590" s="5" t="s">
         <v>14</v>
@@ -19147,7 +19142,7 @@
         <v>40</v>
       </c>
       <c r="G591" s="4" t="n">
-        <v>6070.749607</v>
+        <v>6677.82</v>
       </c>
       <c r="H591" s="5" t="s">
         <v>14</v>
@@ -19179,7 +19174,7 @@
         <v>45</v>
       </c>
       <c r="G592" s="4" t="n">
-        <v>6691.160208</v>
+        <v>7360.28</v>
       </c>
       <c r="H592" s="5" t="s">
         <v>14</v>
@@ -19211,7 +19206,7 @@
         <v>50</v>
       </c>
       <c r="G593" s="4" t="n">
-        <v>7526.445874</v>
+        <v>8279.09</v>
       </c>
       <c r="H593" s="5" t="s">
         <v>14</v>
@@ -19243,7 +19238,7 @@
         <v>55</v>
       </c>
       <c r="G594" s="4" t="n">
-        <v>9493.804828</v>
+        <v>10443.19</v>
       </c>
       <c r="H594" s="5" t="s">
         <v>14</v>
@@ -19275,7 +19270,7 @@
         <v>60</v>
       </c>
       <c r="G595" s="4" t="n">
-        <v>12422.56927</v>
+        <v>13664.83</v>
       </c>
       <c r="H595" s="5" t="s">
         <v>14</v>
@@ -19307,7 +19302,7 @@
         <v>65</v>
       </c>
       <c r="G596" s="4" t="n">
-        <v>16391.38728</v>
+        <v>18030.53</v>
       </c>
       <c r="H596" s="5" t="s">
         <v>14</v>
@@ -19339,7 +19334,7 @@
         <v>70</v>
       </c>
       <c r="G597" s="4" t="n">
-        <v>22743.69451</v>
+        <v>25018.06</v>
       </c>
       <c r="H597" s="5" t="s">
         <v>14</v>
@@ -19371,7 +19366,7 @@
         <v>75</v>
       </c>
       <c r="G598" s="4" t="n">
-        <v>33747.80424</v>
+        <v>37122.58</v>
       </c>
       <c r="H598" s="5" t="s">
         <v>14</v>
@@ -19403,7 +19398,7 @@
         <v>80</v>
       </c>
       <c r="G599" s="4" t="n">
-        <v>53175.18947</v>
+        <v>58492.71</v>
       </c>
       <c r="H599" s="5" t="s">
         <v>14</v>
@@ -19435,7 +19430,7 @@
         <v>17</v>
       </c>
       <c r="G600" s="4" t="n">
-        <v>7839.410132</v>
+        <v>8623.35</v>
       </c>
       <c r="H600" s="5" t="s">
         <v>14</v>
@@ -19467,7 +19462,7 @@
         <v>25</v>
       </c>
       <c r="G601" s="4" t="n">
-        <v>8115.641314</v>
+        <v>8927.21</v>
       </c>
       <c r="H601" s="5" t="s">
         <v>14</v>
@@ -19499,7 +19494,7 @@
         <v>30</v>
       </c>
       <c r="G602" s="4" t="n">
-        <v>9655.812077</v>
+        <v>10621.39</v>
       </c>
       <c r="H602" s="5" t="s">
         <v>14</v>
@@ -19531,7 +19526,7 @@
         <v>35</v>
       </c>
       <c r="G603" s="4" t="n">
-        <v>10963.6084</v>
+        <v>12059.97</v>
       </c>
       <c r="H603" s="5" t="s">
         <v>14</v>
@@ -19563,7 +19558,7 @@
         <v>40</v>
       </c>
       <c r="G604" s="4" t="n">
-        <v>12322.34113</v>
+        <v>13554.58</v>
       </c>
       <c r="H604" s="5" t="s">
         <v>14</v>
@@ -19595,7 +19590,7 @@
         <v>45</v>
       </c>
       <c r="G605" s="4" t="n">
-        <v>13729.29677</v>
+        <v>15102.23</v>
       </c>
       <c r="H605" s="5" t="s">
         <v>14</v>
@@ -19627,7 +19622,7 @@
         <v>50</v>
       </c>
       <c r="G606" s="4" t="n">
-        <v>16016.92713</v>
+        <v>17618.62</v>
       </c>
       <c r="H606" s="5" t="s">
         <v>14</v>
@@ -19659,7 +19654,7 @@
         <v>55</v>
       </c>
       <c r="G607" s="4" t="n">
-        <v>20405.75861</v>
+        <v>22446.33</v>
       </c>
       <c r="H607" s="5" t="s">
         <v>14</v>
@@ -19691,7 +19686,7 @@
         <v>60</v>
       </c>
       <c r="G608" s="4" t="n">
-        <v>26584.30115</v>
+        <v>29242.73</v>
       </c>
       <c r="H608" s="5" t="s">
         <v>14</v>
@@ -19723,7 +19718,7 @@
         <v>65</v>
       </c>
       <c r="G609" s="4" t="n">
-        <v>34950.90109</v>
+        <v>38445.99</v>
       </c>
       <c r="H609" s="5" t="s">
         <v>14</v>
@@ -19755,7 +19750,7 @@
         <v>70</v>
       </c>
       <c r="G610" s="4" t="n">
-        <v>49868.61241</v>
+        <v>54855.47</v>
       </c>
       <c r="H610" s="5" t="s">
         <v>14</v>
@@ -19787,7 +19782,7 @@
         <v>75</v>
       </c>
       <c r="G611" s="4" t="n">
-        <v>80780.87546</v>
+        <v>88858.96</v>
       </c>
       <c r="H611" s="5" t="s">
         <v>14</v>
@@ -19819,7 +19814,7 @@
         <v>80</v>
       </c>
       <c r="G612" s="4" t="n">
-        <v>134806.9503</v>
+        <v>148287.65</v>
       </c>
       <c r="H612" s="5" t="s">
         <v>14</v>
@@ -19851,7 +19846,7 @@
         <v>17</v>
       </c>
       <c r="G613" s="4" t="n">
-        <v>7839.410132</v>
+        <v>8623.35</v>
       </c>
       <c r="H613" s="5" t="s">
         <v>14</v>
@@ -19883,7 +19878,7 @@
         <v>25</v>
       </c>
       <c r="G614" s="4" t="n">
-        <v>8367.597349</v>
+        <v>9204.36</v>
       </c>
       <c r="H614" s="5" t="s">
         <v>14</v>
@@ -19915,7 +19910,7 @@
         <v>30</v>
       </c>
       <c r="G615" s="4" t="n">
-        <v>10340.11099</v>
+        <v>11374.12</v>
       </c>
       <c r="H615" s="5" t="s">
         <v>14</v>
@@ -19947,7 +19942,7 @@
         <v>35</v>
       </c>
       <c r="G616" s="4" t="n">
-        <v>11487.87334</v>
+        <v>12636.66</v>
       </c>
       <c r="H616" s="5" t="s">
         <v>14</v>
@@ -19979,7 +19974,7 @@
         <v>40</v>
       </c>
       <c r="G617" s="4" t="n">
-        <v>12791.26796</v>
+        <v>14070.39</v>
       </c>
       <c r="H617" s="5" t="s">
         <v>14</v>
@@ -20011,7 +20006,7 @@
         <v>45</v>
       </c>
       <c r="G618" s="4" t="n">
-        <v>14098.49339</v>
+        <v>15508.34</v>
       </c>
       <c r="H618" s="5" t="s">
         <v>14</v>
@@ -20043,7 +20038,7 @@
         <v>50</v>
       </c>
       <c r="G619" s="4" t="n">
-        <v>15858.4676</v>
+        <v>17444.31</v>
       </c>
       <c r="H619" s="5" t="s">
         <v>14</v>
@@ -20075,7 +20070,7 @@
         <v>55</v>
       </c>
       <c r="G620" s="4" t="n">
-        <v>20003.75726</v>
+        <v>22004.13</v>
       </c>
       <c r="H620" s="5" t="s">
         <v>14</v>
@@ -20107,7 +20102,7 @@
         <v>60</v>
       </c>
       <c r="G621" s="4" t="n">
-        <v>26174.75972</v>
+        <v>28792.24</v>
       </c>
       <c r="H621" s="5" t="s">
         <v>14</v>
@@ -20139,7 +20134,7 @@
         <v>65</v>
       </c>
       <c r="G622" s="4" t="n">
-        <v>34537.18907</v>
+        <v>37990.91</v>
       </c>
       <c r="H622" s="5" t="s">
         <v>14</v>
@@ -20171,7 +20166,7 @@
         <v>70</v>
       </c>
       <c r="G623" s="4" t="n">
-        <v>47921.70813</v>
+        <v>52713.88</v>
       </c>
       <c r="H623" s="5" t="s">
         <v>14</v>
@@ -20203,7 +20198,7 @@
         <v>75</v>
       </c>
       <c r="G624" s="4" t="n">
-        <v>71107.72722</v>
+        <v>78218.5</v>
       </c>
       <c r="H624" s="5" t="s">
         <v>14</v>
@@ -20235,7 +20230,7 @@
         <v>80</v>
       </c>
       <c r="G625" s="4" t="n">
-        <v>112041.8633</v>
+        <v>123246.05</v>
       </c>
       <c r="H625" s="5" t="s">
         <v>14</v>
@@ -20267,7 +20262,7 @@
         <v>17</v>
       </c>
       <c r="G626" s="4" t="n">
-        <v>1249.804133</v>
+        <v>1374.78</v>
       </c>
       <c r="H626" s="5" t="s">
         <v>14</v>
@@ -20299,7 +20294,7 @@
         <v>25</v>
       </c>
       <c r="G627" s="4" t="n">
-        <v>1293.088417</v>
+        <v>1422.4</v>
       </c>
       <c r="H627" s="5" t="s">
         <v>14</v>
@@ -20331,7 +20326,7 @@
         <v>30</v>
       </c>
       <c r="G628" s="4" t="n">
-        <v>1603.555695</v>
+        <v>1763.91</v>
       </c>
       <c r="H628" s="5" t="s">
         <v>14</v>
@@ -20363,7 +20358,7 @@
         <v>35</v>
       </c>
       <c r="G629" s="4" t="n">
-        <v>2031.851081</v>
+        <v>2235.04</v>
       </c>
       <c r="H629" s="5" t="s">
         <v>14</v>
@@ -20395,7 +20390,7 @@
         <v>40</v>
       </c>
       <c r="G630" s="4" t="n">
-        <v>2364.264478</v>
+        <v>2600.69</v>
       </c>
       <c r="H630" s="5" t="s">
         <v>14</v>
@@ -20427,7 +20422,7 @@
         <v>45</v>
       </c>
       <c r="G631" s="4" t="n">
-        <v>2778.439183</v>
+        <v>3056.28</v>
       </c>
       <c r="H631" s="5" t="s">
         <v>14</v>
@@ -20459,7 +20454,7 @@
         <v>50</v>
       </c>
       <c r="G632" s="4" t="n">
-        <v>3368.111643</v>
+        <v>3704.92</v>
       </c>
       <c r="H632" s="5" t="s">
         <v>14</v>
@@ -20491,7 +20486,7 @@
         <v>55</v>
       </c>
       <c r="G633" s="4" t="n">
-        <v>4263.356668</v>
+        <v>4689.69</v>
       </c>
       <c r="H633" s="5" t="s">
         <v>14</v>
@@ -20523,7 +20518,7 @@
         <v>60</v>
       </c>
       <c r="G634" s="4" t="n">
-        <v>5539.122121</v>
+        <v>6093.03</v>
       </c>
       <c r="H634" s="5" t="s">
         <v>14</v>
@@ -20555,7 +20550,7 @@
         <v>65</v>
       </c>
       <c r="G635" s="4" t="n">
-        <v>7259.826004</v>
+        <v>7985.81</v>
       </c>
       <c r="H635" s="5" t="s">
         <v>14</v>
@@ -20587,7 +20582,7 @@
         <v>70</v>
       </c>
       <c r="G636" s="4" t="n">
-        <v>10398.13882</v>
+        <v>11437.95</v>
       </c>
       <c r="H636" s="5" t="s">
         <v>14</v>
@@ -20619,7 +20614,7 @@
         <v>75</v>
       </c>
       <c r="G637" s="4" t="n">
-        <v>16998.5062</v>
+        <v>18698.36</v>
       </c>
       <c r="H637" s="5" t="s">
         <v>14</v>
@@ -20651,7 +20646,7 @@
         <v>80</v>
       </c>
       <c r="G638" s="4" t="n">
-        <v>28572.68645</v>
+        <v>31429.96</v>
       </c>
       <c r="H638" s="5" t="s">
         <v>14</v>
@@ -20683,7 +20678,7 @@
         <v>17</v>
       </c>
       <c r="G639" s="4" t="n">
-        <v>1249.804133</v>
+        <v>1374.78</v>
       </c>
       <c r="H639" s="5" t="s">
         <v>14</v>
@@ -20715,7 +20710,7 @@
         <v>25</v>
       </c>
       <c r="G640" s="4" t="n">
-        <v>1620.787085</v>
+        <v>1782.87</v>
       </c>
       <c r="H640" s="5" t="s">
         <v>14</v>
@@ -20747,7 +20742,7 @@
         <v>30</v>
       </c>
       <c r="G641" s="4" t="n">
-        <v>2176.831413</v>
+        <v>2394.51</v>
       </c>
       <c r="H641" s="5" t="s">
         <v>14</v>
@@ -20779,7 +20774,7 @@
         <v>35</v>
       </c>
       <c r="G642" s="4" t="n">
-        <v>2557.145687</v>
+        <v>2812.86</v>
       </c>
       <c r="H642" s="5" t="s">
         <v>14</v>
@@ -20811,7 +20806,7 @@
         <v>40</v>
       </c>
       <c r="G643" s="4" t="n">
-        <v>2843.389461</v>
+        <v>3127.73</v>
       </c>
       <c r="H643" s="5" t="s">
         <v>14</v>
@@ -20843,7 +20838,7 @@
         <v>45</v>
       </c>
       <c r="G644" s="4" t="n">
-        <v>2987.463763</v>
+        <v>3286.21</v>
       </c>
       <c r="H644" s="5" t="s">
         <v>14</v>
@@ -20875,7 +20870,7 @@
         <v>50</v>
       </c>
       <c r="G645" s="4" t="n">
-        <v>3092.921996</v>
+        <v>3402.21</v>
       </c>
       <c r="H645" s="5" t="s">
         <v>14</v>
@@ -20907,7 +20902,7 @@
         <v>55</v>
       </c>
       <c r="G646" s="4" t="n">
-        <v>3926.37105</v>
+        <v>4319.01</v>
       </c>
       <c r="H646" s="5" t="s">
         <v>14</v>
@@ -20939,7 +20934,7 @@
         <v>60</v>
       </c>
       <c r="G647" s="4" t="n">
-        <v>5107.364724</v>
+        <v>5618.1</v>
       </c>
       <c r="H647" s="5" t="s">
         <v>14</v>
@@ -20971,7 +20966,7 @@
         <v>65</v>
       </c>
       <c r="G648" s="4" t="n">
-        <v>6704.996342</v>
+        <v>7375.5</v>
       </c>
       <c r="H648" s="5" t="s">
         <v>14</v>
@@ -21003,7 +20998,7 @@
         <v>70</v>
       </c>
       <c r="G649" s="4" t="n">
-        <v>9122.223717</v>
+        <v>10034.45</v>
       </c>
       <c r="H649" s="5" t="s">
         <v>14</v>
@@ -21035,7 +21030,7 @@
         <v>75</v>
       </c>
       <c r="G650" s="4" t="n">
-        <v>13604.45836</v>
+        <v>14964.9</v>
       </c>
       <c r="H650" s="5" t="s">
         <v>14</v>
@@ -21067,7 +21062,7 @@
         <v>80</v>
       </c>
       <c r="G651" s="4" t="n">
-        <v>22479.74703</v>
+        <v>24727.72</v>
       </c>
       <c r="H651" s="5" t="s">
         <v>14</v>
@@ -21099,7 +21094,7 @@
         <v>17</v>
       </c>
       <c r="G652" s="4" t="n">
-        <v>1962.026429</v>
+        <v>2158.23</v>
       </c>
       <c r="H652" s="5" t="s">
         <v>14</v>
@@ -21131,7 +21126,7 @@
         <v>25</v>
       </c>
       <c r="G653" s="4" t="n">
-        <v>2037.38727</v>
+        <v>2241.13</v>
       </c>
       <c r="H653" s="5" t="s">
         <v>14</v>
@@ -21163,7 +21158,7 @@
         <v>30</v>
       </c>
       <c r="G654" s="4" t="n">
-        <v>2534.096291</v>
+        <v>2787.51</v>
       </c>
       <c r="H654" s="5" t="s">
         <v>14</v>
@@ -21195,7 +21190,7 @@
         <v>35</v>
       </c>
       <c r="G655" s="4" t="n">
-        <v>3187.911926</v>
+        <v>3506.7</v>
       </c>
       <c r="H655" s="5" t="s">
         <v>14</v>
@@ -21227,7 +21222,7 @@
         <v>40</v>
       </c>
       <c r="G656" s="4" t="n">
-        <v>3650.764506</v>
+        <v>4015.84</v>
       </c>
       <c r="H656" s="5" t="s">
         <v>14</v>
@@ -21259,7 +21254,7 @@
         <v>45</v>
       </c>
       <c r="G657" s="4" t="n">
-        <v>4167.143756</v>
+        <v>4583.86</v>
       </c>
       <c r="H657" s="5" t="s">
         <v>14</v>
@@ -21291,7 +21286,7 @@
         <v>50</v>
       </c>
       <c r="G658" s="4" t="n">
-        <v>4912.40875</v>
+        <v>5403.65</v>
       </c>
       <c r="H658" s="5" t="s">
         <v>14</v>
@@ -21323,7 +21318,7 @@
         <v>55</v>
       </c>
       <c r="G659" s="4" t="n">
-        <v>6196.521753</v>
+        <v>6816.17</v>
       </c>
       <c r="H659" s="5" t="s">
         <v>14</v>
@@ -21355,7 +21350,7 @@
         <v>60</v>
       </c>
       <c r="G660" s="4" t="n">
-        <v>8047.801</v>
+        <v>8852.58</v>
       </c>
       <c r="H660" s="5" t="s">
         <v>14</v>
@@ -21387,7 +21382,7 @@
         <v>65</v>
       </c>
       <c r="G661" s="4" t="n">
-        <v>10559.74827</v>
+        <v>11615.72</v>
       </c>
       <c r="H661" s="5" t="s">
         <v>14</v>
@@ -21419,7 +21414,7 @@
         <v>70</v>
       </c>
       <c r="G662" s="4" t="n">
-        <v>14983.13096</v>
+        <v>16481.44</v>
       </c>
       <c r="H662" s="5" t="s">
         <v>14</v>
@@ -21451,7 +21446,7 @@
         <v>75</v>
       </c>
       <c r="G663" s="4" t="n">
-        <v>23712.82304</v>
+        <v>26084.11</v>
       </c>
       <c r="H663" s="5" t="s">
         <v>14</v>
@@ -21483,7 +21478,7 @@
         <v>80</v>
       </c>
       <c r="G664" s="4" t="n">
-        <v>38593.38704</v>
+        <v>42452.73</v>
       </c>
       <c r="H664" s="5" t="s">
         <v>14</v>
@@ -21515,7 +21510,7 @@
         <v>17</v>
       </c>
       <c r="G665" s="4" t="n">
-        <v>1962.026429</v>
+        <v>2158.23</v>
       </c>
       <c r="H665" s="5" t="s">
         <v>14</v>
@@ -21547,7 +21542,7 @@
         <v>25</v>
       </c>
       <c r="G666" s="4" t="n">
-        <v>2352.282803</v>
+        <v>2587.51</v>
       </c>
       <c r="H666" s="5" t="s">
         <v>14</v>
@@ -21579,7 +21574,7 @@
         <v>30</v>
       </c>
       <c r="G667" s="4" t="n">
-        <v>3087.672488</v>
+        <v>3396.44</v>
       </c>
       <c r="H667" s="5" t="s">
         <v>14</v>
@@ -21611,7 +21606,7 @@
         <v>35</v>
       </c>
       <c r="G668" s="4" t="n">
-        <v>3564.862356</v>
+        <v>3921.35</v>
       </c>
       <c r="H668" s="5" t="s">
         <v>14</v>
@@ -21643,7 +21638,7 @@
         <v>40</v>
       </c>
       <c r="G669" s="4" t="n">
-        <v>3962.656664</v>
+        <v>4358.92</v>
       </c>
       <c r="H669" s="5" t="s">
         <v>14</v>
@@ -21675,7 +21670,7 @@
         <v>45</v>
       </c>
       <c r="G670" s="4" t="n">
-        <v>4227.215935</v>
+        <v>4649.94</v>
       </c>
       <c r="H670" s="5" t="s">
         <v>14</v>
@@ -21707,7 +21702,7 @@
         <v>50</v>
       </c>
       <c r="G671" s="4" t="n">
-        <v>4487.779893</v>
+        <v>4936.56</v>
       </c>
       <c r="H671" s="5" t="s">
         <v>14</v>
@@ -21739,7 +21734,7 @@
         <v>55</v>
       </c>
       <c r="G672" s="4" t="n">
-        <v>5672.129934</v>
+        <v>6239.34</v>
       </c>
       <c r="H672" s="5" t="s">
         <v>14</v>
@@ -21771,7 +21766,7 @@
         <v>60</v>
       </c>
       <c r="G673" s="4" t="n">
-        <v>7398.279297</v>
+        <v>8138.11</v>
       </c>
       <c r="H673" s="5" t="s">
         <v>14</v>
@@ -21803,7 +21798,7 @@
         <v>65</v>
       </c>
       <c r="G674" s="4" t="n">
-        <v>9731.54268</v>
+        <v>10704.7</v>
       </c>
       <c r="H674" s="5" t="s">
         <v>14</v>
@@ -21835,7 +21830,7 @@
         <v>70</v>
       </c>
       <c r="G675" s="4" t="n">
-        <v>13401.15175</v>
+        <v>14741.27</v>
       </c>
       <c r="H675" s="5" t="s">
         <v>14</v>
@@ -21867,7 +21862,7 @@
         <v>75</v>
       </c>
       <c r="G676" s="4" t="n">
-        <v>19898.40088</v>
+        <v>21888.24</v>
       </c>
       <c r="H676" s="5" t="s">
         <v>14</v>
@@ -21899,7 +21894,7 @@
         <v>80</v>
       </c>
       <c r="G677" s="4" t="n">
-        <v>31836.22544</v>
+        <v>35019.85</v>
       </c>
       <c r="H677" s="5" t="s">
         <v>14</v>
@@ -21931,7 +21926,7 @@
         <v>17</v>
       </c>
       <c r="G678" s="4" t="n">
-        <v>4134.053851</v>
+        <v>4547.46</v>
       </c>
       <c r="H678" s="5" t="s">
         <v>14</v>
@@ -21963,7 +21958,7 @@
         <v>25</v>
       </c>
       <c r="G679" s="4" t="n">
-        <v>4292.841608</v>
+        <v>4722.13</v>
       </c>
       <c r="H679" s="5" t="s">
         <v>14</v>
@@ -21995,7 +21990,7 @@
         <v>30</v>
       </c>
       <c r="G680" s="4" t="n">
-        <v>5339.423759</v>
+        <v>5873.37</v>
       </c>
       <c r="H680" s="5" t="s">
         <v>14</v>
@@ -22027,7 +22022,7 @@
         <v>35</v>
       </c>
       <c r="G681" s="4" t="n">
-        <v>6717.034686</v>
+        <v>7388.74</v>
       </c>
       <c r="H681" s="5" t="s">
         <v>14</v>
@@ -22059,7 +22054,7 @@
         <v>40</v>
       </c>
       <c r="G682" s="4" t="n">
-        <v>7692.280208</v>
+        <v>8461.51</v>
       </c>
       <c r="H682" s="5" t="s">
         <v>14</v>
@@ -22091,7 +22086,7 @@
         <v>45</v>
       </c>
       <c r="G683" s="4" t="n">
-        <v>8780.308176</v>
+        <v>9658.34</v>
       </c>
       <c r="H683" s="5" t="s">
         <v>14</v>
@@ -22123,7 +22118,7 @@
         <v>50</v>
       </c>
       <c r="G684" s="4" t="n">
-        <v>10350.60589</v>
+        <v>11385.67</v>
       </c>
       <c r="H684" s="5" t="s">
         <v>14</v>
@@ -22155,7 +22150,7 @@
         <v>55</v>
       </c>
       <c r="G685" s="4" t="n">
-        <v>13056.27399</v>
+        <v>14361.9</v>
       </c>
       <c r="H685" s="5" t="s">
         <v>14</v>
@@ -22187,7 +22182,7 @@
         <v>60</v>
       </c>
       <c r="G686" s="4" t="n">
-        <v>16956.9799</v>
+        <v>18652.68</v>
       </c>
       <c r="H686" s="5" t="s">
         <v>14</v>
@@ -22219,7 +22214,7 @@
         <v>65</v>
       </c>
       <c r="G687" s="4" t="n">
-        <v>22249.73495</v>
+        <v>24474.71</v>
       </c>
       <c r="H687" s="5" t="s">
         <v>14</v>
@@ -22251,7 +22246,7 @@
         <v>70</v>
       </c>
       <c r="G688" s="4" t="n">
-        <v>31569.94695</v>
+        <v>34726.94</v>
       </c>
       <c r="H688" s="5" t="s">
         <v>14</v>
@@ -22283,7 +22278,7 @@
         <v>75</v>
       </c>
       <c r="G689" s="4" t="n">
-        <v>49963.69364</v>
+        <v>54960.06</v>
       </c>
       <c r="H689" s="5" t="s">
         <v>14</v>
@@ -22315,7 +22310,7 @@
         <v>80</v>
       </c>
       <c r="G690" s="4" t="n">
-        <v>81317.52865</v>
+        <v>89449.28</v>
       </c>
       <c r="H690" s="5" t="s">
         <v>14</v>
@@ -22347,7 +22342,7 @@
         <v>17</v>
       </c>
       <c r="G691" s="4" t="n">
-        <v>4134.053851</v>
+        <v>4547.46</v>
       </c>
       <c r="H691" s="5" t="s">
         <v>14</v>
@@ -22379,7 +22374,7 @@
         <v>25</v>
       </c>
       <c r="G692" s="4" t="n">
-        <v>4956.336795</v>
+        <v>5451.97</v>
       </c>
       <c r="H692" s="5" t="s">
         <v>14</v>
@@ -22411,7 +22406,7 @@
         <v>30</v>
       </c>
       <c r="G693" s="4" t="n">
-        <v>6505.826912</v>
+        <v>7156.41</v>
       </c>
       <c r="H693" s="5" t="s">
         <v>14</v>
@@ -22443,7 +22438,7 @@
         <v>35</v>
       </c>
       <c r="G694" s="4" t="n">
-        <v>7511.281568</v>
+        <v>8262.41</v>
       </c>
       <c r="H694" s="5" t="s">
         <v>14</v>
@@ -22475,7 +22470,7 @@
         <v>40</v>
       </c>
       <c r="G695" s="4" t="n">
-        <v>8349.447185</v>
+        <v>9184.39</v>
       </c>
       <c r="H695" s="5" t="s">
         <v>14</v>
@@ -22507,7 +22502,7 @@
         <v>45</v>
       </c>
       <c r="G696" s="4" t="n">
-        <v>8906.882222</v>
+        <v>9797.57</v>
       </c>
       <c r="H696" s="5" t="s">
         <v>14</v>
@@ -22539,7 +22534,7 @@
         <v>50</v>
       </c>
       <c r="G697" s="4" t="n">
-        <v>9455.899002</v>
+        <v>10401.49</v>
       </c>
       <c r="H697" s="5" t="s">
         <v>14</v>
@@ -22571,7 +22566,7 @@
         <v>55</v>
       </c>
       <c r="G698" s="4" t="n">
-        <v>11951.36327</v>
+        <v>13146.5</v>
       </c>
       <c r="H698" s="5" t="s">
         <v>14</v>
@@ -22603,7 +22598,7 @@
         <v>60</v>
       </c>
       <c r="G699" s="4" t="n">
-        <v>15588.41643</v>
+        <v>17147.26</v>
       </c>
       <c r="H699" s="5" t="s">
         <v>14</v>
@@ -22635,7 +22630,7 @@
         <v>65</v>
       </c>
       <c r="G700" s="4" t="n">
-        <v>20504.67869</v>
+        <v>22555.15</v>
       </c>
       <c r="H700" s="5" t="s">
         <v>14</v>
@@ -22667,7 +22662,7 @@
         <v>70</v>
       </c>
       <c r="G701" s="4" t="n">
-        <v>28236.665</v>
+        <v>31060.33</v>
       </c>
       <c r="H701" s="5" t="s">
         <v>14</v>
@@ -22699,7 +22694,7 @@
         <v>75</v>
       </c>
       <c r="G702" s="4" t="n">
-        <v>41926.58141</v>
+        <v>46119.24</v>
       </c>
       <c r="H702" s="5" t="s">
         <v>14</v>
@@ -22731,7 +22726,7 @@
         <v>80</v>
       </c>
       <c r="G703" s="4" t="n">
-        <v>67079.96817</v>
+        <v>73787.96</v>
       </c>
       <c r="H703" s="5" t="s">
         <v>14</v>
@@ -22763,7 +22758,7 @@
         <v>17</v>
       </c>
       <c r="G704" s="4" t="n">
-        <v>1955.974157</v>
+        <v>2151.57</v>
       </c>
       <c r="H704" s="5" t="s">
         <v>14</v>
@@ -22795,7 +22790,7 @@
         <v>25</v>
       </c>
       <c r="G705" s="4" t="n">
-        <v>2017.857904</v>
+        <v>2219.64</v>
       </c>
       <c r="H705" s="5" t="s">
         <v>14</v>
@@ -22827,7 +22822,7 @@
         <v>30</v>
       </c>
       <c r="G706" s="4" t="n">
-        <v>2385.045406</v>
+        <v>2623.55</v>
       </c>
       <c r="H706" s="5" t="s">
         <v>14</v>
@@ -22859,7 +22854,7 @@
         <v>35</v>
       </c>
       <c r="G707" s="4" t="n">
-        <v>2719.271672</v>
+        <v>2991.2</v>
       </c>
       <c r="H707" s="5" t="s">
         <v>14</v>
@@ -22891,7 +22886,7 @@
         <v>40</v>
       </c>
       <c r="G708" s="4" t="n">
-        <v>3098.890509</v>
+        <v>3408.78</v>
       </c>
       <c r="H708" s="5" t="s">
         <v>14</v>
@@ -22923,7 +22918,7 @@
         <v>45</v>
       </c>
       <c r="G709" s="4" t="n">
-        <v>3517.775893</v>
+        <v>3869.55</v>
       </c>
       <c r="H709" s="5" t="s">
         <v>14</v>
@@ -22955,7 +22950,7 @@
         <v>50</v>
       </c>
       <c r="G710" s="4" t="n">
-        <v>4145.678846</v>
+        <v>4560.25</v>
       </c>
       <c r="H710" s="5" t="s">
         <v>14</v>
@@ -22987,7 +22982,7 @@
         <v>55</v>
       </c>
       <c r="G711" s="4" t="n">
-        <v>5247.601452</v>
+        <v>5772.36</v>
       </c>
       <c r="H711" s="5" t="s">
         <v>14</v>
@@ -23019,7 +23014,7 @@
         <v>60</v>
       </c>
       <c r="G712" s="4" t="n">
-        <v>6817.891993</v>
+        <v>7499.68</v>
       </c>
       <c r="H712" s="5" t="s">
         <v>14</v>
@@ -23051,7 +23046,7 @@
         <v>65</v>
       </c>
       <c r="G713" s="4" t="n">
-        <v>8935.840102</v>
+        <v>9829.42</v>
       </c>
       <c r="H713" s="5" t="s">
         <v>14</v>
@@ -23083,7 +23078,7 @@
         <v>70</v>
       </c>
       <c r="G714" s="4" t="n">
-        <v>12798.66843</v>
+        <v>14078.54</v>
       </c>
       <c r="H714" s="5" t="s">
         <v>14</v>
@@ -23115,7 +23110,7 @@
         <v>75</v>
       </c>
       <c r="G715" s="4" t="n">
-        <v>20922.80631</v>
+        <v>23015.09</v>
       </c>
       <c r="H715" s="5" t="s">
         <v>14</v>
@@ -23147,7 +23142,7 @@
         <v>80</v>
       </c>
       <c r="G716" s="4" t="n">
-        <v>35169.01883</v>
+        <v>38685.92</v>
       </c>
       <c r="H716" s="5" t="s">
         <v>14</v>
@@ -23179,7 +23174,7 @@
         <v>17</v>
       </c>
       <c r="G717" s="4" t="n">
-        <v>1955.974157</v>
+        <v>2151.57</v>
       </c>
       <c r="H717" s="5" t="s">
         <v>14</v>
@@ -23211,7 +23206,7 @@
         <v>25</v>
       </c>
       <c r="G718" s="4" t="n">
-        <v>2246.213136</v>
+        <v>2470.83</v>
       </c>
       <c r="H718" s="5" t="s">
         <v>14</v>
@@ -23243,7 +23238,7 @@
         <v>30</v>
       </c>
       <c r="G719" s="4" t="n">
-        <v>2843.427675</v>
+        <v>3127.77</v>
       </c>
       <c r="H719" s="5" t="s">
         <v>14</v>
@@ -23275,7 +23270,7 @@
         <v>35</v>
       </c>
       <c r="G720" s="4" t="n">
-        <v>3197.853842</v>
+        <v>3517.64</v>
       </c>
       <c r="H720" s="5" t="s">
         <v>14</v>
@@ -23307,7 +23302,7 @@
         <v>40</v>
       </c>
       <c r="G721" s="4" t="n">
-        <v>3552.365199</v>
+        <v>3907.6</v>
       </c>
       <c r="H721" s="5" t="s">
         <v>14</v>
@@ -23339,7 +23334,7 @@
         <v>45</v>
       </c>
       <c r="G722" s="4" t="n">
-        <v>3816.698971</v>
+        <v>4198.37</v>
       </c>
       <c r="H722" s="5" t="s">
         <v>14</v>
@@ -23371,7 +23366,7 @@
         <v>50</v>
       </c>
       <c r="G723" s="4" t="n">
-        <v>4110.273206</v>
+        <v>4521.3</v>
       </c>
       <c r="H723" s="5" t="s">
         <v>14</v>
@@ -23403,7 +23398,7 @@
         <v>55</v>
       </c>
       <c r="G724" s="4" t="n">
-        <v>5161.058434</v>
+        <v>5677.16</v>
       </c>
       <c r="H724" s="5" t="s">
         <v>14</v>
@@ -23435,7 +23430,7 @@
         <v>60</v>
       </c>
       <c r="G725" s="4" t="n">
-        <v>6724.487434</v>
+        <v>7396.94</v>
       </c>
       <c r="H725" s="5" t="s">
         <v>14</v>
@@ -23467,7 +23462,7 @@
         <v>65</v>
       </c>
       <c r="G726" s="4" t="n">
-        <v>8850.853802</v>
+        <v>9735.94</v>
       </c>
       <c r="H726" s="5" t="s">
         <v>14</v>
@@ -23499,7 +23494,7 @@
         <v>70</v>
       </c>
       <c r="G727" s="4" t="n">
-        <v>12205.43652</v>
+        <v>13425.98</v>
       </c>
       <c r="H727" s="5" t="s">
         <v>14</v>
@@ -23531,7 +23526,7 @@
         <v>75</v>
       </c>
       <c r="G728" s="4" t="n">
-        <v>18109.67052</v>
+        <v>19920.64</v>
       </c>
       <c r="H728" s="5" t="s">
         <v>14</v>
@@ -23563,7 +23558,7 @@
         <v>80</v>
       </c>
       <c r="G729" s="4" t="n">
-        <v>28789.69064</v>
+        <v>31668.66</v>
       </c>
       <c r="H729" s="5" t="s">
         <v>14</v>
@@ -23595,7 +23590,7 @@
         <v>17</v>
       </c>
       <c r="G730" s="4" t="n">
-        <v>3070.619538</v>
+        <v>3377.68</v>
       </c>
       <c r="H730" s="5" t="s">
         <v>14</v>
@@ -23627,7 +23622,7 @@
         <v>25</v>
       </c>
       <c r="G731" s="4" t="n">
-        <v>3179.279134</v>
+        <v>3497.21</v>
       </c>
       <c r="H731" s="5" t="s">
         <v>14</v>
@@ -23659,7 +23654,7 @@
         <v>30</v>
       </c>
       <c r="G732" s="4" t="n">
-        <v>3769.448928</v>
+        <v>4146.39</v>
       </c>
       <c r="H732" s="5" t="s">
         <v>14</v>
@@ -23691,7 +23686,7 @@
         <v>35</v>
       </c>
       <c r="G733" s="4" t="n">
-        <v>4266.535165</v>
+        <v>4693.19</v>
       </c>
       <c r="H733" s="5" t="s">
         <v>14</v>
@@ -23723,7 +23718,7 @@
         <v>40</v>
       </c>
       <c r="G734" s="4" t="n">
-        <v>4785.334061</v>
+        <v>5263.87</v>
       </c>
       <c r="H734" s="5" t="s">
         <v>14</v>
@@ -23755,7 +23750,7 @@
         <v>45</v>
       </c>
       <c r="G735" s="4" t="n">
-        <v>5276.695403</v>
+        <v>5804.36</v>
       </c>
       <c r="H735" s="5" t="s">
         <v>14</v>
@@ -23787,7 +23782,7 @@
         <v>50</v>
       </c>
       <c r="G736" s="4" t="n">
-        <v>6046.494652</v>
+        <v>6651.14</v>
       </c>
       <c r="H736" s="5" t="s">
         <v>14</v>
@@ -23819,7 +23814,7 @@
         <v>55</v>
       </c>
       <c r="G737" s="4" t="n">
-        <v>7627.05987</v>
+        <v>8389.77</v>
       </c>
       <c r="H737" s="5" t="s">
         <v>14</v>
@@ -23851,7 +23846,7 @@
         <v>60</v>
       </c>
       <c r="G738" s="4" t="n">
-        <v>9905.728164</v>
+        <v>10896.3</v>
       </c>
       <c r="H738" s="5" t="s">
         <v>14</v>
@@ -23883,7 +23878,7 @@
         <v>65</v>
       </c>
       <c r="G739" s="4" t="n">
-        <v>12997.58727</v>
+        <v>14297.35</v>
       </c>
       <c r="H739" s="5" t="s">
         <v>14</v>
@@ -23915,7 +23910,7 @@
         <v>70</v>
       </c>
       <c r="G740" s="4" t="n">
-        <v>18442.15859</v>
+        <v>20286.37</v>
       </c>
       <c r="H740" s="5" t="s">
         <v>14</v>
@@ -23947,7 +23942,7 @@
         <v>75</v>
       </c>
       <c r="G741" s="4" t="n">
-        <v>29187.2002</v>
+        <v>32105.92</v>
       </c>
       <c r="H741" s="5" t="s">
         <v>14</v>
@@ -23979,7 +23974,7 @@
         <v>80</v>
       </c>
       <c r="G742" s="4" t="n">
-        <v>47503.11308</v>
+        <v>52253.42</v>
       </c>
       <c r="H742" s="5" t="s">
         <v>14</v>
@@ -24011,7 +24006,7 @@
         <v>17</v>
       </c>
       <c r="G743" s="4" t="n">
-        <v>3070.619538</v>
+        <v>3377.68</v>
       </c>
       <c r="H743" s="5" t="s">
         <v>14</v>
@@ -24043,7 +24038,7 @@
         <v>25</v>
       </c>
       <c r="G744" s="4" t="n">
-        <v>3273.757013</v>
+        <v>3601.13</v>
       </c>
       <c r="H744" s="5" t="s">
         <v>14</v>
@@ -24075,7 +24070,7 @@
         <v>30</v>
       </c>
       <c r="G745" s="4" t="n">
-        <v>4033.668632</v>
+        <v>4437.04</v>
       </c>
       <c r="H745" s="5" t="s">
         <v>14</v>
@@ -24107,7 +24102,7 @@
         <v>35</v>
       </c>
       <c r="G746" s="4" t="n">
-        <v>4458.098287</v>
+        <v>4903.91</v>
       </c>
       <c r="H746" s="5" t="s">
         <v>14</v>
@@ -24139,7 +24134,7 @@
         <v>40</v>
       </c>
       <c r="G747" s="4" t="n">
-        <v>4950.723009</v>
+        <v>5445.8</v>
       </c>
       <c r="H747" s="5" t="s">
         <v>14</v>
@@ -24171,7 +24166,7 @@
         <v>45</v>
       </c>
       <c r="G748" s="4" t="n">
-        <v>5403.347786</v>
+        <v>5943.68</v>
       </c>
       <c r="H748" s="5" t="s">
         <v>14</v>
@@ -24203,7 +24198,7 @@
         <v>50</v>
       </c>
       <c r="G749" s="4" t="n">
-        <v>5964.188591</v>
+        <v>6560.61</v>
       </c>
       <c r="H749" s="5" t="s">
         <v>14</v>
@@ -24235,7 +24230,7 @@
         <v>55</v>
       </c>
       <c r="G750" s="4" t="n">
-        <v>7455.795742</v>
+        <v>8201.38</v>
       </c>
       <c r="H750" s="5" t="s">
         <v>14</v>
@@ -24267,7 +24262,7 @@
         <v>60</v>
       </c>
       <c r="G751" s="4" t="n">
-        <v>9740.764963</v>
+        <v>10714.84</v>
       </c>
       <c r="H751" s="5" t="s">
         <v>14</v>
@@ -24299,7 +24294,7 @@
         <v>65</v>
       </c>
       <c r="G752" s="4" t="n">
-        <v>12846.08068</v>
+        <v>14130.69</v>
       </c>
       <c r="H752" s="5" t="s">
         <v>14</v>
@@ -24331,7 +24326,7 @@
         <v>70</v>
       </c>
       <c r="G753" s="4" t="n">
-        <v>17930.95176</v>
+        <v>19724.05</v>
       </c>
       <c r="H753" s="5" t="s">
         <v>14</v>
@@ -24363,7 +24358,7 @@
         <v>75</v>
       </c>
       <c r="G754" s="4" t="n">
-        <v>26489.69205</v>
+        <v>29138.66</v>
       </c>
       <c r="H754" s="5" t="s">
         <v>14</v>
@@ -24395,7 +24390,7 @@
         <v>80</v>
       </c>
       <c r="G755" s="4" t="n">
-        <v>40776.99811</v>
+        <v>44854.7</v>
       </c>
       <c r="H755" s="5" t="s">
         <v>14</v>
@@ -24427,7 +24422,7 @@
         <v>17</v>
       </c>
       <c r="G756" s="4" t="n">
-        <v>6469.895789</v>
+        <v>7116.89</v>
       </c>
       <c r="H756" s="5" t="s">
         <v>14</v>
@@ -24459,7 +24454,7 @@
         <v>25</v>
       </c>
       <c r="G757" s="4" t="n">
-        <v>6698.84511</v>
+        <v>7368.73</v>
       </c>
       <c r="H757" s="5" t="s">
         <v>14</v>
@@ -24491,7 +24486,7 @@
         <v>30</v>
       </c>
       <c r="G758" s="4" t="n">
-        <v>7942.352168</v>
+        <v>8736.59</v>
       </c>
       <c r="H758" s="5" t="s">
         <v>14</v>
@@ -24523,7 +24518,7 @@
         <v>35</v>
       </c>
       <c r="G759" s="4" t="n">
-        <v>8989.729124</v>
+        <v>9888.7</v>
       </c>
       <c r="H759" s="5" t="s">
         <v>14</v>
@@ -24555,7 +24550,7 @@
         <v>40</v>
       </c>
       <c r="G760" s="4" t="n">
-        <v>10082.85537</v>
+        <v>11091.14</v>
       </c>
       <c r="H760" s="5" t="s">
         <v>14</v>
@@ -24587,7 +24582,7 @@
         <v>45</v>
       </c>
       <c r="G761" s="4" t="n">
-        <v>11118.16978</v>
+        <v>12229.99</v>
       </c>
       <c r="H761" s="5" t="s">
         <v>14</v>
@@ -24619,7 +24614,7 @@
         <v>50</v>
       </c>
       <c r="G762" s="4" t="n">
-        <v>12740.16198</v>
+        <v>14014.18</v>
       </c>
       <c r="H762" s="5" t="s">
         <v>14</v>
@@ -24651,7 +24646,7 @@
         <v>55</v>
       </c>
       <c r="G763" s="4" t="n">
-        <v>16070.46458</v>
+        <v>17677.51</v>
       </c>
       <c r="H763" s="5" t="s">
         <v>14</v>
@@ -24683,7 +24678,7 @@
         <v>60</v>
       </c>
       <c r="G764" s="4" t="n">
-        <v>20871.6932</v>
+        <v>22958.86</v>
       </c>
       <c r="H764" s="5" t="s">
         <v>14</v>
@@ -24715,7 +24710,7 @@
         <v>65</v>
       </c>
       <c r="G765" s="4" t="n">
-        <v>27386.34145</v>
+        <v>30124.98</v>
       </c>
       <c r="H765" s="5" t="s">
         <v>14</v>
@@ -24747,7 +24742,7 @@
         <v>70</v>
       </c>
       <c r="G766" s="4" t="n">
-        <v>38858.23128</v>
+        <v>42744.05</v>
       </c>
       <c r="H766" s="5" t="s">
         <v>14</v>
@@ -24779,7 +24774,7 @@
         <v>75</v>
       </c>
       <c r="G767" s="4" t="n">
-        <v>61498.38536</v>
+        <v>67648.22</v>
       </c>
       <c r="H767" s="5" t="s">
         <v>14</v>
@@ -24811,7 +24806,7 @@
         <v>80</v>
       </c>
       <c r="G768" s="4" t="n">
-        <v>100090.6128</v>
+        <v>110099.67</v>
       </c>
       <c r="H768" s="5" t="s">
         <v>14</v>
@@ -24843,7 +24838,7 @@
         <v>17</v>
       </c>
       <c r="G769" s="4" t="n">
-        <v>6469.895789</v>
+        <v>7116.89</v>
       </c>
       <c r="H769" s="5" t="s">
         <v>14</v>
@@ -24875,7 +24870,7 @@
         <v>25</v>
       </c>
       <c r="G770" s="4" t="n">
-        <v>6897.913091</v>
+        <v>7587.7</v>
       </c>
       <c r="H770" s="5" t="s">
         <v>14</v>
@@ -24907,7 +24902,7 @@
         <v>30</v>
       </c>
       <c r="G771" s="4" t="n">
-        <v>8499.071725</v>
+        <v>9348.98</v>
       </c>
       <c r="H771" s="5" t="s">
         <v>14</v>
@@ -24939,7 +24934,7 @@
         <v>35</v>
       </c>
       <c r="G772" s="4" t="n">
-        <v>9393.358888</v>
+        <v>10332.69</v>
       </c>
       <c r="H772" s="5" t="s">
         <v>14</v>
@@ -24971,7 +24966,7 @@
         <v>40</v>
       </c>
       <c r="G773" s="4" t="n">
-        <v>10431.33529</v>
+        <v>11474.47</v>
       </c>
       <c r="H773" s="5" t="s">
         <v>14</v>
@@ -25003,7 +24998,7 @@
         <v>45</v>
       </c>
       <c r="G774" s="4" t="n">
-        <v>11385.03049</v>
+        <v>12523.53</v>
       </c>
       <c r="H774" s="5" t="s">
         <v>14</v>
@@ -25035,7 +25030,7 @@
         <v>50</v>
       </c>
       <c r="G775" s="4" t="n">
-        <v>12566.74041</v>
+        <v>13823.41</v>
       </c>
       <c r="H775" s="5" t="s">
         <v>14</v>
@@ -25067,7 +25062,7 @@
         <v>55</v>
       </c>
       <c r="G776" s="4" t="n">
-        <v>15709.60546</v>
+        <v>17280.57</v>
       </c>
       <c r="H776" s="5" t="s">
         <v>14</v>
@@ -25099,7 +25094,7 @@
         <v>60</v>
       </c>
       <c r="G777" s="4" t="n">
-        <v>20524.11034</v>
+        <v>22576.52</v>
       </c>
       <c r="H777" s="5" t="s">
         <v>14</v>
@@ -25131,7 +25126,7 @@
         <v>65</v>
       </c>
       <c r="G778" s="4" t="n">
-        <v>27067.11212</v>
+        <v>29773.82</v>
       </c>
       <c r="H778" s="5" t="s">
         <v>14</v>
@@ -25163,7 +25158,7 @@
         <v>70</v>
       </c>
       <c r="G779" s="4" t="n">
-        <v>37781.10177</v>
+        <v>41559.21</v>
       </c>
       <c r="H779" s="5" t="s">
         <v>14</v>
@@ -25195,7 +25190,7 @@
         <v>75</v>
       </c>
       <c r="G780" s="4" t="n">
-        <v>55814.64747</v>
+        <v>61396.11</v>
       </c>
       <c r="H780" s="5" t="s">
         <v>14</v>
@@ -25227,7 +25222,7 @@
         <v>80</v>
       </c>
       <c r="G781" s="4" t="n">
-        <v>85918.46859</v>
+        <v>94510.32</v>
       </c>
       <c r="H781" s="5" t="s">
         <v>14</v>
@@ -25259,7 +25254,7 @@
         <v>17</v>
       </c>
       <c r="G782" s="4" t="n">
-        <v>2290.388435</v>
+        <v>2519.43</v>
       </c>
       <c r="H782" s="5" t="s">
         <v>14</v>
@@ -25291,7 +25286,7 @@
         <v>25</v>
       </c>
       <c r="G783" s="4" t="n">
-        <v>2362.852491</v>
+        <v>2599.14</v>
       </c>
       <c r="H783" s="5" t="s">
         <v>14</v>
@@ -25323,7 +25318,7 @@
         <v>30</v>
       </c>
       <c r="G784" s="4" t="n">
-        <v>2792.818298</v>
+        <v>3072.1</v>
       </c>
       <c r="H784" s="5" t="s">
         <v>14</v>
@@ -25355,7 +25350,7 @@
         <v>35</v>
       </c>
       <c r="G785" s="4" t="n">
-        <v>3184.187464</v>
+        <v>3502.61</v>
       </c>
       <c r="H785" s="5" t="s">
         <v>14</v>
@@ -25387,7 +25382,7 @@
         <v>40</v>
       </c>
       <c r="G786" s="4" t="n">
-        <v>3628.710001</v>
+        <v>3991.58</v>
       </c>
       <c r="H786" s="5" t="s">
         <v>14</v>
@@ -25419,7 +25414,7 @@
         <v>45</v>
       </c>
       <c r="G787" s="4" t="n">
-        <v>4119.212514</v>
+        <v>4531.13</v>
       </c>
       <c r="H787" s="5" t="s">
         <v>14</v>
@@ -25451,7 +25446,7 @@
         <v>50</v>
       </c>
       <c r="G788" s="4" t="n">
-        <v>4854.468477</v>
+        <v>5339.92</v>
       </c>
       <c r="H788" s="5" t="s">
         <v>14</v>
@@ -25483,7 +25478,7 @@
         <v>55</v>
       </c>
       <c r="G789" s="4" t="n">
-        <v>6144.787567</v>
+        <v>6759.27</v>
       </c>
       <c r="H789" s="5" t="s">
         <v>14</v>
@@ -25515,7 +25510,7 @@
         <v>60</v>
       </c>
       <c r="G790" s="4" t="n">
-        <v>7983.551787</v>
+        <v>8781.91</v>
       </c>
       <c r="H790" s="5" t="s">
         <v>14</v>
@@ -25547,7 +25542,7 @@
         <v>65</v>
       </c>
       <c r="G791" s="4" t="n">
-        <v>10463.60698</v>
+        <v>11509.97</v>
       </c>
       <c r="H791" s="5" t="s">
         <v>14</v>
@@ -25579,7 +25574,7 @@
         <v>70</v>
       </c>
       <c r="G792" s="4" t="n">
-        <v>14986.86578</v>
+        <v>16485.55</v>
       </c>
       <c r="H792" s="5" t="s">
         <v>14</v>
@@ -25611,7 +25606,7 @@
         <v>75</v>
       </c>
       <c r="G793" s="4" t="n">
-        <v>24499.99324</v>
+        <v>26949.99</v>
       </c>
       <c r="H793" s="5" t="s">
         <v>14</v>
@@ -25643,7 +25638,7 @@
         <v>80</v>
       </c>
       <c r="G794" s="4" t="n">
-        <v>41181.89074</v>
+        <v>45300.08</v>
       </c>
       <c r="H794" s="5" t="s">
         <v>14</v>
@@ -25675,7 +25670,7 @@
         <v>17</v>
       </c>
       <c r="G795" s="4" t="n">
-        <v>2290.388435</v>
+        <v>2519.43</v>
       </c>
       <c r="H795" s="5" t="s">
         <v>14</v>
@@ -25707,7 +25702,7 @@
         <v>25</v>
       </c>
       <c r="G796" s="4" t="n">
-        <v>2630.249778</v>
+        <v>2893.27</v>
       </c>
       <c r="H796" s="5" t="s">
         <v>14</v>
@@ -25739,7 +25734,7 @@
         <v>30</v>
       </c>
       <c r="G797" s="4" t="n">
-        <v>3324.238673</v>
+        <v>3656.66</v>
       </c>
       <c r="H797" s="5" t="s">
         <v>14</v>
@@ -25771,7 +25766,7 @@
         <v>35</v>
       </c>
       <c r="G798" s="4" t="n">
-        <v>3744.593165</v>
+        <v>4119.05</v>
       </c>
       <c r="H798" s="5" t="s">
         <v>14</v>
@@ -25803,7 +25798,7 @@
         <v>40</v>
       </c>
       <c r="G799" s="4" t="n">
-        <v>4159.715578</v>
+        <v>4575.69</v>
       </c>
       <c r="H799" s="5" t="s">
         <v>14</v>
@@ -25835,7 +25830,7 @@
         <v>45</v>
       </c>
       <c r="G800" s="4" t="n">
-        <v>4469.242682</v>
+        <v>4916.17</v>
       </c>
       <c r="H800" s="5" t="s">
         <v>14</v>
@@ -25867,7 +25862,7 @@
         <v>50</v>
       </c>
       <c r="G801" s="4" t="n">
-        <v>4813.00951</v>
+        <v>5294.31</v>
       </c>
       <c r="H801" s="5" t="s">
         <v>14</v>
@@ -25899,7 +25894,7 @@
         <v>55</v>
       </c>
       <c r="G802" s="4" t="n">
-        <v>6043.448228</v>
+        <v>6647.79</v>
       </c>
       <c r="H802" s="5" t="s">
         <v>14</v>
@@ -25931,7 +25926,7 @@
         <v>60</v>
       </c>
       <c r="G803" s="4" t="n">
-        <v>7874.177786</v>
+        <v>8661.6</v>
       </c>
       <c r="H803" s="5" t="s">
         <v>14</v>
@@ -25963,7 +25958,7 @@
         <v>65</v>
       </c>
       <c r="G804" s="4" t="n">
-        <v>10364.09051</v>
+        <v>11400.5</v>
       </c>
       <c r="H804" s="5" t="s">
         <v>14</v>
@@ -25995,7 +25990,7 @@
         <v>70</v>
       </c>
       <c r="G805" s="4" t="n">
-        <v>14292.20859</v>
+        <v>15721.43</v>
       </c>
       <c r="H805" s="5" t="s">
         <v>14</v>
@@ -26027,7 +26022,7 @@
         <v>75</v>
       </c>
       <c r="G806" s="4" t="n">
-        <v>21205.89364</v>
+        <v>23326.48</v>
       </c>
       <c r="H806" s="5" t="s">
         <v>14</v>
@@ -26059,7 +26054,7 @@
         <v>80</v>
       </c>
       <c r="G807" s="4" t="n">
-        <v>33711.88432</v>
+        <v>37083.07</v>
       </c>
       <c r="H807" s="5" t="s">
         <v>14</v>
@@ -26091,7 +26086,7 @@
         <v>17</v>
       </c>
       <c r="G808" s="4" t="n">
-        <v>3465.802117</v>
+        <v>3812.38</v>
       </c>
       <c r="H808" s="5" t="s">
         <v>14</v>
@@ -26123,7 +26118,7 @@
         <v>25</v>
       </c>
       <c r="G809" s="4" t="n">
-        <v>3587.584731</v>
+        <v>3946.34</v>
       </c>
       <c r="H809" s="5" t="s">
         <v>14</v>
@@ -26155,7 +26150,7 @@
         <v>30</v>
       </c>
       <c r="G810" s="4" t="n">
-        <v>4252.680542</v>
+        <v>4677.95</v>
       </c>
       <c r="H810" s="5" t="s">
         <v>14</v>
@@ -26187,7 +26182,7 @@
         <v>35</v>
       </c>
       <c r="G811" s="4" t="n">
-        <v>4815.806276</v>
+        <v>5297.39</v>
       </c>
       <c r="H811" s="5" t="s">
         <v>14</v>
@@ -26219,7 +26214,7 @@
         <v>40</v>
       </c>
       <c r="G812" s="4" t="n">
-        <v>5407.146418</v>
+        <v>5947.86</v>
       </c>
       <c r="H812" s="5" t="s">
         <v>14</v>
@@ -26251,7 +26246,7 @@
         <v>45</v>
       </c>
       <c r="G813" s="4" t="n">
-        <v>5974.183261</v>
+        <v>6571.6</v>
       </c>
       <c r="H813" s="5" t="s">
         <v>14</v>
@@ -26283,7 +26278,7 @@
         <v>50</v>
       </c>
       <c r="G814" s="4" t="n">
-        <v>6859.210577</v>
+        <v>7545.13</v>
       </c>
       <c r="H814" s="5" t="s">
         <v>14</v>
@@ -26315,7 +26310,7 @@
         <v>55</v>
       </c>
       <c r="G815" s="4" t="n">
-        <v>8654.36316</v>
+        <v>9519.8</v>
       </c>
       <c r="H815" s="5" t="s">
         <v>14</v>
@@ -26347,7 +26342,7 @@
         <v>60</v>
       </c>
       <c r="G816" s="4" t="n">
-        <v>11240.24468</v>
+        <v>12364.27</v>
       </c>
       <c r="H816" s="5" t="s">
         <v>14</v>
@@ -26379,7 +26374,7 @@
         <v>65</v>
       </c>
       <c r="G817" s="4" t="n">
-        <v>14747.45678</v>
+        <v>16222.2</v>
       </c>
       <c r="H817" s="5" t="s">
         <v>14</v>
@@ -26411,7 +26406,7 @@
         <v>70</v>
       </c>
       <c r="G818" s="4" t="n">
-        <v>20939.09139</v>
+        <v>23033</v>
       </c>
       <c r="H818" s="5" t="s">
         <v>14</v>
@@ -26443,7 +26438,7 @@
         <v>75</v>
       </c>
       <c r="G819" s="4" t="n">
-        <v>33217.30365</v>
+        <v>36539.03</v>
       </c>
       <c r="H819" s="5" t="s">
         <v>14</v>
@@ -26475,7 +26470,7 @@
         <v>80</v>
       </c>
       <c r="G820" s="4" t="n">
-        <v>54193.38276</v>
+        <v>59612.72</v>
       </c>
       <c r="H820" s="5" t="s">
         <v>14</v>
@@ -26507,7 +26502,7 @@
         <v>17</v>
       </c>
       <c r="G821" s="4" t="n">
-        <v>3465.802117</v>
+        <v>3812.38</v>
       </c>
       <c r="H821" s="5" t="s">
         <v>14</v>
@@ -26539,7 +26534,7 @@
         <v>25</v>
       </c>
       <c r="G822" s="4" t="n">
-        <v>3700.197038</v>
+        <v>4070.22</v>
       </c>
       <c r="H822" s="5" t="s">
         <v>14</v>
@@ -26571,7 +26566,7 @@
         <v>30</v>
       </c>
       <c r="G823" s="4" t="n">
-        <v>4577.651659</v>
+        <v>5035.42</v>
       </c>
       <c r="H823" s="5" t="s">
         <v>14</v>
@@ -26603,7 +26598,7 @@
         <v>35</v>
       </c>
       <c r="G824" s="4" t="n">
-        <v>5073.905922</v>
+        <v>5581.3</v>
       </c>
       <c r="H824" s="5" t="s">
         <v>14</v>
@@ -26635,7 +26630,7 @@
         <v>40</v>
       </c>
       <c r="G825" s="4" t="n">
-        <v>5634.712558</v>
+        <v>6198.18</v>
       </c>
       <c r="H825" s="5" t="s">
         <v>14</v>
@@ -26667,7 +26662,7 @@
         <v>45</v>
       </c>
       <c r="G826" s="4" t="n">
-        <v>6142.771659</v>
+        <v>6757.05</v>
       </c>
       <c r="H826" s="5" t="s">
         <v>14</v>
@@ -26699,7 +26694,7 @@
         <v>50</v>
       </c>
       <c r="G827" s="4" t="n">
-        <v>6768.311491</v>
+        <v>7445.14</v>
       </c>
       <c r="H827" s="5" t="s">
         <v>14</v>
@@ -26731,7 +26726,7 @@
         <v>55</v>
       </c>
       <c r="G828" s="4" t="n">
-        <v>8463.706696</v>
+        <v>9310.08</v>
       </c>
       <c r="H828" s="5" t="s">
         <v>14</v>
@@ -26763,7 +26758,7 @@
         <v>60</v>
       </c>
       <c r="G829" s="4" t="n">
-        <v>11055.42261</v>
+        <v>12160.96</v>
       </c>
       <c r="H829" s="5" t="s">
         <v>14</v>
@@ -26795,7 +26790,7 @@
         <v>65</v>
       </c>
       <c r="G830" s="4" t="n">
-        <v>14577.80513</v>
+        <v>16035.59</v>
       </c>
       <c r="H830" s="5" t="s">
         <v>14</v>
@@ -26827,7 +26822,7 @@
         <v>70</v>
       </c>
       <c r="G831" s="4" t="n">
-        <v>20330.66041</v>
+        <v>22363.73</v>
       </c>
       <c r="H831" s="5" t="s">
         <v>14</v>
@@ -26859,7 +26854,7 @@
         <v>75</v>
       </c>
       <c r="G832" s="4" t="n">
-        <v>30044.02789</v>
+        <v>33048.43</v>
       </c>
       <c r="H832" s="5" t="s">
         <v>14</v>
@@ -26891,7 +26886,7 @@
         <v>80</v>
       </c>
       <c r="G833" s="4" t="n">
-        <v>46355.56419</v>
+        <v>50991.12</v>
       </c>
       <c r="H833" s="5" t="s">
         <v>14</v>
@@ -26923,7 +26918,7 @@
         <v>17</v>
       </c>
       <c r="G834" s="4" t="n">
-        <v>7302.558405</v>
+        <v>8032.81</v>
       </c>
       <c r="H834" s="5" t="s">
         <v>14</v>
@@ -26955,7 +26950,7 @@
         <v>25</v>
       </c>
       <c r="G835" s="4" t="n">
-        <v>7559.158356</v>
+        <v>8315.07</v>
       </c>
       <c r="H835" s="5" t="s">
         <v>14</v>
@@ -26987,7 +26982,7 @@
         <v>30</v>
       </c>
       <c r="G836" s="4" t="n">
-        <v>8960.53698</v>
+        <v>9856.59</v>
       </c>
       <c r="H836" s="5" t="s">
         <v>14</v>
@@ -27019,7 +27014,7 @@
         <v>35</v>
       </c>
       <c r="G837" s="4" t="n">
-        <v>10147.06132</v>
+        <v>11161.77</v>
       </c>
       <c r="H837" s="5" t="s">
         <v>14</v>
@@ -27051,7 +27046,7 @@
         <v>40</v>
       </c>
       <c r="G838" s="4" t="n">
-        <v>11393.03434</v>
+        <v>12532.34</v>
       </c>
       <c r="H838" s="5" t="s">
         <v>14</v>
@@ -27083,7 +27078,7 @@
         <v>45</v>
       </c>
       <c r="G839" s="4" t="n">
-        <v>12587.79951</v>
+        <v>13846.58</v>
       </c>
       <c r="H839" s="5" t="s">
         <v>14</v>
@@ -27115,7 +27110,7 @@
         <v>50</v>
       </c>
       <c r="G840" s="4" t="n">
-        <v>14452.58101</v>
+        <v>15897.84</v>
       </c>
       <c r="H840" s="5" t="s">
         <v>14</v>
@@ -27147,7 +27142,7 @@
         <v>55</v>
       </c>
       <c r="G841" s="4" t="n">
-        <v>18235.02621</v>
+        <v>20058.53</v>
       </c>
       <c r="H841" s="5" t="s">
         <v>14</v>
@@ -27179,7 +27174,7 @@
         <v>60</v>
       </c>
       <c r="G842" s="4" t="n">
-        <v>23683.56315</v>
+        <v>26051.92</v>
       </c>
       <c r="H842" s="5" t="s">
         <v>14</v>
@@ -27211,7 +27206,7 @@
         <v>65</v>
       </c>
       <c r="G843" s="4" t="n">
-        <v>31073.37373</v>
+        <v>34180.71</v>
       </c>
       <c r="H843" s="5" t="s">
         <v>14</v>
@@ -27243,7 +27238,7 @@
         <v>70</v>
       </c>
       <c r="G844" s="4" t="n">
-        <v>44119.35034</v>
+        <v>48531.29</v>
       </c>
       <c r="H844" s="5" t="s">
         <v>14</v>
@@ -27275,7 +27270,7 @@
         <v>75</v>
       </c>
       <c r="G845" s="4" t="n">
-        <v>69989.94513</v>
+        <v>76988.94</v>
       </c>
       <c r="H845" s="5" t="s">
         <v>14</v>
@@ -27307,7 +27302,7 @@
         <v>80</v>
       </c>
       <c r="G846" s="4" t="n">
-        <v>114187.2298</v>
+        <v>125605.95</v>
       </c>
       <c r="H846" s="5" t="s">
         <v>14</v>
@@ -27339,7 +27334,7 @@
         <v>17</v>
       </c>
       <c r="G847" s="4" t="n">
-        <v>7302.558405</v>
+        <v>8032.81</v>
       </c>
       <c r="H847" s="5" t="s">
         <v>14</v>
@@ -27371,7 +27366,7 @@
         <v>25</v>
       </c>
       <c r="G848" s="4" t="n">
-        <v>7796.436169</v>
+        <v>8576.08</v>
       </c>
       <c r="H848" s="5" t="s">
         <v>14</v>
@@ -27403,7 +27398,7 @@
         <v>30</v>
       </c>
       <c r="G849" s="4" t="n">
-        <v>9645.261753</v>
+        <v>10609.79</v>
       </c>
       <c r="H849" s="5" t="s">
         <v>14</v>
@@ -27435,7 +27430,7 @@
         <v>35</v>
       </c>
       <c r="G850" s="4" t="n">
-        <v>10690.88571</v>
+        <v>11759.97</v>
       </c>
       <c r="H850" s="5" t="s">
         <v>14</v>
@@ -27467,7 +27462,7 @@
         <v>40</v>
       </c>
       <c r="G851" s="4" t="n">
-        <v>11872.52364</v>
+        <v>13059.78</v>
       </c>
       <c r="H851" s="5" t="s">
         <v>14</v>
@@ -27499,7 +27494,7 @@
         <v>45</v>
       </c>
       <c r="G852" s="4" t="n">
-        <v>12943.02078</v>
+        <v>14237.32</v>
       </c>
       <c r="H852" s="5" t="s">
         <v>14</v>
@@ -27531,7 +27526,7 @@
         <v>50</v>
       </c>
       <c r="G853" s="4" t="n">
-        <v>14261.05366</v>
+        <v>15687.16</v>
       </c>
       <c r="H853" s="5" t="s">
         <v>14</v>
@@ -27563,7 +27558,7 @@
         <v>55</v>
       </c>
       <c r="G854" s="4" t="n">
-        <v>17833.3068</v>
+        <v>19616.64</v>
       </c>
       <c r="H854" s="5" t="s">
         <v>14</v>
@@ -27595,7 +27590,7 @@
         <v>60</v>
       </c>
       <c r="G855" s="4" t="n">
-        <v>23294.137</v>
+        <v>25623.55</v>
       </c>
       <c r="H855" s="5" t="s">
         <v>14</v>
@@ -27627,7 +27622,7 @@
         <v>65</v>
       </c>
       <c r="G856" s="4" t="n">
-        <v>30715.91215</v>
+        <v>33787.5</v>
       </c>
       <c r="H856" s="5" t="s">
         <v>14</v>
@@ -27659,7 +27654,7 @@
         <v>70</v>
       </c>
       <c r="G857" s="4" t="n">
-        <v>42837.36638</v>
+        <v>47121.1</v>
       </c>
       <c r="H857" s="5" t="s">
         <v>14</v>
@@ -27691,7 +27686,7 @@
         <v>75</v>
       </c>
       <c r="G858" s="4" t="n">
-        <v>63303.74932</v>
+        <v>69634.12</v>
       </c>
       <c r="H858" s="5" t="s">
         <v>14</v>
@@ -27723,7 +27718,7 @@
         <v>80</v>
       </c>
       <c r="G859" s="4" t="n">
-        <v>97672.68976</v>
+        <v>107439.96</v>
       </c>
       <c r="H859" s="5" t="s">
         <v>14</v>
@@ -27755,7 +27750,7 @@
         <v>17</v>
       </c>
       <c r="G860" s="4" t="n">
-        <v>2369.031596</v>
+        <v>2605.93</v>
       </c>
       <c r="H860" s="5" t="s">
         <v>14</v>
@@ -27787,7 +27782,7 @@
         <v>25</v>
       </c>
       <c r="G861" s="4" t="n">
-        <v>2444.210713</v>
+        <v>2688.63</v>
       </c>
       <c r="H861" s="5" t="s">
         <v>14</v>
@@ -27819,7 +27814,7 @@
         <v>30</v>
       </c>
       <c r="G862" s="4" t="n">
-        <v>2899.691376</v>
+        <v>3189.66</v>
       </c>
       <c r="H862" s="5" t="s">
         <v>14</v>
@@ -27851,7 +27846,7 @@
         <v>35</v>
       </c>
       <c r="G863" s="4" t="n">
-        <v>3314.859588</v>
+        <v>3646.35</v>
       </c>
       <c r="H863" s="5" t="s">
         <v>14</v>
@@ -27883,7 +27878,7 @@
         <v>40</v>
       </c>
       <c r="G864" s="4" t="n">
-        <v>3781.482178</v>
+        <v>4159.63</v>
       </c>
       <c r="H864" s="5" t="s">
         <v>14</v>
@@ -27915,7 +27910,7 @@
         <v>45</v>
       </c>
       <c r="G865" s="4" t="n">
-        <v>4328.940531</v>
+        <v>4761.83</v>
       </c>
       <c r="H865" s="5" t="s">
         <v>14</v>
@@ -27947,7 +27942,7 @@
         <v>50</v>
       </c>
       <c r="G866" s="4" t="n">
-        <v>5183.664352</v>
+        <v>5702.03</v>
       </c>
       <c r="H866" s="5" t="s">
         <v>14</v>
@@ -27979,7 +27974,7 @@
         <v>55</v>
       </c>
       <c r="G867" s="4" t="n">
-        <v>6625.312576</v>
+        <v>7287.84</v>
       </c>
       <c r="H867" s="5" t="s">
         <v>14</v>
@@ -28011,7 +28006,7 @@
         <v>60</v>
       </c>
       <c r="G868" s="4" t="n">
-        <v>8634.318065</v>
+        <v>9497.75</v>
       </c>
       <c r="H868" s="5" t="s">
         <v>14</v>
@@ -28043,7 +28038,7 @@
         <v>65</v>
       </c>
       <c r="G869" s="4" t="n">
-        <v>11339.78759</v>
+        <v>12473.77</v>
       </c>
       <c r="H869" s="5" t="s">
         <v>14</v>
@@ -28075,7 +28070,7 @@
         <v>70</v>
       </c>
       <c r="G870" s="4" t="n">
-        <v>16322.16534</v>
+        <v>17954.38</v>
       </c>
       <c r="H870" s="5" t="s">
         <v>14</v>
@@ -28107,7 +28102,7 @@
         <v>75</v>
       </c>
       <c r="G871" s="4" t="n">
-        <v>27246.82536</v>
+        <v>29971.51</v>
       </c>
       <c r="H871" s="5" t="s">
         <v>14</v>
@@ -28139,7 +28134,7 @@
         <v>80</v>
       </c>
       <c r="G872" s="4" t="n">
-        <v>46846.10429</v>
+        <v>51530.71</v>
       </c>
       <c r="H872" s="5" t="s">
         <v>14</v>
@@ -28171,7 +28166,7 @@
         <v>17</v>
       </c>
       <c r="G873" s="4" t="n">
-        <v>2369.031596</v>
+        <v>2605.93</v>
       </c>
       <c r="H873" s="5" t="s">
         <v>14</v>
@@ -28203,7 +28198,7 @@
         <v>25</v>
       </c>
       <c r="G874" s="4" t="n">
-        <v>2709.617768</v>
+        <v>2980.58</v>
       </c>
       <c r="H874" s="5" t="s">
         <v>14</v>
@@ -28235,7 +28230,7 @@
         <v>30</v>
       </c>
       <c r="G875" s="4" t="n">
-        <v>3433.6711</v>
+        <v>3777.04</v>
       </c>
       <c r="H875" s="5" t="s">
         <v>14</v>
@@ -28267,7 +28262,7 @@
         <v>35</v>
       </c>
       <c r="G876" s="4" t="n">
-        <v>3876.895458</v>
+        <v>4264.59</v>
       </c>
       <c r="H876" s="5" t="s">
         <v>14</v>
@@ -28299,7 +28294,7 @@
         <v>40</v>
       </c>
       <c r="G877" s="4" t="n">
-        <v>4318.040061</v>
+        <v>4749.84</v>
       </c>
       <c r="H877" s="5" t="s">
         <v>14</v>
@@ -28331,7 +28326,7 @@
         <v>45</v>
       </c>
       <c r="G878" s="4" t="n">
-        <v>4690.15738</v>
+        <v>5159.17</v>
       </c>
       <c r="H878" s="5" t="s">
         <v>14</v>
@@ -28363,7 +28358,7 @@
         <v>50</v>
       </c>
       <c r="G879" s="4" t="n">
-        <v>5156.913297</v>
+        <v>5672.6</v>
       </c>
       <c r="H879" s="5" t="s">
         <v>14</v>
@@ -28395,7 +28390,7 @@
         <v>55</v>
       </c>
       <c r="G880" s="4" t="n">
-        <v>6531.569732</v>
+        <v>7184.73</v>
       </c>
       <c r="H880" s="5" t="s">
         <v>14</v>
@@ -28427,7 +28422,7 @@
         <v>60</v>
       </c>
       <c r="G881" s="4" t="n">
-        <v>8525.006458</v>
+        <v>9377.51</v>
       </c>
       <c r="H881" s="5" t="s">
         <v>14</v>
@@ -28459,7 +28454,7 @@
         <v>65</v>
       </c>
       <c r="G882" s="4" t="n">
-        <v>11228.16418</v>
+        <v>12350.98</v>
       </c>
       <c r="H882" s="5" t="s">
         <v>14</v>
@@ -28491,7 +28486,7 @@
         <v>70</v>
       </c>
       <c r="G883" s="4" t="n">
-        <v>15405.13658</v>
+        <v>16945.65</v>
       </c>
       <c r="H883" s="5" t="s">
         <v>14</v>
@@ -28523,7 +28518,7 @@
         <v>75</v>
       </c>
       <c r="G884" s="4" t="n">
-        <v>22951.57173</v>
+        <v>25246.73</v>
       </c>
       <c r="H884" s="5" t="s">
         <v>14</v>
@@ -28555,7 +28550,7 @@
         <v>80</v>
       </c>
       <c r="G885" s="4" t="n">
-        <v>37262.13281</v>
+        <v>40988.35</v>
       </c>
       <c r="H885" s="5" t="s">
         <v>14</v>
@@ -28587,7 +28582,7 @@
         <v>17</v>
       </c>
       <c r="G886" s="4" t="n">
-        <v>3584.804479</v>
+        <v>3943.28</v>
       </c>
       <c r="H886" s="5" t="s">
         <v>14</v>
@@ -28619,7 +28614,7 @@
         <v>25</v>
       </c>
       <c r="G887" s="4" t="n">
-        <v>3711.119439</v>
+        <v>4082.23</v>
       </c>
       <c r="H887" s="5" t="s">
         <v>14</v>
@@ -28651,7 +28646,7 @@
         <v>30</v>
       </c>
       <c r="G888" s="4" t="n">
-        <v>4415.408531</v>
+        <v>4856.95</v>
       </c>
       <c r="H888" s="5" t="s">
         <v>14</v>
@@ -28683,7 +28678,7 @@
         <v>35</v>
       </c>
       <c r="G889" s="4" t="n">
-        <v>5013.437471</v>
+        <v>5514.78</v>
       </c>
       <c r="H889" s="5" t="s">
         <v>14</v>
@@ -28715,7 +28710,7 @@
         <v>40</v>
       </c>
       <c r="G890" s="4" t="n">
-        <v>5634.758602</v>
+        <v>6198.23</v>
       </c>
       <c r="H890" s="5" t="s">
         <v>14</v>
@@ -28747,7 +28742,7 @@
         <v>45</v>
       </c>
       <c r="G891" s="4" t="n">
-        <v>6278.131099</v>
+        <v>6905.94</v>
       </c>
       <c r="H891" s="5" t="s">
         <v>14</v>
@@ -28779,7 +28774,7 @@
         <v>50</v>
       </c>
       <c r="G892" s="4" t="n">
-        <v>7324.218424</v>
+        <v>8056.64</v>
       </c>
       <c r="H892" s="5" t="s">
         <v>14</v>
@@ -28811,7 +28806,7 @@
         <v>55</v>
       </c>
       <c r="G893" s="4" t="n">
-        <v>9331.142731</v>
+        <v>10264.26</v>
       </c>
       <c r="H893" s="5" t="s">
         <v>14</v>
@@ -28843,7 +28838,7 @@
         <v>60</v>
       </c>
       <c r="G894" s="4" t="n">
-        <v>12156.46588</v>
+        <v>13372.11</v>
       </c>
       <c r="H894" s="5" t="s">
         <v>14</v>
@@ -28875,7 +28870,7 @@
         <v>65</v>
       </c>
       <c r="G895" s="4" t="n">
-        <v>15982.34365</v>
+        <v>17580.58</v>
       </c>
       <c r="H895" s="5" t="s">
         <v>14</v>
@@ -28907,7 +28902,7 @@
         <v>70</v>
       </c>
       <c r="G896" s="4" t="n">
-        <v>22803.9128</v>
+        <v>25084.3</v>
       </c>
       <c r="H896" s="5" t="s">
         <v>14</v>
@@ -28939,7 +28934,7 @@
         <v>75</v>
       </c>
       <c r="G897" s="4" t="n">
-        <v>36939.46856</v>
+        <v>40633.42</v>
       </c>
       <c r="H897" s="5" t="s">
         <v>14</v>
@@ -28971,7 +28966,7 @@
         <v>80</v>
       </c>
       <c r="G898" s="4" t="n">
-        <v>61644.50525</v>
+        <v>67808.96</v>
       </c>
       <c r="H898" s="5" t="s">
         <v>14</v>
@@ -29003,7 +28998,7 @@
         <v>17</v>
       </c>
       <c r="G899" s="4" t="n">
-        <v>3584.804479</v>
+        <v>3943.28</v>
       </c>
       <c r="H899" s="5" t="s">
         <v>14</v>
@@ -29035,7 +29030,7 @@
         <v>25</v>
       </c>
       <c r="G900" s="4" t="n">
-        <v>3826.333862</v>
+        <v>4208.97</v>
       </c>
       <c r="H900" s="5" t="s">
         <v>14</v>
@@ -29067,7 +29062,7 @@
         <v>30</v>
       </c>
       <c r="G901" s="4" t="n">
-        <v>4728.324652</v>
+        <v>5201.16</v>
       </c>
       <c r="H901" s="5" t="s">
         <v>14</v>
@@ -29099,7 +29094,7 @@
         <v>35</v>
       </c>
       <c r="G902" s="4" t="n">
-        <v>5253.173273</v>
+        <v>5778.49</v>
       </c>
       <c r="H902" s="5" t="s">
         <v>14</v>
@@ -29131,7 +29126,7 @@
         <v>40</v>
       </c>
       <c r="G903" s="4" t="n">
-        <v>5849.189403</v>
+        <v>6434.11</v>
       </c>
       <c r="H903" s="5" t="s">
         <v>14</v>
@@ -29163,7 +29158,7 @@
         <v>45</v>
       </c>
       <c r="G904" s="4" t="n">
-        <v>6446.957281</v>
+        <v>7091.65</v>
       </c>
       <c r="H904" s="5" t="s">
         <v>14</v>
@@ -29195,7 +29190,7 @@
         <v>50</v>
       </c>
       <c r="G905" s="4" t="n">
-        <v>7251.758069</v>
+        <v>7976.93</v>
       </c>
       <c r="H905" s="5" t="s">
         <v>14</v>
@@ -29227,7 +29222,7 @@
         <v>55</v>
       </c>
       <c r="G906" s="4" t="n">
-        <v>9147.315601</v>
+        <v>10062.05</v>
       </c>
       <c r="H906" s="5" t="s">
         <v>14</v>
@@ -29259,7 +29254,7 @@
         <v>60</v>
       </c>
       <c r="G907" s="4" t="n">
-        <v>11969.19083</v>
+        <v>13166.11</v>
       </c>
       <c r="H907" s="5" t="s">
         <v>14</v>
@@ -29291,7 +29286,7 @@
         <v>65</v>
       </c>
       <c r="G908" s="4" t="n">
-        <v>15793.16147</v>
+        <v>17372.48</v>
       </c>
       <c r="H908" s="5" t="s">
         <v>14</v>
@@ -29323,7 +29318,7 @@
         <v>70</v>
       </c>
       <c r="G909" s="4" t="n">
-        <v>21913.63266</v>
+        <v>24105</v>
       </c>
       <c r="H909" s="5" t="s">
         <v>14</v>
@@ -29355,7 +29350,7 @@
         <v>75</v>
       </c>
       <c r="G910" s="4" t="n">
-        <v>32516.13255</v>
+        <v>35767.75</v>
       </c>
       <c r="H910" s="5" t="s">
         <v>14</v>
@@ -29387,7 +29382,7 @@
         <v>80</v>
       </c>
       <c r="G911" s="4" t="n">
-        <v>51234.48913</v>
+        <v>56357.94</v>
       </c>
       <c r="H911" s="5" t="s">
         <v>14</v>
@@ -29419,7 +29414,7 @@
         <v>17</v>
       </c>
       <c r="G912" s="4" t="n">
-        <v>7553.300274</v>
+        <v>8308.63</v>
       </c>
       <c r="H912" s="5" t="s">
         <v>14</v>
@@ -29451,7 +29446,7 @@
         <v>25</v>
       </c>
       <c r="G913" s="4" t="n">
-        <v>7819.450025</v>
+        <v>8601.4</v>
       </c>
       <c r="H913" s="5" t="s">
         <v>14</v>
@@ -29483,7 +29478,7 @@
         <v>30</v>
       </c>
       <c r="G914" s="4" t="n">
-        <v>9303.410176</v>
+        <v>10233.75</v>
       </c>
       <c r="H914" s="5" t="s">
         <v>14</v>
@@ -29515,7 +29510,7 @@
         <v>35</v>
       </c>
       <c r="G915" s="4" t="n">
-        <v>10563.47671</v>
+        <v>11619.82</v>
       </c>
       <c r="H915" s="5" t="s">
         <v>14</v>
@@ -29547,7 +29542,7 @@
         <v>40</v>
       </c>
       <c r="G916" s="4" t="n">
-        <v>11872.62065</v>
+        <v>13059.88</v>
       </c>
       <c r="H916" s="5" t="s">
         <v>14</v>
@@ -29579,7 +29574,7 @@
         <v>45</v>
       </c>
       <c r="G917" s="4" t="n">
-        <v>13228.22755</v>
+        <v>14551.05</v>
       </c>
       <c r="H917" s="5" t="s">
         <v>14</v>
@@ -29611,7 +29606,7 @@
         <v>50</v>
       </c>
       <c r="G918" s="4" t="n">
-        <v>15432.36775</v>
+        <v>16975.6</v>
       </c>
       <c r="H918" s="5" t="s">
         <v>14</v>
@@ -29643,7 +29638,7 @@
         <v>55</v>
       </c>
       <c r="G919" s="4" t="n">
-        <v>19661.0229</v>
+        <v>21627.13</v>
       </c>
       <c r="H919" s="5" t="s">
         <v>14</v>
@@ -29675,7 +29670,7 @@
         <v>60</v>
       </c>
       <c r="G920" s="4" t="n">
-        <v>25614.07118</v>
+        <v>28175.48</v>
       </c>
       <c r="H920" s="5" t="s">
         <v>14</v>
@@ -29707,7 +29702,7 @@
         <v>65</v>
       </c>
       <c r="G921" s="4" t="n">
-        <v>33675.32075</v>
+        <v>37042.85</v>
       </c>
       <c r="H921" s="5" t="s">
         <v>14</v>
@@ -29739,7 +29734,7 @@
         <v>70</v>
       </c>
       <c r="G922" s="4" t="n">
-        <v>48048.59006</v>
+        <v>52853.45</v>
       </c>
       <c r="H922" s="5" t="s">
         <v>14</v>
@@ -29771,7 +29766,7 @@
         <v>75</v>
       </c>
       <c r="G923" s="4" t="n">
-        <v>77832.66833</v>
+        <v>85615.94</v>
       </c>
       <c r="H923" s="5" t="s">
         <v>14</v>
@@ -29803,7 +29798,7 @@
         <v>80</v>
       </c>
       <c r="G924" s="4" t="n">
-        <v>129886.9886</v>
+        <v>142875.69</v>
       </c>
       <c r="H924" s="5" t="s">
         <v>14</v>
@@ -29835,7 +29830,7 @@
         <v>17</v>
       </c>
       <c r="G925" s="4" t="n">
-        <v>7553.300274</v>
+        <v>8308.63</v>
       </c>
       <c r="H925" s="5" t="s">
         <v>14</v>
@@ -29867,7 +29862,7 @@
         <v>25</v>
       </c>
       <c r="G926" s="4" t="n">
-        <v>8062.210584</v>
+        <v>8868.43</v>
       </c>
       <c r="H926" s="5" t="s">
         <v>14</v>
@@ -29899,7 +29894,7 @@
         <v>30</v>
       </c>
       <c r="G927" s="4" t="n">
-        <v>9962.734677</v>
+        <v>10959.01</v>
       </c>
       <c r="H927" s="5" t="s">
         <v>14</v>
@@ -29931,7 +29926,7 @@
         <v>35</v>
       </c>
       <c r="G928" s="4" t="n">
-        <v>11068.60789</v>
+        <v>12175.47</v>
       </c>
       <c r="H928" s="5" t="s">
         <v>14</v>
@@ -29963,7 +29958,7 @@
         <v>40</v>
       </c>
       <c r="G929" s="4" t="n">
-        <v>12324.43336</v>
+        <v>13556.88</v>
       </c>
       <c r="H929" s="5" t="s">
         <v>14</v>
@@ -29995,7 +29990,7 @@
         <v>45</v>
       </c>
       <c r="G930" s="4" t="n">
-        <v>13583.94983</v>
+        <v>14942.34</v>
       </c>
       <c r="H930" s="5" t="s">
         <v>14</v>
@@ -30027,7 +30022,7 @@
         <v>50</v>
       </c>
       <c r="G931" s="4" t="n">
-        <v>15279.69141</v>
+        <v>16807.66</v>
       </c>
       <c r="H931" s="5" t="s">
         <v>14</v>
@@ -30059,7 +30054,7 @@
         <v>55</v>
       </c>
       <c r="G932" s="4" t="n">
-        <v>19273.69312</v>
+        <v>21201.06</v>
       </c>
       <c r="H932" s="5" t="s">
         <v>14</v>
@@ -30091,7 +30086,7 @@
         <v>60</v>
       </c>
       <c r="G933" s="4" t="n">
-        <v>25219.47652</v>
+        <v>27741.42</v>
       </c>
       <c r="H933" s="5" t="s">
         <v>14</v>
@@ -30123,7 +30118,7 @@
         <v>65</v>
       </c>
       <c r="G934" s="4" t="n">
-        <v>33276.70772</v>
+        <v>36604.38</v>
       </c>
       <c r="H934" s="5" t="s">
         <v>14</v>
@@ -30155,7 +30150,7 @@
         <v>70</v>
       </c>
       <c r="G935" s="4" t="n">
-        <v>46172.74068</v>
+        <v>50790.01</v>
       </c>
       <c r="H935" s="5" t="s">
         <v>14</v>
@@ -30187,7 +30182,7 @@
         <v>75</v>
       </c>
       <c r="G936" s="4" t="n">
-        <v>68512.5547</v>
+        <v>75363.81</v>
       </c>
       <c r="H936" s="5" t="s">
         <v>14</v>
@@ -30219,7 +30214,7 @@
         <v>80</v>
       </c>
       <c r="G937" s="4" t="n">
-        <v>107952.7442</v>
+        <v>118748.02</v>
       </c>
       <c r="H937" s="5" t="s">
         <v>14</v>
@@ -30240,4 +30235,27 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>